--- a/人相占い.xlsx
+++ b/人相占い.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hskw1\git_space\ninsou_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C8512D-210E-43E2-BFD7-2548FFEAC56F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43251537-CB91-4770-A584-47A70D434B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{33870B47-7E14-40C1-9124-05523A9D41DA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="300">
   <si>
     <t>特徴</t>
     <rPh sb="0" eb="2">
@@ -2516,6 +2516,1742 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>ミライ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>理想</t>
+    <rPh sb="0" eb="2">
+      <t>リソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>輪郭くっきり綺麗/山形整い/上下同じ厚さ/肉付良し/引き締まっている/大きさ両黒目の間に収まる</t>
+    <rPh sb="0" eb="2">
+      <t>リンカク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キレイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヤマガタ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>トトノ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジョウゲ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>アツ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ニク</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>クロメ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>オサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大きい口</t>
+    <rPh sb="0" eb="1">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>クチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生活力旺盛</t>
+    <rPh sb="0" eb="3">
+      <t>セイカツリョク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>オウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地味で忍耐強い</t>
+    <rPh sb="0" eb="2">
+      <t>ジミ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニンタイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ツヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小さい口</t>
+    <rPh sb="0" eb="1">
+      <t>チイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>クチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>口が出っ張ている</t>
+    <rPh sb="0" eb="1">
+      <t>クチ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>パ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雄弁で積極的/出れば出るほど粗暴になる</t>
+    <rPh sb="0" eb="2">
+      <t>ユウベン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>セッキョクテキ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ソボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>消極的な引っ込み思案</t>
+    <rPh sb="0" eb="3">
+      <t>ショウキョクテキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シアン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>口が引っ込んでいる</t>
+    <rPh sb="0" eb="1">
+      <t>クチ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受け口</t>
+    <rPh sb="0" eb="1">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>クチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>理屈っぽい/何にでも一度は反対する/孤独/運は終始良くない</t>
+    <rPh sb="0" eb="2">
+      <t>リクツ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ナン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ハンタイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コドク</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シュウシ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上唇が下唇より出ている</t>
+    <rPh sb="0" eb="2">
+      <t>ウワクチビル</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>クチビル</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>慌て者／コツコツ型/周囲に支配される運を持つ</t>
+    <rPh sb="0" eb="1">
+      <t>アワ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モノ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シュウイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シハイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上唇</t>
+    <rPh sb="0" eb="2">
+      <t>ウワクチビル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非常に薄い</t>
+    <rPh sb="0" eb="2">
+      <t>ヒジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ウス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>愛情もセックスもあっさり</t>
+    <rPh sb="0" eb="2">
+      <t>アイジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上唇下唇ともに厚い</t>
+    <rPh sb="0" eb="2">
+      <t>ウワクチビル</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シタクチビル</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>アツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>異性への愛情表現が大胆</t>
+    <rPh sb="0" eb="2">
+      <t>イセイ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>アイジョウヒョウゲン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ダイタン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>承しょう</t>
+    <rPh sb="0" eb="1">
+      <t>ウケタマワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下唇の下/口角</t>
+    <rPh sb="0" eb="2">
+      <t>シタクチビル</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下唇の下肉が無い/口角だらしなく下がっている</t>
+    <rPh sb="4" eb="5">
+      <t>ニク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウカク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男　飲食に足る/女　淫乱の気</t>
+    <rPh sb="0" eb="1">
+      <t>オトコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>インショク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オンナ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>インラン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上唇/口</t>
+    <rPh sb="0" eb="2">
+      <t>ウワクチビル</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>クチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上唇極端に薄い/口が小さい</t>
+    <rPh sb="0" eb="2">
+      <t>ウワクチビル</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キョクタン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ウス</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>クチ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>チイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>味覚な駄目な料理べた</t>
+    <rPh sb="0" eb="2">
+      <t>ミカク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ダメ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>リョウリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>歯</t>
+    <rPh sb="0" eb="1">
+      <t>ハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大きく/堅く/キチンと並んでいる　血わき肉躍るほどの生命力</t>
+    <rPh sb="0" eb="1">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ニク</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オド</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>セイメイリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前歯</t>
+    <rPh sb="0" eb="2">
+      <t>マエバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>歯は前歯だけ見れば良い　前歯二本が大きい/隙間なく/うるおいある白か象牙色　問題ない</t>
+    <rPh sb="0" eb="1">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>マエバ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニホン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>スキマ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ゾウゲ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>歯並びが極端に良くない</t>
+    <rPh sb="0" eb="2">
+      <t>ハナラ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キョクタン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>乱杭歯（八重歯）</t>
+    <rPh sb="0" eb="1">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>クイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>バ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ヤエバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>狡猾な性格が顔を出すので要注意</t>
+    <rPh sb="0" eb="2">
+      <t>コウカツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セイカク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ヨウチュウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>丸みを持つしっかりした顎</t>
+    <rPh sb="0" eb="1">
+      <t>マル</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>福相</t>
+    <rPh sb="0" eb="2">
+      <t>フクソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>短くて小さい</t>
+    <rPh sb="0" eb="1">
+      <t>ミジカ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>チイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>寂しい老後が待っている/人に愛を施して暮らしたり、お金を貯め備えておかないといけない</t>
+    <rPh sb="0" eb="1">
+      <t>サビ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ロウゴ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>アイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ホドコ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>カネ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ソナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>角張っている</t>
+    <rPh sb="0" eb="2">
+      <t>カドバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>辛抱強いが、執着も強い</t>
+    <rPh sb="0" eb="3">
+      <t>シンボウツヨ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュウチャク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ツヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長くて丸みあり</t>
+    <rPh sb="0" eb="1">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>マル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>意志が強く、自分で開運して行ける</t>
+    <rPh sb="0" eb="2">
+      <t>イシ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ツヨ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カイウン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>先が尖っている</t>
+    <rPh sb="0" eb="1">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>トガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女　理想化で綺麗好き/　男　世渡り下手</t>
+    <rPh sb="0" eb="1">
+      <t>オンナ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>リソウカ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>キレイス</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オトコ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヨワタ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヘタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>つまめるくらい贅肉あり</t>
+    <rPh sb="7" eb="9">
+      <t>ゼイニク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>愚鈍/夫婦運、子供運共になくなってしまう</t>
+    <rPh sb="0" eb="2">
+      <t>グドン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>フウフウン</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>コドモウン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>トモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>し骨</t>
+    <rPh sb="1" eb="2">
+      <t>ホネ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>耳の下のエラ骨</t>
+    <rPh sb="0" eb="1">
+      <t>ミミ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ホネ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左右に張っている</t>
+    <rPh sb="0" eb="2">
+      <t>サユウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女　大胆/自分の欲望を押し通す/事業家としては成功/結婚生活は危うい/　男　強情で鈍感/</t>
+    <rPh sb="0" eb="1">
+      <t>オンナ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ダイタン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヨクボウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>ジギョウカ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="26" eb="30">
+      <t>ケッコンセイカツ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>アヤ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>オトコ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ゴウジョウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ドンカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラが全くない</t>
+    <rPh sb="3" eb="4">
+      <t>マッタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>意志が弱い/感情に走る</t>
+    <rPh sb="0" eb="2">
+      <t>イシ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヨワ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンジョウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ハシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左右に張っている（あごは貧弱）</t>
+    <rPh sb="0" eb="2">
+      <t>サユウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒンジャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>反逆的/破壊的/こわい人</t>
+    <rPh sb="0" eb="3">
+      <t>ハンギャクテキ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ハカイテキ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヒト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホクロ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>突起ホクロ</t>
+    <rPh sb="0" eb="2">
+      <t>トッキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そこの部位の意味を良くする/悪くするところはない</t>
+    <rPh sb="3" eb="5">
+      <t>ブイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イミ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ワル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>艶あり/黒光り</t>
+    <rPh sb="0" eb="1">
+      <t>ツヤ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>クロビカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>灰色/青色/薄茶色</t>
+    <rPh sb="0" eb="2">
+      <t>ハイイロ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>アオイロ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ウスチャ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そこの部位の意味を悪くする/注意信号と受け取れば良い/生涯を通じて悪いわけではない</t>
+    <rPh sb="3" eb="5">
+      <t>ブイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イミ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ワル</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>チュウイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シンゴウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ショウガイ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ツウ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ワル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目の下/涙堂</t>
+    <rPh sb="0" eb="1">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ルイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目の下/涙堂にあり</t>
+    <rPh sb="0" eb="1">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ルイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>夫婦、愛人、子供、健康等に常に関心、注意を怠るな</t>
+    <rPh sb="0" eb="2">
+      <t>フウフ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>アイジン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コドモ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ツネ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カンシン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>チュウイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オコタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>額の真ん中</t>
+    <rPh sb="0" eb="1">
+      <t>ヒタイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ナカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>額の真ん中/貫禄/大仏にあり</t>
+    <rPh sb="0" eb="1">
+      <t>ヒタイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ダイブツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手術で除去</t>
+    <rPh sb="0" eb="2">
+      <t>シュジュツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョキョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>死にホクロになり余計悪運に見舞われる</t>
+    <rPh sb="0" eb="1">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヨケイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>アクウン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ミマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男　何かと災い多い人生/一生涯腹八分目にして生きろ/人生に耽溺していると没落する憂目にあう/　女　強くなり夫並みの力を発揮/家にいるより外に出るべき/腹八分目で</t>
+    <rPh sb="0" eb="1">
+      <t>オトコ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ワザワ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジンセイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ショウガイ</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>ハラハチブンメ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジンセイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>タンデキ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ボツラク</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ウキメ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>オンナ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ツヨ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>オットナ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>チカラ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ハッキ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>イエ</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>ソト</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="75" eb="79">
+      <t>ハラハチブンメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>眉間/印堂</t>
+    <rPh sb="0" eb="2">
+      <t>ミケン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>眉間/印堂にあり</t>
+    <rPh sb="0" eb="2">
+      <t>ミケン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男　頭脳明晰多いがうまく生かされていない/　女　夫婦関係を悪くする</t>
+    <rPh sb="0" eb="1">
+      <t>オトコ</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>ズノウメイセキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>オンナ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>フウフ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ワル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>眉中</t>
+    <rPh sb="0" eb="1">
+      <t>マユ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>眉中にあり</t>
+    <rPh sb="0" eb="1">
+      <t>マユ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男　財に恵まれる/　女　良き家庭を持てる　※眉に接しているホクロは全てこの意味</t>
+    <rPh sb="0" eb="1">
+      <t>オトコ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ザイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>メグ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オンナ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カテイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>マユ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>セッ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>イミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目と目の間/山根</t>
+    <rPh sb="0" eb="1">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヤマネ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目と目の間/山根にあり</t>
+    <rPh sb="0" eb="1">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヤマネ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男女　三十代後半より持病を持つ</t>
+    <rPh sb="0" eb="2">
+      <t>ダンジョ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>サンジュウダイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウハン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジビョウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目の下/涙堂にあり</t>
+    <rPh sb="0" eb="1">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ナミダ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目の下/涙堂</t>
+    <rPh sb="0" eb="1">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ナミダ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男　色事で身を誤る/　女　男出入りが激しい。小町ボクロ</t>
+    <rPh sb="0" eb="1">
+      <t>オトコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イロゴト</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>アヤマ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オンナ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オトコ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>デイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ハゲ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>コマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目の横/魚尾/奸門</t>
+    <rPh sb="0" eb="1">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>サカナ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>モン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目の横/魚尾/奸門にあり</t>
+    <rPh sb="0" eb="1">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>サカナ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>モン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男女　好色/色事には十二分に注意が必要</t>
+    <rPh sb="0" eb="2">
+      <t>ダンジョ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウショク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イロゴト</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ジュウニブン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>チュウイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小鼻の横/補弼</t>
+    <rPh sb="0" eb="2">
+      <t>コバナ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ホヒツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小鼻の横/補弼にあり</t>
+    <rPh sb="0" eb="2">
+      <t>コバナ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ホヒツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家庭内の暗さ/老後の寂しさ/人気、人望に気をつけること</t>
+    <rPh sb="0" eb="3">
+      <t>カテイナイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>クラ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ロウゴ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>サビ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニンキ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジンボウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>準頭の手前/年寿にあり</t>
+    <rPh sb="0" eb="1">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>アタマ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>テマエ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ネンジュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>準頭の手前/年寿</t>
+    <rPh sb="0" eb="1">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>アタマ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>テマエ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ネンジュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>病気への注意信号</t>
+    <rPh sb="0" eb="2">
+      <t>ビョウキ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>チュウイシンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>準頭/金甲</t>
+    <rPh sb="0" eb="1">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>コウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>準頭/金甲にあり</t>
+    <rPh sb="0" eb="1">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>コウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>死にホクロある場合　無駄使いを極力控える/老後お金に泣くようになる</t>
+    <rPh sb="0" eb="1">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ムダツカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キョクリョク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ヒカ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ロウゴ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>カネ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>口の上/食禄にあり</t>
+    <rPh sb="0" eb="1">
+      <t>クチ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ショク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>口の上/食禄</t>
+    <rPh sb="0" eb="1">
+      <t>クチ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ショク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男女　経済豊か/人気商売の女は最高</t>
+    <rPh sb="0" eb="2">
+      <t>ダンジョ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケイザイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ユタカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニンキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショウバイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オンナ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サイコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下唇</t>
+    <rPh sb="0" eb="2">
+      <t>シタクチビル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下唇にあり</t>
+    <rPh sb="0" eb="2">
+      <t>シタクチビル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女　四十を過ぎて淫事をする/　男女　くだらない苦労をする</t>
+    <rPh sb="0" eb="1">
+      <t>オンナ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨンジュウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>イン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ダンジョ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>クロウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顎</t>
+    <rPh sb="0" eb="1">
+      <t>アゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顎にあり</t>
+    <rPh sb="0" eb="1">
+      <t>アゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全てに溺れやすい</t>
+    <rPh sb="0" eb="1">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オボ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>頬</t>
+    <rPh sb="0" eb="1">
+      <t>ホオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>頬にあり</t>
+    <rPh sb="0" eb="1">
+      <t>ホオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一切気にしなくてよい</t>
+    <rPh sb="0" eb="2">
+      <t>イッサイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>耳にあり</t>
+    <rPh sb="0" eb="1">
+      <t>ミミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男女　利口者多い/財、寿ともについて回る</t>
+    <rPh sb="0" eb="2">
+      <t>ダンジョ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>リコウモノ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ザイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ジュ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>マワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全体的な意味</t>
+    <rPh sb="0" eb="3">
+      <t>ゼンタイテキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一度の凶で厄除けになる/ソバカスはホクロと同じだが、微弱</t>
+    <rPh sb="0" eb="2">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヤクヨ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ビジャク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2881,16 +4617,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9900863F-BBC4-46C5-A6C7-7C7290BC55B4}">
-  <dimension ref="A1:E80"/>
+  <dimension ref="A1:E124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="C126" sqref="C126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="155.08203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -4206,53 +5942,801 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="B78" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="C78" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="D78" t="s">
-        <v>69</v>
+        <v>193</v>
       </c>
       <c r="E78" t="s">
-        <v>70</v>
+        <v>194</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="B79" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="C79" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="D79" t="s">
-        <v>118</v>
+        <v>195</v>
       </c>
       <c r="E79" t="s">
-        <v>119</v>
+        <v>196</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
+        <v>90</v>
+      </c>
+      <c r="B80" t="s">
+        <v>90</v>
+      </c>
+      <c r="C80" t="s">
+        <v>90</v>
+      </c>
+      <c r="D80" t="s">
+        <v>198</v>
+      </c>
+      <c r="E80" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81" t="s">
+        <v>90</v>
+      </c>
+      <c r="B81" t="s">
+        <v>90</v>
+      </c>
+      <c r="C81" t="s">
+        <v>90</v>
+      </c>
+      <c r="D81" t="s">
+        <v>199</v>
+      </c>
+      <c r="E81" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" t="s">
+        <v>90</v>
+      </c>
+      <c r="B82" t="s">
+        <v>90</v>
+      </c>
+      <c r="C82" t="s">
+        <v>90</v>
+      </c>
+      <c r="D82" t="s">
+        <v>202</v>
+      </c>
+      <c r="E82" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" t="s">
+        <v>90</v>
+      </c>
+      <c r="B83" t="s">
+        <v>90</v>
+      </c>
+      <c r="C83" t="s">
+        <v>90</v>
+      </c>
+      <c r="D83" t="s">
+        <v>203</v>
+      </c>
+      <c r="E83" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" t="s">
+        <v>90</v>
+      </c>
+      <c r="B84" t="s">
+        <v>90</v>
+      </c>
+      <c r="C84" t="s">
+        <v>90</v>
+      </c>
+      <c r="D84" t="s">
+        <v>205</v>
+      </c>
+      <c r="E84" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" t="s">
+        <v>90</v>
+      </c>
+      <c r="B85" t="s">
+        <v>90</v>
+      </c>
+      <c r="C85" t="s">
+        <v>207</v>
+      </c>
+      <c r="D85" t="s">
+        <v>208</v>
+      </c>
+      <c r="E85" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86" t="s">
+        <v>90</v>
+      </c>
+      <c r="B86" t="s">
+        <v>90</v>
+      </c>
+      <c r="C86" t="s">
+        <v>90</v>
+      </c>
+      <c r="D86" t="s">
+        <v>210</v>
+      </c>
+      <c r="E86" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87" t="s">
+        <v>90</v>
+      </c>
+      <c r="B87" t="s">
+        <v>212</v>
+      </c>
+      <c r="C87" t="s">
+        <v>213</v>
+      </c>
+      <c r="D87" t="s">
+        <v>214</v>
+      </c>
+      <c r="E87" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88" t="s">
+        <v>90</v>
+      </c>
+      <c r="B88" t="s">
+        <v>90</v>
+      </c>
+      <c r="C88" t="s">
+        <v>216</v>
+      </c>
+      <c r="D88" t="s">
+        <v>217</v>
+      </c>
+      <c r="E88" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89" t="s">
+        <v>219</v>
+      </c>
+      <c r="B89" t="s">
+        <v>219</v>
+      </c>
+      <c r="C89" t="s">
+        <v>219</v>
+      </c>
+      <c r="D89" t="s">
+        <v>193</v>
+      </c>
+      <c r="E89" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" t="s">
+        <v>219</v>
+      </c>
+      <c r="B90" t="s">
+        <v>219</v>
+      </c>
+      <c r="C90" t="s">
+        <v>221</v>
+      </c>
+      <c r="D90" t="s">
+        <v>159</v>
+      </c>
+      <c r="E90" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91" t="s">
+        <v>219</v>
+      </c>
+      <c r="B91" t="s">
+        <v>219</v>
+      </c>
+      <c r="C91" t="s">
+        <v>219</v>
+      </c>
+      <c r="D91" t="s">
+        <v>223</v>
+      </c>
+      <c r="E91" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92" t="s">
+        <v>219</v>
+      </c>
+      <c r="B92" t="s">
+        <v>219</v>
+      </c>
+      <c r="C92" t="s">
+        <v>219</v>
+      </c>
+      <c r="D92" t="s">
+        <v>224</v>
+      </c>
+      <c r="E92" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93" t="s">
+        <v>68</v>
+      </c>
+      <c r="B93" t="s">
+        <v>67</v>
+      </c>
+      <c r="C93" t="s">
+        <v>68</v>
+      </c>
+      <c r="D93" t="s">
+        <v>69</v>
+      </c>
+      <c r="E93" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A94" t="s">
+        <v>68</v>
+      </c>
+      <c r="B94" t="s">
+        <v>68</v>
+      </c>
+      <c r="C94" t="s">
+        <v>68</v>
+      </c>
+      <c r="D94" t="s">
+        <v>226</v>
+      </c>
+      <c r="E94" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A95" t="s">
+        <v>68</v>
+      </c>
+      <c r="B95" t="s">
+        <v>68</v>
+      </c>
+      <c r="C95" t="s">
+        <v>68</v>
+      </c>
+      <c r="D95" t="s">
+        <v>228</v>
+      </c>
+      <c r="E95" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A96" t="s">
+        <v>68</v>
+      </c>
+      <c r="B96" t="s">
+        <v>68</v>
+      </c>
+      <c r="C96" t="s">
+        <v>68</v>
+      </c>
+      <c r="D96" t="s">
+        <v>230</v>
+      </c>
+      <c r="E96" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97" t="s">
+        <v>68</v>
+      </c>
+      <c r="B97" t="s">
+        <v>68</v>
+      </c>
+      <c r="C97" t="s">
+        <v>68</v>
+      </c>
+      <c r="D97" t="s">
+        <v>232</v>
+      </c>
+      <c r="E97" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A98" t="s">
+        <v>68</v>
+      </c>
+      <c r="B98" t="s">
+        <v>68</v>
+      </c>
+      <c r="C98" t="s">
+        <v>68</v>
+      </c>
+      <c r="D98" t="s">
+        <v>234</v>
+      </c>
+      <c r="E98" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A99" t="s">
+        <v>68</v>
+      </c>
+      <c r="B99" t="s">
+        <v>68</v>
+      </c>
+      <c r="C99" t="s">
+        <v>68</v>
+      </c>
+      <c r="D99" t="s">
+        <v>236</v>
+      </c>
+      <c r="E99" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A100" t="s">
+        <v>68</v>
+      </c>
+      <c r="B100" t="s">
+        <v>238</v>
+      </c>
+      <c r="C100" t="s">
+        <v>239</v>
+      </c>
+      <c r="D100" t="s">
+        <v>240</v>
+      </c>
+      <c r="E100" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A101" t="s">
+        <v>68</v>
+      </c>
+      <c r="B101" t="s">
+        <v>238</v>
+      </c>
+      <c r="C101" t="s">
+        <v>239</v>
+      </c>
+      <c r="D101" t="s">
+        <v>242</v>
+      </c>
+      <c r="E101" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A102" t="s">
+        <v>68</v>
+      </c>
+      <c r="B102" t="s">
+        <v>238</v>
+      </c>
+      <c r="C102" t="s">
+        <v>239</v>
+      </c>
+      <c r="D102" t="s">
+        <v>244</v>
+      </c>
+      <c r="E102" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A103" t="s">
         <v>117</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B103" t="s">
         <v>116</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C103" t="s">
         <v>117</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D103" t="s">
+        <v>118</v>
+      </c>
+      <c r="E103" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A104" t="s">
+        <v>117</v>
+      </c>
+      <c r="B104" t="s">
+        <v>116</v>
+      </c>
+      <c r="C104" t="s">
+        <v>117</v>
+      </c>
+      <c r="D104" t="s">
         <v>120</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E104" t="s">
         <v>121</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A105" t="s">
+        <v>246</v>
+      </c>
+      <c r="B105" t="s">
+        <v>246</v>
+      </c>
+      <c r="C105" t="s">
+        <v>246</v>
+      </c>
+      <c r="D105" t="s">
+        <v>298</v>
+      </c>
+      <c r="E105" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A106" t="s">
+        <v>246</v>
+      </c>
+      <c r="B106" t="s">
+        <v>246</v>
+      </c>
+      <c r="C106" t="s">
+        <v>246</v>
+      </c>
+      <c r="D106" t="s">
+        <v>247</v>
+      </c>
+      <c r="E106" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A107" t="s">
+        <v>246</v>
+      </c>
+      <c r="B107" t="s">
+        <v>246</v>
+      </c>
+      <c r="C107" t="s">
+        <v>246</v>
+      </c>
+      <c r="D107" t="s">
+        <v>249</v>
+      </c>
+      <c r="E107" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A108" t="s">
+        <v>246</v>
+      </c>
+      <c r="B108" t="s">
+        <v>246</v>
+      </c>
+      <c r="C108" t="s">
+        <v>246</v>
+      </c>
+      <c r="D108" t="s">
+        <v>250</v>
+      </c>
+      <c r="E108" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A109" t="s">
+        <v>246</v>
+      </c>
+      <c r="B109" t="s">
+        <v>246</v>
+      </c>
+      <c r="C109" t="s">
+        <v>252</v>
+      </c>
+      <c r="D109" t="s">
+        <v>253</v>
+      </c>
+      <c r="E109" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A110" t="s">
+        <v>246</v>
+      </c>
+      <c r="B110" t="s">
+        <v>246</v>
+      </c>
+      <c r="C110" t="s">
+        <v>255</v>
+      </c>
+      <c r="D110" t="s">
+        <v>256</v>
+      </c>
+      <c r="E110" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A111" t="s">
+        <v>246</v>
+      </c>
+      <c r="B111" t="s">
+        <v>246</v>
+      </c>
+      <c r="C111" t="s">
+        <v>246</v>
+      </c>
+      <c r="D111" t="s">
+        <v>257</v>
+      </c>
+      <c r="E111" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A112" t="s">
+        <v>246</v>
+      </c>
+      <c r="B112" t="s">
+        <v>246</v>
+      </c>
+      <c r="C112" t="s">
+        <v>260</v>
+      </c>
+      <c r="D112" t="s">
+        <v>261</v>
+      </c>
+      <c r="E112" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A113" t="s">
+        <v>246</v>
+      </c>
+      <c r="B113" t="s">
+        <v>246</v>
+      </c>
+      <c r="C113" t="s">
+        <v>263</v>
+      </c>
+      <c r="D113" t="s">
+        <v>264</v>
+      </c>
+      <c r="E113" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A114" t="s">
+        <v>246</v>
+      </c>
+      <c r="B114" t="s">
+        <v>246</v>
+      </c>
+      <c r="C114" t="s">
+        <v>266</v>
+      </c>
+      <c r="D114" t="s">
+        <v>267</v>
+      </c>
+      <c r="E114" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A115" t="s">
+        <v>246</v>
+      </c>
+      <c r="B115" t="s">
+        <v>246</v>
+      </c>
+      <c r="C115" t="s">
+        <v>270</v>
+      </c>
+      <c r="D115" t="s">
+        <v>269</v>
+      </c>
+      <c r="E115" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A116" t="s">
+        <v>246</v>
+      </c>
+      <c r="B116" t="s">
+        <v>246</v>
+      </c>
+      <c r="C116" t="s">
+        <v>272</v>
+      </c>
+      <c r="D116" t="s">
+        <v>273</v>
+      </c>
+      <c r="E116" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A117" t="s">
+        <v>246</v>
+      </c>
+      <c r="B117" t="s">
+        <v>246</v>
+      </c>
+      <c r="C117" t="s">
+        <v>275</v>
+      </c>
+      <c r="D117" t="s">
+        <v>276</v>
+      </c>
+      <c r="E117" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A118" t="s">
+        <v>246</v>
+      </c>
+      <c r="B118" t="s">
+        <v>246</v>
+      </c>
+      <c r="C118" t="s">
+        <v>279</v>
+      </c>
+      <c r="D118" t="s">
+        <v>278</v>
+      </c>
+      <c r="E118" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A119" t="s">
+        <v>246</v>
+      </c>
+      <c r="B119" t="s">
+        <v>246</v>
+      </c>
+      <c r="C119" t="s">
+        <v>281</v>
+      </c>
+      <c r="D119" t="s">
+        <v>282</v>
+      </c>
+      <c r="E119" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A120" t="s">
+        <v>246</v>
+      </c>
+      <c r="B120" t="s">
+        <v>246</v>
+      </c>
+      <c r="C120" t="s">
+        <v>285</v>
+      </c>
+      <c r="D120" t="s">
+        <v>284</v>
+      </c>
+      <c r="E120" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A121" t="s">
+        <v>246</v>
+      </c>
+      <c r="B121" t="s">
+        <v>246</v>
+      </c>
+      <c r="C121" t="s">
+        <v>287</v>
+      </c>
+      <c r="D121" t="s">
+        <v>288</v>
+      </c>
+      <c r="E121" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A122" t="s">
+        <v>246</v>
+      </c>
+      <c r="B122" t="s">
+        <v>246</v>
+      </c>
+      <c r="C122" t="s">
+        <v>290</v>
+      </c>
+      <c r="D122" t="s">
+        <v>291</v>
+      </c>
+      <c r="E122" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A123" t="s">
+        <v>246</v>
+      </c>
+      <c r="B123" t="s">
+        <v>246</v>
+      </c>
+      <c r="C123" t="s">
+        <v>293</v>
+      </c>
+      <c r="D123" t="s">
+        <v>294</v>
+      </c>
+      <c r="E123" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A124" t="s">
+        <v>246</v>
+      </c>
+      <c r="B124" t="s">
+        <v>246</v>
+      </c>
+      <c r="C124" t="s">
+        <v>176</v>
+      </c>
+      <c r="D124" t="s">
+        <v>296</v>
+      </c>
+      <c r="E124" t="s">
+        <v>297</v>
       </c>
     </row>
   </sheetData>

--- a/人相占い.xlsx
+++ b/人相占い.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hskw1\git_space\ninsou_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43251537-CB91-4770-A584-47A70D434B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1876B14C-2596-4BBD-B031-3AB6D4D51DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{33870B47-7E14-40C1-9124-05523A9D41DA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="356">
   <si>
     <t>特徴</t>
     <rPh sb="0" eb="2">
@@ -3058,13 +3058,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>福相</t>
-    <rPh sb="0" eb="2">
-      <t>フクソウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>短くて小さい</t>
     <rPh sb="0" eb="1">
       <t>ミジカ</t>
@@ -3075,56 +3068,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>寂しい老後が待っている/人に愛を施して暮らしたり、お金を貯め備えておかないといけない</t>
-    <rPh sb="0" eb="1">
-      <t>サビ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ロウゴ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>アイ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ホドコ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>カネ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>ソナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>角張っている</t>
     <rPh sb="0" eb="2">
       <t>カドバ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>辛抱強いが、執着も強い</t>
-    <rPh sb="0" eb="3">
-      <t>シンボウツヨ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>シュウチャク</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ツヨ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4252,6 +4198,884 @@
     </rPh>
     <rPh sb="26" eb="28">
       <t>ビジャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仙骨</t>
+    <rPh sb="0" eb="2">
+      <t>センコツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>額上部両隅</t>
+    <rPh sb="0" eb="1">
+      <t>ヒタイ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ジョウブ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>スミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>抜けあがり（そりこみ）</t>
+    <rPh sb="0" eb="1">
+      <t>ヌ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目一つ分くらい開いている</t>
+    <rPh sb="0" eb="1">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>くよくよしない/頭脳の切り替え巧み</t>
+    <rPh sb="8" eb="10">
+      <t>ズノウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>タク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目の周り</t>
+    <rPh sb="0" eb="1">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>マワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>肉付き良い</t>
+    <rPh sb="0" eb="2">
+      <t>ニクヅ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>眉尻</t>
+    <rPh sb="0" eb="1">
+      <t>マユ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>シリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>散っている</t>
+    <rPh sb="0" eb="1">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>金儲けや体裁に無頓着/M字額と比例して自分独自の世界を創る</t>
+    <rPh sb="0" eb="2">
+      <t>カネモウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>テイサイ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ムトンチャク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヒタイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒレイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ドクジ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>セカイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>心性質/考えて組立てて理論を持つ/眉尻が散っている場合:　自分独自の世界を創る</t>
+    <rPh sb="0" eb="1">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>セイシツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>クミタ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>リロン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>マユジリ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ドクジ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>セカイ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>始まり細く、終わり太い</t>
+    <rPh sb="0" eb="1">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ホソ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>フト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カンが生きる</t>
+    <rPh sb="3" eb="4">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>額上方に向かっていい色</t>
+    <rPh sb="0" eb="1">
+      <t>ガク</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勝負の日に出ると勝てる</t>
+    <rPh sb="0" eb="2">
+      <t>ショウブ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鼻先に向かっていい色</t>
+    <rPh sb="0" eb="2">
+      <t>ハナサキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こめかみから顎骨</t>
+    <rPh sb="6" eb="7">
+      <t>アゴ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ホネ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いい色</t>
+    <rPh sb="2" eb="3">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あご骨</t>
+    <rPh sb="2" eb="3">
+      <t>ホネ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>丸く肉付が良い</t>
+    <rPh sb="0" eb="1">
+      <t>マル</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ニク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>人気、徳望がある</t>
+    <rPh sb="0" eb="2">
+      <t>ニンキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トクボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>笑うと肉が盛り上がる</t>
+    <rPh sb="0" eb="1">
+      <t>ワラ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ニク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不人気な人はいない</t>
+    <rPh sb="0" eb="3">
+      <t>フニンキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>辛抱強いが、執着も強い/自己中心</t>
+    <rPh sb="0" eb="3">
+      <t>シンボウツヨ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュウチャク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ツヨ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジコ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>チュウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>福相/広く愛情を示す</t>
+    <rPh sb="0" eb="2">
+      <t>フクソウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヒロ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>アイジョウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>シメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>法令線</t>
+    <rPh sb="0" eb="1">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>セン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>命令系統の不十分さ/自分の権力の不浸透さ</t>
+    <rPh sb="0" eb="4">
+      <t>メイレイケイトウ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>フジュウブン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ケンリョク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>人気がある</t>
+    <rPh sb="0" eb="2">
+      <t>ニンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タフ/スタミナが豊か</t>
+    <rPh sb="8" eb="9">
+      <t>ユタカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>口からあご</t>
+    <rPh sb="0" eb="1">
+      <t>クチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>肉付が寂しい</t>
+    <rPh sb="0" eb="2">
+      <t>ニクツキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>サビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>老後に寂しくなる</t>
+    <rPh sb="0" eb="2">
+      <t>ロウゴ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>サビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>強さ、鋭さが前面に出ている/感情が目に現れる為、隠し事が出来ない</t>
+    <rPh sb="0" eb="1">
+      <t>ツヨ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>スルド</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ゼンメン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カンジョウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>アラワ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ゴト</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>頬骨</t>
+    <rPh sb="0" eb="1">
+      <t>ホオ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ホネ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大きく、耳に向かって発達</t>
+    <rPh sb="0" eb="1">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ミミ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハッタツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>忍耐力がある</t>
+    <rPh sb="0" eb="3">
+      <t>ニンタイリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>包容力に欠ける/寂しい老後が待っている/人に愛を施して暮らしたり、お金を貯め備えておかないといけない</t>
+    <rPh sb="0" eb="3">
+      <t>ホウヨウリョク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>サビ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ロウゴ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>アイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ホドコ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>カネ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ソナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>凸部分</t>
+    <rPh sb="0" eb="1">
+      <t>トツ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ブブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>印堂、山根、鼻、頬骨が前面に出ている</t>
+    <rPh sb="0" eb="2">
+      <t>インドウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヤマネ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ホオボネ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ゼンメン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>世間に自分を誇示しないと生きていけない/家庭に収まるのは無理</t>
+    <rPh sb="0" eb="2">
+      <t>セケン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コジ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カテイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>オサ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ムリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>細長</t>
+    <rPh sb="0" eb="2">
+      <t>ホソナガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山根太い/小鼻張り厚みあり/準頭丸く大きい</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマネ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>フト</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コバナ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ハリ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アツ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>アタマ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>マル</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大将の鼻/常に優位に立っている振りをしないと本人のいいところが出てこない</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ツネ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ユウイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ホンニン</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>華やかさはないか、しっかり仕事を見据え、深く理解できる/緻密/神経を使う</t>
+    <rPh sb="0" eb="1">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シゴト</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ミス</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>リカイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>チミツ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>シンケイ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>耳たぶ/金甲/口</t>
+    <rPh sb="0" eb="1">
+      <t>ミミ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>キム</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>コウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>クチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>肉付きが良い</t>
+    <rPh sb="0" eb="2">
+      <t>ニクヅ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50歳過ぎると太ってくる</t>
+    <rPh sb="2" eb="3">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>フト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>耳/鼻</t>
+    <rPh sb="0" eb="1">
+      <t>ミミ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ハナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕事をじっくり考える/考えすぎる/拘泥する/判断は早くなく、用心深い</t>
+    <rPh sb="0" eb="2">
+      <t>シゴト</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>コウデイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ハンダン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ハヤ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヨウジン</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>フカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三差（波形）になっている</t>
+    <rPh sb="0" eb="2">
+      <t>サンサ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナミ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>反骨精神/むかっ腹立ち/すぐカッとなる</t>
+    <rPh sb="0" eb="4">
+      <t>ハンコツセイシン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ハラ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>抜けあがり（そりこみ）なし</t>
+    <rPh sb="0" eb="1">
+      <t>ヌ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>独自の勘、先見性がない/与えられたことを卒なくこなすだけ</t>
+    <rPh sb="0" eb="2">
+      <t>ドクジ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>センケンセイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>アタ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ソツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中央正中線</t>
+    <rPh sb="0" eb="2">
+      <t>チュウオウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>セイチュウセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>凹凸がなく、縫合も良い</t>
+    <rPh sb="0" eb="2">
+      <t>オウトツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ホウゴウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生まれ育ちが良い</t>
+    <rPh sb="0" eb="1">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ソダ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>乱れている</t>
+    <rPh sb="0" eb="1">
+      <t>ミダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>精神状態が不安定</t>
+    <rPh sb="0" eb="4">
+      <t>セイシンジョウタイ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>フアンテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4617,16 +5441,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9900863F-BBC4-46C5-A6C7-7C7290BC55B4}">
-  <dimension ref="A1:E124"/>
+  <dimension ref="A1:E148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="C126" sqref="C126"/>
+    <sheetView tabSelected="1" topLeftCell="D20" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="16.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="155.08203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -4863,10 +5686,10 @@
         <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>347</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>348</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -4880,10 +5703,10 @@
         <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -4891,16 +5714,16 @@
         <v>78</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -4908,84 +5731,84 @@
         <v>78</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D17" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="B18" t="s">
-        <v>140</v>
+        <v>297</v>
       </c>
       <c r="C18" t="s">
-        <v>140</v>
+        <v>298</v>
       </c>
       <c r="D18" t="s">
-        <v>141</v>
+        <v>299</v>
       </c>
       <c r="E18" t="s">
-        <v>142</v>
+        <v>307</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="B19" t="s">
-        <v>140</v>
+        <v>297</v>
       </c>
       <c r="C19" t="s">
-        <v>140</v>
+        <v>298</v>
       </c>
       <c r="D19" t="s">
-        <v>143</v>
+        <v>349</v>
       </c>
       <c r="E19" t="s">
-        <v>144</v>
+        <v>350</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="B20" t="s">
-        <v>140</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="D20" t="s">
-        <v>145</v>
+        <v>45</v>
       </c>
       <c r="E20" t="s">
-        <v>158</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="B21" t="s">
-        <v>140</v>
+        <v>351</v>
       </c>
       <c r="C21" t="s">
-        <v>140</v>
+        <v>351</v>
       </c>
       <c r="D21" t="s">
-        <v>146</v>
+        <v>352</v>
       </c>
       <c r="E21" t="s">
-        <v>147</v>
+        <v>353</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -4999,10 +5822,10 @@
         <v>140</v>
       </c>
       <c r="D22" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E22" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -5016,10 +5839,10 @@
         <v>140</v>
       </c>
       <c r="D23" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E23" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -5033,10 +5856,10 @@
         <v>140</v>
       </c>
       <c r="D24" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E24" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -5050,10 +5873,10 @@
         <v>140</v>
       </c>
       <c r="D25" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="E25" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -5067,10 +5890,10 @@
         <v>140</v>
       </c>
       <c r="D26" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E26" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -5084,265 +5907,265 @@
         <v>140</v>
       </c>
       <c r="D27" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="E27" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="B28" t="s">
-        <v>17</v>
+        <v>140</v>
       </c>
       <c r="C28" t="s">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="D28" t="s">
-        <v>11</v>
+        <v>152</v>
       </c>
       <c r="E28" t="s">
-        <v>15</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>140</v>
       </c>
       <c r="C29" t="s">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="D29" t="s">
-        <v>18</v>
+        <v>154</v>
       </c>
       <c r="E29" t="s">
-        <v>19</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>140</v>
       </c>
       <c r="C30" t="s">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>156</v>
       </c>
       <c r="E30" t="s">
-        <v>31</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="B31" t="s">
-        <v>17</v>
+        <v>140</v>
       </c>
       <c r="C31" t="s">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="D31" t="s">
-        <v>53</v>
+        <v>159</v>
       </c>
       <c r="E31" t="s">
-        <v>54</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>22</v>
+        <v>140</v>
       </c>
       <c r="B32" t="s">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="C32" t="s">
-        <v>22</v>
+        <v>140</v>
       </c>
       <c r="D32" t="s">
-        <v>21</v>
+        <v>308</v>
       </c>
       <c r="E32" t="s">
-        <v>30</v>
+        <v>309</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
-        <v>71</v>
+        <v>140</v>
       </c>
       <c r="B33" t="s">
-        <v>71</v>
+        <v>140</v>
       </c>
       <c r="C33" t="s">
-        <v>71</v>
+        <v>140</v>
       </c>
       <c r="D33" t="s">
-        <v>72</v>
+        <v>354</v>
       </c>
       <c r="E33" t="s">
-        <v>73</v>
+        <v>355</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>71</v>
+        <v>140</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>304</v>
       </c>
       <c r="C34" t="s">
-        <v>71</v>
+        <v>304</v>
       </c>
       <c r="D34" t="s">
-        <v>74</v>
+        <v>305</v>
       </c>
       <c r="E34" t="s">
-        <v>73</v>
+        <v>306</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="B35" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="C35" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>97</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="B36" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="C36" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="E36" t="s">
-        <v>98</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="C37" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>112</v>
+        <v>24</v>
       </c>
       <c r="E37" t="s">
-        <v>113</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="B38" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="C38" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>114</v>
+        <v>53</v>
       </c>
       <c r="E38" t="s">
-        <v>115</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="C39" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>76</v>
+        <v>300</v>
       </c>
       <c r="E39" t="s">
-        <v>77</v>
+        <v>301</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="B40" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="C40" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>100</v>
+        <v>310</v>
       </c>
       <c r="E40" t="s">
-        <v>101</v>
+        <v>311</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="B41" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="C41" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>102</v>
+        <v>312</v>
       </c>
       <c r="E41" t="s">
-        <v>103</v>
+        <v>311</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="B42" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="C42" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="D42" t="s">
-        <v>104</v>
+        <v>21</v>
       </c>
       <c r="E42" t="s">
-        <v>105</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -5350,16 +6173,16 @@
         <v>71</v>
       </c>
       <c r="B43" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="C43" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="D43" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="E43" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -5367,16 +6190,16 @@
         <v>71</v>
       </c>
       <c r="B44" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="C44" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="D44" t="s">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="E44" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -5384,322 +6207,322 @@
         <v>71</v>
       </c>
       <c r="B45" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="C45" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="D45" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="E45" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="B46" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="C46" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="D46" t="s">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="E46" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="B47" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="C47" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="D47" t="s">
-        <v>28</v>
+        <v>338</v>
       </c>
       <c r="E47" t="s">
-        <v>29</v>
+        <v>341</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="B48" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="C48" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="D48" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="E48" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="B49" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="C49" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="D49" t="s">
-        <v>51</v>
+        <v>114</v>
       </c>
       <c r="E49" t="s">
-        <v>52</v>
+        <v>115</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="B50" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="C50" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="D50" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="E50" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="B51" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="C51" t="s">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="D51" t="s">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="E51" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="B52" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="C52" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="D52" t="s">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="E52" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="B53" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="C53" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="D53" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="E53" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="B54" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="C54" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="D54" t="s">
-        <v>170</v>
+        <v>106</v>
       </c>
       <c r="E54" t="s">
-        <v>171</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="B55" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="C55" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="D55" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="E55" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="B56" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="C56" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="D56" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="E56" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="B57" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="C57" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="D57" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="E57" t="s">
-        <v>62</v>
+        <v>330</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B58" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="C58" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="D58" t="s">
-        <v>170</v>
+        <v>24</v>
       </c>
       <c r="E58" t="s">
-        <v>171</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B59" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="C59" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="D59" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="E59" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
-        <v>26</v>
+        <v>302</v>
       </c>
       <c r="B60" t="s">
-        <v>26</v>
+        <v>302</v>
       </c>
       <c r="C60" t="s">
-        <v>26</v>
+        <v>302</v>
       </c>
       <c r="D60" t="s">
-        <v>152</v>
+        <v>303</v>
       </c>
       <c r="E60" t="s">
-        <v>162</v>
+        <v>326</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="B61" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="C61" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="D61" t="s">
-        <v>164</v>
+        <v>51</v>
       </c>
       <c r="E61" t="s">
-        <v>163</v>
+        <v>52</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="B62" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="C62" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="D62" t="s">
-        <v>159</v>
+        <v>51</v>
       </c>
       <c r="E62" t="s">
-        <v>161</v>
+        <v>52</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
-        <v>26</v>
+        <v>313</v>
       </c>
       <c r="B63" t="s">
-        <v>165</v>
+        <v>313</v>
       </c>
       <c r="C63" t="s">
-        <v>165</v>
+        <v>313</v>
       </c>
       <c r="D63" t="s">
-        <v>166</v>
+        <v>314</v>
       </c>
       <c r="E63" t="s">
-        <v>167</v>
+        <v>311</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -5707,1036 +6530,1444 @@
         <v>26</v>
       </c>
       <c r="B64" t="s">
-        <v>165</v>
+        <v>26</v>
       </c>
       <c r="C64" t="s">
-        <v>165</v>
+        <v>26</v>
       </c>
       <c r="D64" t="s">
-        <v>168</v>
+        <v>28</v>
       </c>
       <c r="E64" t="s">
-        <v>169</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="B65" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="C65" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="D65" t="s">
-        <v>65</v>
+        <v>339</v>
       </c>
       <c r="E65" t="s">
-        <v>66</v>
+        <v>340</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
-        <v>176</v>
+        <v>26</v>
       </c>
       <c r="B66" t="s">
-        <v>176</v>
+        <v>55</v>
       </c>
       <c r="C66" t="s">
-        <v>176</v>
+        <v>56</v>
       </c>
       <c r="D66" t="s">
-        <v>177</v>
+        <v>57</v>
       </c>
       <c r="E66" t="s">
-        <v>178</v>
+        <v>58</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
-        <v>176</v>
+        <v>26</v>
       </c>
       <c r="B67" t="s">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="C67" t="s">
-        <v>176</v>
+        <v>16</v>
       </c>
       <c r="D67" t="s">
-        <v>159</v>
+        <v>13</v>
       </c>
       <c r="E67" t="s">
-        <v>179</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
-        <v>176</v>
+        <v>26</v>
       </c>
       <c r="B68" t="s">
-        <v>180</v>
+        <v>12</v>
       </c>
       <c r="C68" t="s">
-        <v>180</v>
+        <v>16</v>
       </c>
       <c r="D68" t="s">
-        <v>181</v>
+        <v>61</v>
       </c>
       <c r="E68" t="s">
-        <v>182</v>
+        <v>62</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
-        <v>176</v>
+        <v>26</v>
       </c>
       <c r="B69" t="s">
-        <v>180</v>
+        <v>12</v>
       </c>
       <c r="C69" t="s">
-        <v>180</v>
+        <v>16</v>
       </c>
       <c r="D69" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="E69" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
-        <v>176</v>
+        <v>26</v>
       </c>
       <c r="B70" t="s">
-        <v>180</v>
+        <v>12</v>
       </c>
       <c r="C70" t="s">
-        <v>180</v>
+        <v>16</v>
       </c>
       <c r="D70" t="s">
-        <v>185</v>
+        <v>86</v>
       </c>
       <c r="E70" t="s">
-        <v>186</v>
+        <v>87</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
-        <v>176</v>
+        <v>26</v>
       </c>
       <c r="B71" t="s">
-        <v>180</v>
+        <v>12</v>
       </c>
       <c r="C71" t="s">
-        <v>180</v>
+        <v>16</v>
       </c>
       <c r="D71" t="s">
-        <v>187</v>
+        <v>88</v>
       </c>
       <c r="E71" t="s">
-        <v>188</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
-        <v>176</v>
+        <v>26</v>
       </c>
       <c r="B72" t="s">
-        <v>189</v>
+        <v>59</v>
       </c>
       <c r="C72" t="s">
-        <v>189</v>
+        <v>60</v>
       </c>
       <c r="D72" t="s">
-        <v>190</v>
+        <v>61</v>
       </c>
       <c r="E72" t="s">
-        <v>191</v>
+        <v>62</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
-        <v>176</v>
+        <v>26</v>
       </c>
       <c r="B73" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="C73" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="D73" t="s">
-        <v>82</v>
+        <v>170</v>
       </c>
       <c r="E73" t="s">
-        <v>83</v>
+        <v>171</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
-        <v>176</v>
+        <v>26</v>
       </c>
       <c r="B74" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="C74" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="D74" t="s">
-        <v>84</v>
+        <v>172</v>
       </c>
       <c r="E74" t="s">
-        <v>85</v>
+        <v>173</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
-        <v>123</v>
+        <v>26</v>
       </c>
       <c r="B75" t="s">
-        <v>122</v>
+        <v>26</v>
       </c>
       <c r="C75" t="s">
-        <v>123</v>
+        <v>26</v>
       </c>
       <c r="D75" t="s">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="E75" t="s">
-        <v>121</v>
+        <v>162</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="B76" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="C76" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="D76" t="s">
-        <v>91</v>
+        <v>164</v>
       </c>
       <c r="E76" t="s">
-        <v>92</v>
+        <v>163</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="B77" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="C77" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="D77" t="s">
-        <v>93</v>
+        <v>159</v>
       </c>
       <c r="E77" t="s">
-        <v>94</v>
+        <v>161</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="B78" t="s">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="C78" t="s">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="D78" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="E78" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="B79" t="s">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="C79" t="s">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="D79" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="E79" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="B80" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="C80" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="D80" t="s">
-        <v>198</v>
+        <v>65</v>
       </c>
       <c r="E80" t="s">
-        <v>197</v>
+        <v>66</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
-        <v>90</v>
+        <v>176</v>
       </c>
       <c r="B81" t="s">
-        <v>90</v>
+        <v>176</v>
       </c>
       <c r="C81" t="s">
-        <v>90</v>
+        <v>176</v>
       </c>
       <c r="D81" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="E81" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
-        <v>90</v>
+        <v>176</v>
       </c>
       <c r="B82" t="s">
-        <v>90</v>
+        <v>176</v>
       </c>
       <c r="C82" t="s">
-        <v>90</v>
+        <v>176</v>
       </c>
       <c r="D82" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
       <c r="E82" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
-        <v>90</v>
+        <v>176</v>
       </c>
       <c r="B83" t="s">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="C83" t="s">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="D83" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="E83" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
-        <v>90</v>
+        <v>176</v>
       </c>
       <c r="B84" t="s">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="C84" t="s">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="D84" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="E84" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
-        <v>90</v>
+        <v>176</v>
       </c>
       <c r="B85" t="s">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="C85" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
       <c r="D85" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="E85" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
-        <v>90</v>
+        <v>176</v>
       </c>
       <c r="B86" t="s">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="C86" t="s">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="D86" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="E86" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
-        <v>90</v>
+        <v>176</v>
       </c>
       <c r="B87" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="C87" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="D87" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="E87" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
-        <v>90</v>
+        <v>176</v>
       </c>
       <c r="B88" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C88" t="s">
-        <v>216</v>
+        <v>81</v>
       </c>
       <c r="D88" t="s">
-        <v>217</v>
+        <v>82</v>
       </c>
       <c r="E88" t="s">
-        <v>218</v>
+        <v>83</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
-        <v>219</v>
+        <v>176</v>
       </c>
       <c r="B89" t="s">
-        <v>219</v>
+        <v>81</v>
       </c>
       <c r="C89" t="s">
-        <v>219</v>
+        <v>81</v>
       </c>
       <c r="D89" t="s">
-        <v>193</v>
+        <v>84</v>
       </c>
       <c r="E89" t="s">
-        <v>220</v>
+        <v>85</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
-        <v>219</v>
+        <v>123</v>
       </c>
       <c r="B90" t="s">
-        <v>219</v>
+        <v>122</v>
       </c>
       <c r="C90" t="s">
-        <v>221</v>
+        <v>123</v>
       </c>
       <c r="D90" t="s">
-        <v>159</v>
+        <v>120</v>
       </c>
       <c r="E90" t="s">
-        <v>222</v>
+        <v>121</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
-        <v>219</v>
+        <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>219</v>
+        <v>90</v>
       </c>
       <c r="C91" t="s">
-        <v>219</v>
+        <v>90</v>
       </c>
       <c r="D91" t="s">
-        <v>223</v>
+        <v>91</v>
       </c>
       <c r="E91" t="s">
-        <v>225</v>
+        <v>92</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
-        <v>219</v>
+        <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>219</v>
+        <v>90</v>
       </c>
       <c r="C92" t="s">
-        <v>219</v>
+        <v>90</v>
       </c>
       <c r="D92" t="s">
-        <v>224</v>
+        <v>93</v>
       </c>
       <c r="E92" t="s">
-        <v>225</v>
+        <v>94</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="B93" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="C93" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="D93" t="s">
-        <v>69</v>
+        <v>193</v>
       </c>
       <c r="E93" t="s">
-        <v>70</v>
+        <v>194</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="B94" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="C94" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="D94" t="s">
-        <v>226</v>
+        <v>195</v>
       </c>
       <c r="E94" t="s">
-        <v>227</v>
+        <v>196</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="B95" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="C95" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="D95" t="s">
-        <v>228</v>
+        <v>198</v>
       </c>
       <c r="E95" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="B96" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="C96" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="D96" t="s">
-        <v>230</v>
+        <v>199</v>
       </c>
       <c r="E96" t="s">
-        <v>231</v>
+        <v>200</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="B97" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="C97" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="D97" t="s">
-        <v>232</v>
+        <v>202</v>
       </c>
       <c r="E97" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="B98" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="C98" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="D98" t="s">
-        <v>234</v>
+        <v>203</v>
       </c>
       <c r="E98" t="s">
-        <v>235</v>
+        <v>204</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="B99" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="C99" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="D99" t="s">
-        <v>236</v>
+        <v>205</v>
       </c>
       <c r="E99" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="B100" t="s">
-        <v>238</v>
+        <v>90</v>
       </c>
       <c r="C100" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
       <c r="D100" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="E100" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="B101" t="s">
-        <v>238</v>
+        <v>90</v>
       </c>
       <c r="C101" t="s">
-        <v>239</v>
+        <v>90</v>
       </c>
       <c r="D101" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="E101" t="s">
-        <v>243</v>
+        <v>211</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="B102" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="C102" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="D102" t="s">
-        <v>244</v>
+        <v>214</v>
       </c>
       <c r="E102" t="s">
-        <v>245</v>
+        <v>215</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="B103" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="C103" t="s">
-        <v>117</v>
+        <v>216</v>
       </c>
       <c r="D103" t="s">
-        <v>118</v>
+        <v>217</v>
       </c>
       <c r="E103" t="s">
-        <v>119</v>
+        <v>218</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
-        <v>117</v>
+        <v>322</v>
       </c>
       <c r="B104" t="s">
-        <v>116</v>
+        <v>322</v>
       </c>
       <c r="C104" t="s">
-        <v>117</v>
+        <v>322</v>
       </c>
       <c r="D104" t="s">
-        <v>120</v>
+        <v>323</v>
       </c>
       <c r="E104" t="s">
-        <v>121</v>
+        <v>324</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="B105" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="C105" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="D105" t="s">
-        <v>298</v>
+        <v>193</v>
       </c>
       <c r="E105" t="s">
-        <v>299</v>
+        <v>220</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="B106" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="C106" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
       <c r="D106" t="s">
-        <v>247</v>
+        <v>159</v>
       </c>
       <c r="E106" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="B107" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="C107" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="D107" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="E107" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="B108" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="C108" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="D108" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="E108" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="s">
-        <v>246</v>
+        <v>327</v>
       </c>
       <c r="B109" t="s">
-        <v>246</v>
+        <v>327</v>
       </c>
       <c r="C109" t="s">
-        <v>252</v>
+        <v>327</v>
       </c>
       <c r="D109" t="s">
-        <v>253</v>
+        <v>328</v>
       </c>
       <c r="E109" t="s">
-        <v>254</v>
+        <v>329</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" t="s">
-        <v>246</v>
+        <v>68</v>
       </c>
       <c r="B110" t="s">
-        <v>246</v>
+        <v>67</v>
       </c>
       <c r="C110" t="s">
-        <v>255</v>
+        <v>68</v>
       </c>
       <c r="D110" t="s">
-        <v>256</v>
+        <v>69</v>
       </c>
       <c r="E110" t="s">
-        <v>259</v>
+        <v>70</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
-        <v>246</v>
+        <v>68</v>
       </c>
       <c r="B111" t="s">
-        <v>246</v>
+        <v>68</v>
       </c>
       <c r="C111" t="s">
-        <v>246</v>
+        <v>68</v>
       </c>
       <c r="D111" t="s">
-        <v>257</v>
+        <v>226</v>
       </c>
       <c r="E111" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
-        <v>246</v>
+        <v>68</v>
       </c>
       <c r="B112" t="s">
-        <v>246</v>
+        <v>68</v>
       </c>
       <c r="C112" t="s">
-        <v>260</v>
+        <v>68</v>
       </c>
       <c r="D112" t="s">
-        <v>261</v>
+        <v>227</v>
       </c>
       <c r="E112" t="s">
-        <v>262</v>
+        <v>334</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="s">
-        <v>246</v>
+        <v>68</v>
       </c>
       <c r="B113" t="s">
-        <v>246</v>
+        <v>68</v>
       </c>
       <c r="C113" t="s">
-        <v>263</v>
+        <v>68</v>
       </c>
       <c r="D113" t="s">
-        <v>264</v>
+        <v>228</v>
       </c>
       <c r="E113" t="s">
-        <v>265</v>
+        <v>320</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
-        <v>246</v>
+        <v>68</v>
       </c>
       <c r="B114" t="s">
-        <v>246</v>
+        <v>68</v>
       </c>
       <c r="C114" t="s">
-        <v>266</v>
+        <v>68</v>
       </c>
       <c r="D114" t="s">
-        <v>267</v>
+        <v>229</v>
       </c>
       <c r="E114" t="s">
-        <v>268</v>
+        <v>230</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
-        <v>246</v>
+        <v>68</v>
       </c>
       <c r="B115" t="s">
-        <v>246</v>
+        <v>68</v>
       </c>
       <c r="C115" t="s">
-        <v>270</v>
+        <v>68</v>
       </c>
       <c r="D115" t="s">
-        <v>269</v>
+        <v>231</v>
       </c>
       <c r="E115" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
-        <v>246</v>
+        <v>68</v>
       </c>
       <c r="B116" t="s">
-        <v>246</v>
+        <v>68</v>
       </c>
       <c r="C116" t="s">
-        <v>272</v>
+        <v>68</v>
       </c>
       <c r="D116" t="s">
-        <v>273</v>
+        <v>233</v>
       </c>
       <c r="E116" t="s">
-        <v>274</v>
+        <v>234</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="s">
-        <v>246</v>
+        <v>68</v>
       </c>
       <c r="B117" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="C117" t="s">
-        <v>275</v>
+        <v>236</v>
       </c>
       <c r="D117" t="s">
-        <v>276</v>
+        <v>237</v>
       </c>
       <c r="E117" t="s">
-        <v>277</v>
+        <v>238</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="s">
-        <v>246</v>
+        <v>68</v>
       </c>
       <c r="B118" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="C118" t="s">
-        <v>279</v>
+        <v>236</v>
       </c>
       <c r="D118" t="s">
-        <v>278</v>
+        <v>239</v>
       </c>
       <c r="E118" t="s">
-        <v>280</v>
+        <v>240</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="s">
-        <v>246</v>
+        <v>68</v>
       </c>
       <c r="B119" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="C119" t="s">
-        <v>281</v>
+        <v>236</v>
       </c>
       <c r="D119" t="s">
-        <v>282</v>
+        <v>241</v>
       </c>
       <c r="E119" t="s">
-        <v>283</v>
+        <v>242</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="s">
-        <v>246</v>
+        <v>68</v>
       </c>
       <c r="B120" t="s">
-        <v>246</v>
+        <v>315</v>
       </c>
       <c r="C120" t="s">
-        <v>285</v>
+        <v>315</v>
       </c>
       <c r="D120" t="s">
-        <v>284</v>
+        <v>316</v>
       </c>
       <c r="E120" t="s">
-        <v>286</v>
+        <v>317</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="s">
-        <v>246</v>
+        <v>68</v>
       </c>
       <c r="B121" t="s">
-        <v>246</v>
+        <v>315</v>
       </c>
       <c r="C121" t="s">
-        <v>287</v>
+        <v>315</v>
       </c>
       <c r="D121" t="s">
-        <v>288</v>
+        <v>318</v>
       </c>
       <c r="E121" t="s">
-        <v>289</v>
+        <v>319</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" t="s">
-        <v>246</v>
+        <v>290</v>
       </c>
       <c r="B122" t="s">
-        <v>246</v>
+        <v>290</v>
       </c>
       <c r="C122" t="s">
         <v>290</v>
       </c>
       <c r="D122" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="E122" t="s">
-        <v>292</v>
+        <v>325</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" t="s">
-        <v>246</v>
+        <v>290</v>
       </c>
       <c r="B123" t="s">
-        <v>246</v>
+        <v>331</v>
       </c>
       <c r="C123" t="s">
-        <v>293</v>
+        <v>331</v>
       </c>
       <c r="D123" t="s">
-        <v>294</v>
+        <v>332</v>
       </c>
       <c r="E123" t="s">
-        <v>295</v>
+        <v>333</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" t="s">
+        <v>117</v>
+      </c>
+      <c r="B124" t="s">
+        <v>116</v>
+      </c>
+      <c r="C124" t="s">
+        <v>117</v>
+      </c>
+      <c r="D124" t="s">
+        <v>118</v>
+      </c>
+      <c r="E124" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A125" t="s">
+        <v>117</v>
+      </c>
+      <c r="B125" t="s">
+        <v>116</v>
+      </c>
+      <c r="C125" t="s">
+        <v>117</v>
+      </c>
+      <c r="D125" t="s">
+        <v>120</v>
+      </c>
+      <c r="E125" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A126" t="s">
+        <v>243</v>
+      </c>
+      <c r="B126" t="s">
+        <v>243</v>
+      </c>
+      <c r="C126" t="s">
+        <v>243</v>
+      </c>
+      <c r="D126" t="s">
+        <v>295</v>
+      </c>
+      <c r="E126" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A127" t="s">
+        <v>243</v>
+      </c>
+      <c r="B127" t="s">
+        <v>243</v>
+      </c>
+      <c r="C127" t="s">
+        <v>243</v>
+      </c>
+      <c r="D127" t="s">
+        <v>244</v>
+      </c>
+      <c r="E127" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A128" t="s">
+        <v>243</v>
+      </c>
+      <c r="B128" t="s">
+        <v>243</v>
+      </c>
+      <c r="C128" t="s">
+        <v>243</v>
+      </c>
+      <c r="D128" t="s">
         <v>246</v>
       </c>
-      <c r="B124" t="s">
-        <v>246</v>
-      </c>
-      <c r="C124" t="s">
+      <c r="E128" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A129" t="s">
+        <v>243</v>
+      </c>
+      <c r="B129" t="s">
+        <v>243</v>
+      </c>
+      <c r="C129" t="s">
+        <v>243</v>
+      </c>
+      <c r="D129" t="s">
+        <v>247</v>
+      </c>
+      <c r="E129" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A130" t="s">
+        <v>243</v>
+      </c>
+      <c r="B130" t="s">
+        <v>243</v>
+      </c>
+      <c r="C130" t="s">
+        <v>249</v>
+      </c>
+      <c r="D130" t="s">
+        <v>250</v>
+      </c>
+      <c r="E130" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A131" t="s">
+        <v>243</v>
+      </c>
+      <c r="B131" t="s">
+        <v>243</v>
+      </c>
+      <c r="C131" t="s">
+        <v>252</v>
+      </c>
+      <c r="D131" t="s">
+        <v>253</v>
+      </c>
+      <c r="E131" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A132" t="s">
+        <v>243</v>
+      </c>
+      <c r="B132" t="s">
+        <v>243</v>
+      </c>
+      <c r="C132" t="s">
+        <v>243</v>
+      </c>
+      <c r="D132" t="s">
+        <v>254</v>
+      </c>
+      <c r="E132" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A133" t="s">
+        <v>243</v>
+      </c>
+      <c r="B133" t="s">
+        <v>243</v>
+      </c>
+      <c r="C133" t="s">
+        <v>257</v>
+      </c>
+      <c r="D133" t="s">
+        <v>258</v>
+      </c>
+      <c r="E133" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A134" t="s">
+        <v>243</v>
+      </c>
+      <c r="B134" t="s">
+        <v>243</v>
+      </c>
+      <c r="C134" t="s">
+        <v>260</v>
+      </c>
+      <c r="D134" t="s">
+        <v>261</v>
+      </c>
+      <c r="E134" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A135" t="s">
+        <v>243</v>
+      </c>
+      <c r="B135" t="s">
+        <v>243</v>
+      </c>
+      <c r="C135" t="s">
+        <v>263</v>
+      </c>
+      <c r="D135" t="s">
+        <v>264</v>
+      </c>
+      <c r="E135" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A136" t="s">
+        <v>243</v>
+      </c>
+      <c r="B136" t="s">
+        <v>243</v>
+      </c>
+      <c r="C136" t="s">
+        <v>267</v>
+      </c>
+      <c r="D136" t="s">
+        <v>266</v>
+      </c>
+      <c r="E136" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A137" t="s">
+        <v>243</v>
+      </c>
+      <c r="B137" t="s">
+        <v>243</v>
+      </c>
+      <c r="C137" t="s">
+        <v>269</v>
+      </c>
+      <c r="D137" t="s">
+        <v>270</v>
+      </c>
+      <c r="E137" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A138" t="s">
+        <v>243</v>
+      </c>
+      <c r="B138" t="s">
+        <v>243</v>
+      </c>
+      <c r="C138" t="s">
+        <v>272</v>
+      </c>
+      <c r="D138" t="s">
+        <v>273</v>
+      </c>
+      <c r="E138" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A139" t="s">
+        <v>243</v>
+      </c>
+      <c r="B139" t="s">
+        <v>243</v>
+      </c>
+      <c r="C139" t="s">
+        <v>276</v>
+      </c>
+      <c r="D139" t="s">
+        <v>275</v>
+      </c>
+      <c r="E139" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A140" t="s">
+        <v>243</v>
+      </c>
+      <c r="B140" t="s">
+        <v>243</v>
+      </c>
+      <c r="C140" t="s">
+        <v>278</v>
+      </c>
+      <c r="D140" t="s">
+        <v>279</v>
+      </c>
+      <c r="E140" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A141" t="s">
+        <v>243</v>
+      </c>
+      <c r="B141" t="s">
+        <v>243</v>
+      </c>
+      <c r="C141" t="s">
+        <v>282</v>
+      </c>
+      <c r="D141" t="s">
+        <v>281</v>
+      </c>
+      <c r="E141" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A142" t="s">
+        <v>243</v>
+      </c>
+      <c r="B142" t="s">
+        <v>243</v>
+      </c>
+      <c r="C142" t="s">
+        <v>284</v>
+      </c>
+      <c r="D142" t="s">
+        <v>285</v>
+      </c>
+      <c r="E142" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A143" t="s">
+        <v>243</v>
+      </c>
+      <c r="B143" t="s">
+        <v>243</v>
+      </c>
+      <c r="C143" t="s">
+        <v>287</v>
+      </c>
+      <c r="D143" t="s">
+        <v>288</v>
+      </c>
+      <c r="E143" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A144" t="s">
+        <v>243</v>
+      </c>
+      <c r="B144" t="s">
+        <v>243</v>
+      </c>
+      <c r="C144" t="s">
+        <v>290</v>
+      </c>
+      <c r="D144" t="s">
+        <v>291</v>
+      </c>
+      <c r="E144" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A145" t="s">
+        <v>243</v>
+      </c>
+      <c r="B145" t="s">
+        <v>243</v>
+      </c>
+      <c r="C145" t="s">
         <v>176</v>
       </c>
-      <c r="D124" t="s">
-        <v>296</v>
-      </c>
-      <c r="E124" t="s">
-        <v>297</v>
+      <c r="D145" t="s">
+        <v>293</v>
+      </c>
+      <c r="E145" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A146" t="s">
+        <v>335</v>
+      </c>
+      <c r="B146" t="s">
+        <v>335</v>
+      </c>
+      <c r="C146" t="s">
+        <v>335</v>
+      </c>
+      <c r="D146" t="s">
+        <v>336</v>
+      </c>
+      <c r="E146" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A147" t="s">
+        <v>342</v>
+      </c>
+      <c r="B147" t="s">
+        <v>342</v>
+      </c>
+      <c r="C147" t="s">
+        <v>342</v>
+      </c>
+      <c r="D147" t="s">
+        <v>343</v>
+      </c>
+      <c r="E147" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A148" t="s">
+        <v>345</v>
+      </c>
+      <c r="B148" t="s">
+        <v>345</v>
+      </c>
+      <c r="C148" t="s">
+        <v>345</v>
+      </c>
+      <c r="D148" t="s">
+        <v>164</v>
+      </c>
+      <c r="E148" t="s">
+        <v>346</v>
       </c>
     </row>
   </sheetData>

--- a/人相占い.xlsx
+++ b/人相占い.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hskw1\git_space\ninsou_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1876B14C-2596-4BBD-B031-3AB6D4D51DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B2B3CD-E0B0-4E9E-8A99-29780659CAA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{33870B47-7E14-40C1-9124-05523A9D41DA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="464">
   <si>
     <t>特徴</t>
     <rPh sb="0" eb="2">
@@ -986,16 +986,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>丸/どんぐり眼</t>
-    <rPh sb="0" eb="1">
-      <t>マル</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>マナコ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>利己的で友を裏切ること平気</t>
     <rPh sb="0" eb="3">
       <t>リコテキ</t>
@@ -1012,19 +1002,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>目尻に切れ筋なし</t>
-    <rPh sb="0" eb="2">
-      <t>メジリ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>スジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>眼球</t>
     <rPh sb="0" eb="2">
       <t>ガンキュウ</t>
@@ -1110,19 +1087,6 @@
     <t>厚い</t>
     <rPh sb="0" eb="1">
       <t>アツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>心の大きい親分肌</t>
-    <rPh sb="0" eb="1">
-      <t>ココロ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>オヤブンハダ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1643,16 +1607,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>視野が広い</t>
-    <rPh sb="0" eb="2">
-      <t>シヤ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ヒロ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>視野が狭い</t>
     <rPh sb="0" eb="2">
       <t>シヤ</t>
@@ -1706,31 +1660,6 @@
     </rPh>
     <rPh sb="3" eb="4">
       <t>ハゲ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>目上の引き立てを得られない/運命的な弱さを持つ</t>
-    <rPh sb="0" eb="2">
-      <t>メウエ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>エ</t>
-    </rPh>
-    <rPh sb="14" eb="17">
-      <t>ウンメイテキ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ヨワ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>モ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2145,16 +2074,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>思慮は深い/ものごとにこだわりがち</t>
-    <rPh sb="0" eb="2">
-      <t>シリョ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>フカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>長い</t>
     <rPh sb="0" eb="1">
       <t>ナガ</t>
@@ -2254,28 +2173,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>呼吸器系統が強い/背骨も真っすぐに強い</t>
-    <rPh sb="0" eb="3">
-      <t>コキュウキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ケイトウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ツヨ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>セボネ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ツヨ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>部位3</t>
     <rPh sb="0" eb="2">
       <t>ブイ</t>
@@ -2592,16 +2489,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>生活力旺盛</t>
-    <rPh sb="0" eb="3">
-      <t>セイカツリョク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>オウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>地味で忍耐強い</t>
     <rPh sb="0" eb="2">
       <t>ジミ</t>
@@ -4700,53 +4587,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>忍耐力がある</t>
-    <rPh sb="0" eb="3">
-      <t>ニンタイリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>包容力に欠ける/寂しい老後が待っている/人に愛を施して暮らしたり、お金を貯め備えておかないといけない</t>
-    <rPh sb="0" eb="3">
-      <t>ホウヨウリョク</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>サビ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ロウゴ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>アイ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ホドコ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>カネ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>ソナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>凸部分</t>
     <rPh sb="0" eb="1">
       <t>トツ</t>
@@ -5076,6 +4916,1764 @@
     </rPh>
     <rPh sb="5" eb="8">
       <t>フアンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正面に張る</t>
+    <rPh sb="0" eb="2">
+      <t>ショウメン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>二本ある</t>
+    <rPh sb="0" eb="2">
+      <t>ニホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>副業やっている</t>
+    <rPh sb="0" eb="2">
+      <t>フクギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部下運良し</t>
+    <rPh sb="0" eb="3">
+      <t>ブカウン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高い位置から出ている（普通小鼻のすぐ上）</t>
+    <rPh sb="0" eb="1">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>フツウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コバナ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ウエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>眉の上の線</t>
+    <rPh sb="0" eb="1">
+      <t>マユ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>セン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>眉の上に線がある</t>
+    <rPh sb="0" eb="1">
+      <t>マユ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>セン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>副業している。（兼業紋）</t>
+    <rPh sb="0" eb="2">
+      <t>フクギョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケンギョウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>モン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>忍耐力がある/特に目立つ場合: 破壊的思想の持主 無知で闘争好き</t>
+    <rPh sb="0" eb="3">
+      <t>ニンタイリョク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>トク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>メダ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>ハカイテキ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シソウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>モチヌシ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ムチ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>トウソウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全く出ていない</t>
+    <rPh sb="0" eb="1">
+      <t>マッタ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>人柄が良くても社会に認められることはない</t>
+    <rPh sb="0" eb="2">
+      <t>ヒトガラ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シャカイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ミト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性: 高く丸い</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>マル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社会に出ていく相/家にいると夫の権力を奪う</t>
+    <rPh sb="0" eb="2">
+      <t>シャカイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>イエ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>オット</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ケンリョク</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ウバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性: 高く尖る</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>トガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社会に出ても通用しない/家に入っても不和の連続</t>
+    <rPh sb="0" eb="2">
+      <t>シャカイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ツウヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>イエ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>フワ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>レンゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕事運を表す</t>
+    <rPh sb="0" eb="2">
+      <t>シゴト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アラワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>くっきり出ている</t>
+    <rPh sb="4" eb="5">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕事が順調/権力を握っている</t>
+    <rPh sb="0" eb="2">
+      <t>シゴト</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジュンチョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケンリョク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ニギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>法律・命令を表す/自分の号令がどれほど部下や仕事相手に伝達されているか/1本広く出ているのが良い</t>
+    <rPh sb="0" eb="2">
+      <t>ホウリツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>メイレイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アラワ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ゴウレイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ブカ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シゴト</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>デンタツ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ヒロ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左右不揃い</t>
+    <rPh sb="0" eb="2">
+      <t>サユウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>フゾロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>度々職業を変える</t>
+    <rPh sb="0" eb="2">
+      <t>タビタビ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショクギョウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キズやシミがある</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>権力失墜、事業衰退の兆し</t>
+    <rPh sb="0" eb="4">
+      <t>ケンリョクシッツイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジギョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>スイタイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>キザ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>３タイプのうち１タイプ※混合ではない</t>
+    <rPh sb="12" eb="14">
+      <t>コンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サラリーマンになっても長続きしない</t>
+    <rPh sb="11" eb="13">
+      <t>ナガツヅ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上瞼</t>
+    <rPh sb="0" eb="1">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>マブタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目頭が上に急カーブ</t>
+    <rPh sb="0" eb="2">
+      <t>メガシラ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>キュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>明朗/協調性あり</t>
+    <rPh sb="0" eb="2">
+      <t>メイロウ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>キョウチョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目尻</t>
+    <rPh sb="0" eb="2">
+      <t>メジリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>切れ込みなし/まん丸目</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>マル</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>精神不安定/協調性皆無</t>
+    <rPh sb="0" eb="2">
+      <t>セイシン</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>フアンテイ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>キョウチョウセイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カイム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>思慮は深い/ものごとにこだわりがち/更に頬骨が発達:何でも自分でやらないと気が済まない　協調性なし　無理をするようになり挫折する</t>
+    <rPh sb="0" eb="2">
+      <t>シリョ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ホオボネ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ハッタツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>落ち込んでいる</t>
+    <rPh sb="0" eb="1">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>的確な判断力に欠ける（視野の広さと冷静さ）</t>
+  </si>
+  <si>
+    <t>的確な判断力に欠ける（視野の広さと冷静さ）</t>
+    <rPh sb="0" eb="2">
+      <t>テキカク</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ハンダンリョク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シヤ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヒロ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>レイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左右均等でない</t>
+    <rPh sb="0" eb="2">
+      <t>サユウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>縦しわ</t>
+    <rPh sb="0" eb="1">
+      <t>タテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>品性、品格に欠ける</t>
+    <rPh sb="0" eb="2">
+      <t>ヒンセイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒンカク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>乱れた横しわ</t>
+    <rPh sb="0" eb="1">
+      <t>ミダ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヨコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>わがまま/部下の信頼が得られない/包容力に欠ける/寂しい老後が待っている/人に愛を施して暮らしたり、お金を貯め備えておかないといけない</t>
+    <rPh sb="5" eb="7">
+      <t>ブカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シンライ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ホウヨウリョク</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>サビ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ロウゴ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>アイ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ホドコ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>カネ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>ソナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下瞼</t>
+    <rPh sb="0" eb="1">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>マブタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中央が極端に下がっている</t>
+    <rPh sb="0" eb="2">
+      <t>チュウオウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キョクタン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕事にも女にも節操がない/だらしない</t>
+    <rPh sb="0" eb="2">
+      <t>シゴト</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オンナ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目頭が上に急カーブ/中程から急カーブで下がる</t>
+    <rPh sb="0" eb="2">
+      <t>メガシラ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>キュウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ナカホド</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>キュウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三角眼/常に自分の利益ばかり考え平気で人を陥れる</t>
+    <rPh sb="0" eb="3">
+      <t>サンカクガン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ツネ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>リエキ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヘイキ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オトシイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目尻寄りが急降下</t>
+    <rPh sb="0" eb="2">
+      <t>メジリ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>キュウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゴマスリタイプ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目尻が著しく鋭角</t>
+    <rPh sb="0" eb="2">
+      <t>メジリ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イチジル</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>エイカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>陰険/常に策略を用いる/目先は利くが部下がついてこない/策士策に溺れる</t>
+    <rPh sb="0" eb="2">
+      <t>インケン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ツネ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サクリャク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>メサキ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ブカ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>サクシ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>サク</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>オボ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ほうきのようにバサバサ（羅漢眉）</t>
+    <rPh sb="12" eb="14">
+      <t>ラカン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>マユ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>頭が堅い/協調性に欠ける/サラリーマンより職人向き</t>
+    <rPh sb="0" eb="1">
+      <t>アタマ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>キョウチョウセイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ショクニン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出目で周囲の肉がむっちり</t>
+    <rPh sb="0" eb="2">
+      <t>デメ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュウイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ニク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自営型/独立志向</t>
+    <rPh sb="0" eb="3">
+      <t>ジエイガタ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ドクリツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>育ちが良い/運も最高</t>
+    <rPh sb="0" eb="1">
+      <t>ソダ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サイコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>広く肉付良くシミ、キズなし/鏡のよう</t>
+    <rPh sb="0" eb="1">
+      <t>ヒロ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ニク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カガミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>肉が盛り上がっている</t>
+    <rPh sb="0" eb="1">
+      <t>ニク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>眉間も盛り上がっている：引き立てがあり、出世する</t>
+    <rPh sb="0" eb="2">
+      <t>ミケン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シュッセ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>額中央部も盛り上がっている：引き立てがあり出世する</t>
+    <rPh sb="0" eb="4">
+      <t>ヒタイチュウオウブ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シュッセ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目より長く毛並みが揃っている</t>
+    <rPh sb="0" eb="1">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケナ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ソロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>切れ長の目：感覚が鋭く頭脳明晰、冷静沈着</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンカク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>スルド</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>ズノウメイセキ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>レイセイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>チンチャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目尻に切れ筋なし/丸/どんぐり眼</t>
+    <rPh sb="0" eb="2">
+      <t>メジリ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>スジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>切れ長</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>眉　目より長く毛並みが揃っている：感覚鋭く、頭脳明晰、冷静沈着</t>
+    <rPh sb="0" eb="1">
+      <t>マユ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケナ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ソロ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カンカク</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>スルド</t>
+    </rPh>
+    <rPh sb="22" eb="26">
+      <t>ズノウメイセキ</t>
+    </rPh>
+    <rPh sb="27" eb="31">
+      <t>レイセイチンチャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鼻骨が隆起</t>
+    <rPh sb="0" eb="2">
+      <t>ハナボネ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>リュウキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>隆起すればするほど遂行力が増す</t>
+    <rPh sb="0" eb="2">
+      <t>リュウキ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>スイコウリョク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>マ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中部が発達</t>
+    <rPh sb="0" eb="2">
+      <t>チュウブ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハッタツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勇気と闘争力を示し、社会を生き抜くためには必要</t>
+    <rPh sb="0" eb="2">
+      <t>ユウキ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>トウソウリョク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>シメ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シャカイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>呼吸器系統が強い/背骨も真っすぐに強い/金運あり/精力、健康運あり/生き抜く強さあり</t>
+    <rPh sb="0" eb="3">
+      <t>コキュウキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケイトウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ツヨ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セボネ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ツヨ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>キンウン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>セイリョク</t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t>ケンコウウン</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ツヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>視野が広い/顎も広い：決断力を持つ</t>
+    <rPh sb="0" eb="2">
+      <t>シヤ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヒロ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アゴ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヒロ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ケツダンリョク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>広い</t>
+    <rPh sb="0" eb="1">
+      <t>ヒロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>額も広い：決断力を持つ</t>
+    <rPh sb="0" eb="1">
+      <t>ヒタイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒロ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ケツダンリョク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三差（波形）が大きく一つ</t>
+    <rPh sb="0" eb="2">
+      <t>サンサ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナミ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヒト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鼻の下</t>
+    <rPh sb="0" eb="1">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>人中</t>
+    <rPh sb="0" eb="2">
+      <t>ニンチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鼻の下筋</t>
+    <rPh sb="0" eb="1">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>スジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>広くはっきりしている</t>
+    <rPh sb="0" eb="1">
+      <t>ヒロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>やり手</t>
+    <rPh sb="2" eb="3">
+      <t>テ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>笑うと上がる</t>
+    <rPh sb="0" eb="1">
+      <t>ワラ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>心の広さゆえに人望あり/成功相</t>
+    <rPh sb="0" eb="1">
+      <t>ココロ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒロ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジンボウ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>セイコウソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高く肉がつき口が大きく締まっている</t>
+    <rPh sb="0" eb="1">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ニク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>クチ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>呼べば集まり、渇すれば散ずるの威力あり/相当の権力を掌中にする</t>
+    <rPh sb="0" eb="1">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アツ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カッ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>サン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イリョク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ソウトウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ケンリョク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ショウチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正面に張り、鼻が長い</t>
+    <rPh sb="0" eb="2">
+      <t>ショウメン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ハリ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>積極的</t>
+    <rPh sb="0" eb="3">
+      <t>セッキョクテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更に鼻が長い:何でも自分でやらないと気が済まない　協調性なし　無理をするようになり挫折する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高いが、鼻が低くて貧弱</t>
+    <rPh sb="0" eb="1">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヒク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒンジャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中年で必ず失敗する</t>
+    <rPh sb="0" eb="2">
+      <t>チュウネン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カナラ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>丸く出ている</t>
+    <rPh sb="0" eb="1">
+      <t>マル</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出世欲生ずる</t>
+    <rPh sb="0" eb="3">
+      <t>シュッセヨク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>横に広がる</t>
+    <rPh sb="0" eb="1">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>忍耐が強い/出世欲なし</t>
+    <rPh sb="0" eb="2">
+      <t>ニンタイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ツヨ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>シュッセヨク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しわ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顔面</t>
+    <rPh sb="0" eb="2">
+      <t>ガンメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>縦じわ</t>
+    <rPh sb="0" eb="1">
+      <t>タテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全てに悪い</t>
+    <rPh sb="0" eb="1">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ワル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山根から天中</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマネ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>テンチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>つらぬく１本じわ</t>
+    <rPh sb="5" eb="6">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出世紋/苦労して一国の長/大企業のトップになる</t>
+    <rPh sb="0" eb="3">
+      <t>シュッセモン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>クロウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イッコク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>チョウ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ダイキギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目上の引き立てを得られない/運命的な弱さを持つ/独立する人多い</t>
+    <rPh sb="0" eb="2">
+      <t>メウエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>ウンメイテキ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ヨワ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ドクリツ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>皮膚</t>
+    <rPh sb="0" eb="2">
+      <t>ヒフ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>皮膚が厚い</t>
+    <rPh sb="0" eb="2">
+      <t>ヒフ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>何事にもめげない実行の人</t>
+    <rPh sb="0" eb="2">
+      <t>ナニゴト</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヒト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>並み以上の意思を持つ/ともに仕事を完遂するパワーを持っている/反抗相/ナニクソという気概を持つ</t>
+    <rPh sb="0" eb="1">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イシ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シゴト</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カンスイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>ハンコウソウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>キガイ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>横に張った幅広の鼻</t>
+    <rPh sb="0" eb="1">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ハバヒロ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ハナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ふくよか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>交際上手</t>
+    <rPh sb="0" eb="4">
+      <t>コウサイジョウズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>粘り強い性格の自立相/自分で運を切り開ける/働き者/面倒見も良い</t>
+    <rPh sb="0" eb="1">
+      <t>ネバ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ツヨ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セイカク</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ジリツソウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ハタラ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>モノ</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>メンドウミ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>貧弱</t>
+    <rPh sb="0" eb="2">
+      <t>ヒンジャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>金なし/消極的</t>
+    <rPh sb="0" eb="1">
+      <t>カネ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ショウキョクテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生活力旺盛/我が強い/こぶしが入る：富貴・飛翔の相、天下取りの相　実業で成功をおさめる</t>
+    <rPh sb="0" eb="3">
+      <t>セイカツリョク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>オウセイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ガ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ツヨ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>フウキ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒショウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>テンカト</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ジツギョウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>セイコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>心の大きい親分肌/成功相/心のゆとり/任侠心</t>
+    <rPh sb="0" eb="1">
+      <t>ココロ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>オヤブンハダ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>セイコウソウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ココロ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ニンキョウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>シン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大きく長く広がっている</t>
+    <rPh sb="0" eb="1">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヒロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>交際上手/部下運良し</t>
+    <rPh sb="0" eb="4">
+      <t>コウサイジョウズ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ブカウン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>深い</t>
+    <rPh sb="0" eb="1">
+      <t>フカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部下に厳しすぎる/人がついてこない</t>
+    <rPh sb="0" eb="2">
+      <t>ブカ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>キビ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヒト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>口に接するほど狭い</t>
+    <rPh sb="0" eb="1">
+      <t>クチ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>セッ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>セマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>運を生かしきれず終わってしまう</t>
+    <rPh sb="0" eb="1">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>よく立っている</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>情報収集力に富んでいる</t>
+    <rPh sb="0" eb="5">
+      <t>ジョウホウシュウシュウリョク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ト</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5441,10 +7039,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9900863F-BBC4-46C5-A6C7-7C7290BC55B4}">
-  <dimension ref="A1:E148"/>
+  <dimension ref="A1:E198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D20" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="D112" sqref="D112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -5462,18 +7060,18 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -5490,7 +7088,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -5507,7 +7105,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -5524,869 +7122,869 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>168</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>124</v>
+        <v>369</v>
       </c>
       <c r="E5" t="s">
-        <v>126</v>
+        <v>370</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>125</v>
+        <v>400</v>
       </c>
       <c r="E6" t="s">
-        <v>127</v>
+        <v>399</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D7" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="E7" t="s">
-        <v>129</v>
+        <v>414</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D8" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E8" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D9" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="E9" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D10" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E10" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D11" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="E11" t="s">
-        <v>137</v>
+        <v>443</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D12" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="E12" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D13" t="s">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="E13" t="s">
-        <v>80</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="D14" t="s">
-        <v>347</v>
+        <v>133</v>
       </c>
       <c r="E14" t="s">
-        <v>348</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" t="s">
         <v>78</v>
-      </c>
-      <c r="B15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="D16" t="s">
-        <v>41</v>
+        <v>382</v>
       </c>
       <c r="E16" t="s">
-        <v>37</v>
+        <v>383</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="D17" t="s">
-        <v>42</v>
+        <v>384</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>383</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B18" t="s">
-        <v>297</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>298</v>
+        <v>34</v>
       </c>
       <c r="D18" t="s">
-        <v>299</v>
+        <v>337</v>
       </c>
       <c r="E18" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B19" t="s">
-        <v>297</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>298</v>
+        <v>34</v>
       </c>
       <c r="D19" t="s">
-        <v>349</v>
+        <v>417</v>
       </c>
       <c r="E19" t="s">
-        <v>350</v>
+        <v>447</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D20" t="s">
-        <v>45</v>
+        <v>381</v>
       </c>
       <c r="E20" t="s">
-        <v>46</v>
+        <v>379</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B21" t="s">
-        <v>351</v>
+        <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>351</v>
+        <v>34</v>
       </c>
       <c r="D21" t="s">
-        <v>352</v>
+        <v>35</v>
       </c>
       <c r="E21" t="s">
-        <v>353</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>140</v>
+        <v>76</v>
       </c>
       <c r="B22" t="s">
-        <v>140</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>140</v>
+        <v>34</v>
       </c>
       <c r="D22" t="s">
-        <v>141</v>
+        <v>41</v>
       </c>
       <c r="E22" t="s">
-        <v>142</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>140</v>
+        <v>76</v>
       </c>
       <c r="B23" t="s">
-        <v>140</v>
+        <v>38</v>
       </c>
       <c r="C23" t="s">
-        <v>140</v>
+        <v>39</v>
       </c>
       <c r="D23" t="s">
-        <v>143</v>
+        <v>42</v>
       </c>
       <c r="E23" t="s">
-        <v>144</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>140</v>
+        <v>76</v>
       </c>
       <c r="B24" t="s">
-        <v>140</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>140</v>
+        <v>39</v>
       </c>
       <c r="D24" t="s">
-        <v>145</v>
+        <v>378</v>
       </c>
       <c r="E24" t="s">
-        <v>158</v>
+        <v>380</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>76</v>
       </c>
       <c r="B25" t="s">
-        <v>140</v>
+        <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>140</v>
+        <v>39</v>
       </c>
       <c r="D25" t="s">
-        <v>146</v>
+        <v>401</v>
       </c>
       <c r="E25" t="s">
-        <v>147</v>
+        <v>402</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>140</v>
+        <v>76</v>
       </c>
       <c r="B26" t="s">
-        <v>140</v>
+        <v>289</v>
       </c>
       <c r="C26" t="s">
-        <v>140</v>
+        <v>290</v>
       </c>
       <c r="D26" t="s">
-        <v>148</v>
+        <v>291</v>
       </c>
       <c r="E26" t="s">
-        <v>149</v>
+        <v>299</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>140</v>
+        <v>76</v>
       </c>
       <c r="B27" t="s">
-        <v>140</v>
+        <v>289</v>
       </c>
       <c r="C27" t="s">
-        <v>140</v>
+        <v>290</v>
       </c>
       <c r="D27" t="s">
-        <v>150</v>
+        <v>339</v>
       </c>
       <c r="E27" t="s">
-        <v>151</v>
+        <v>340</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>140</v>
+        <v>76</v>
       </c>
       <c r="B28" t="s">
-        <v>140</v>
+        <v>43</v>
       </c>
       <c r="C28" t="s">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="D28" t="s">
-        <v>152</v>
+        <v>45</v>
       </c>
       <c r="E28" t="s">
-        <v>153</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>140</v>
+        <v>76</v>
       </c>
       <c r="B29" t="s">
-        <v>140</v>
+        <v>341</v>
       </c>
       <c r="C29" t="s">
-        <v>140</v>
+        <v>341</v>
       </c>
       <c r="D29" t="s">
-        <v>154</v>
+        <v>342</v>
       </c>
       <c r="E29" t="s">
-        <v>155</v>
+        <v>343</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B30" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C30" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D30" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="E30" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B31" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C31" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D31" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="E31" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
+        <v>135</v>
+      </c>
+      <c r="B32" t="s">
+        <v>135</v>
+      </c>
+      <c r="C32" t="s">
+        <v>135</v>
+      </c>
+      <c r="D32" t="s">
         <v>140</v>
       </c>
-      <c r="B32" t="s">
-        <v>140</v>
-      </c>
-      <c r="C32" t="s">
-        <v>140</v>
-      </c>
-      <c r="D32" t="s">
-        <v>308</v>
-      </c>
       <c r="E32" t="s">
-        <v>309</v>
+        <v>153</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B33" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C33" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D33" t="s">
-        <v>354</v>
+        <v>141</v>
       </c>
       <c r="E33" t="s">
-        <v>355</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B34" t="s">
-        <v>304</v>
+        <v>135</v>
       </c>
       <c r="C34" t="s">
-        <v>304</v>
+        <v>135</v>
       </c>
       <c r="D34" t="s">
-        <v>305</v>
+        <v>143</v>
       </c>
       <c r="E34" t="s">
-        <v>306</v>
+        <v>144</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="B35" t="s">
-        <v>17</v>
+        <v>135</v>
       </c>
       <c r="C35" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="D35" t="s">
-        <v>11</v>
+        <v>145</v>
       </c>
       <c r="E35" t="s">
-        <v>15</v>
+        <v>146</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="B36" t="s">
-        <v>17</v>
+        <v>135</v>
       </c>
       <c r="C36" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="D36" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="E36" t="s">
-        <v>19</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="B37" t="s">
-        <v>17</v>
+        <v>135</v>
       </c>
       <c r="C37" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="D37" t="s">
-        <v>24</v>
+        <v>149</v>
       </c>
       <c r="E37" t="s">
-        <v>31</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="B38" t="s">
-        <v>17</v>
+        <v>135</v>
       </c>
       <c r="C38" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="D38" t="s">
-        <v>53</v>
+        <v>151</v>
       </c>
       <c r="E38" t="s">
-        <v>54</v>
+        <v>152</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="B39" t="s">
-        <v>17</v>
+        <v>135</v>
       </c>
       <c r="C39" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="D39" t="s">
-        <v>300</v>
+        <v>154</v>
       </c>
       <c r="E39" t="s">
-        <v>301</v>
+        <v>155</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="B40" t="s">
-        <v>17</v>
+        <v>135</v>
       </c>
       <c r="C40" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="D40" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="E40" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="B41" t="s">
-        <v>17</v>
+        <v>135</v>
       </c>
       <c r="C41" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="D41" t="s">
-        <v>312</v>
+        <v>344</v>
       </c>
       <c r="E41" t="s">
-        <v>311</v>
+        <v>345</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="B42" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="C42" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="D42" t="s">
-        <v>21</v>
+        <v>404</v>
       </c>
       <c r="E42" t="s">
-        <v>30</v>
+        <v>405</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
-        <v>71</v>
+        <v>135</v>
       </c>
       <c r="B43" t="s">
-        <v>71</v>
+        <v>135</v>
       </c>
       <c r="C43" t="s">
-        <v>71</v>
+        <v>135</v>
       </c>
       <c r="D43" t="s">
-        <v>72</v>
+        <v>423</v>
       </c>
       <c r="E43" t="s">
-        <v>73</v>
+        <v>424</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
-        <v>71</v>
+        <v>135</v>
       </c>
       <c r="B44" t="s">
-        <v>71</v>
+        <v>296</v>
       </c>
       <c r="C44" t="s">
-        <v>71</v>
+        <v>296</v>
       </c>
       <c r="D44" t="s">
-        <v>74</v>
+        <v>297</v>
       </c>
       <c r="E44" t="s">
-        <v>73</v>
+        <v>298</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
-        <v>71</v>
+        <v>135</v>
       </c>
       <c r="B45" t="s">
-        <v>71</v>
+        <v>296</v>
       </c>
       <c r="C45" t="s">
-        <v>71</v>
+        <v>296</v>
       </c>
       <c r="D45" t="s">
-        <v>95</v>
+        <v>395</v>
       </c>
       <c r="E45" t="s">
-        <v>97</v>
+        <v>396</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
-        <v>71</v>
+        <v>351</v>
       </c>
       <c r="B46" t="s">
-        <v>71</v>
+        <v>351</v>
       </c>
       <c r="C46" t="s">
-        <v>71</v>
+        <v>351</v>
       </c>
       <c r="D46" t="s">
-        <v>96</v>
+        <v>352</v>
       </c>
       <c r="E46" t="s">
-        <v>98</v>
+        <v>353</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="B47" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="C47" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>338</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>341</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="B48" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="C48" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="E48" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="B49" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="C49" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>114</v>
+        <v>24</v>
       </c>
       <c r="E49" t="s">
-        <v>115</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="B50" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="C50" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="E50" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="B51" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="C51" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>100</v>
+        <v>292</v>
       </c>
       <c r="E51" t="s">
-        <v>101</v>
+        <v>293</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="B52" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="C52" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>102</v>
+        <v>302</v>
       </c>
       <c r="E52" t="s">
-        <v>103</v>
+        <v>303</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="C53" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>104</v>
+        <v>304</v>
       </c>
       <c r="E53" t="s">
-        <v>105</v>
+        <v>303</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="B54" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="C54" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>106</v>
+        <v>401</v>
       </c>
       <c r="E54" t="s">
-        <v>107</v>
+        <v>403</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="B55" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="C55" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="D55" t="s">
-        <v>108</v>
+        <v>21</v>
       </c>
       <c r="E55" t="s">
-        <v>109</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -6394,16 +7992,16 @@
         <v>71</v>
       </c>
       <c r="B56" t="s">
-        <v>99</v>
+        <v>371</v>
       </c>
       <c r="C56" t="s">
-        <v>99</v>
+        <v>371</v>
       </c>
       <c r="D56" t="s">
-        <v>110</v>
+        <v>372</v>
       </c>
       <c r="E56" t="s">
-        <v>111</v>
+        <v>373</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -6411,1563 +8009,2413 @@
         <v>71</v>
       </c>
       <c r="B57" t="s">
-        <v>99</v>
+        <v>371</v>
       </c>
       <c r="C57" t="s">
-        <v>99</v>
+        <v>371</v>
       </c>
       <c r="D57" t="s">
-        <v>95</v>
+        <v>389</v>
       </c>
       <c r="E57" t="s">
-        <v>330</v>
+        <v>390</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="B58" t="s">
-        <v>23</v>
+        <v>371</v>
       </c>
       <c r="C58" t="s">
-        <v>25</v>
+        <v>371</v>
       </c>
       <c r="D58" t="s">
-        <v>24</v>
+        <v>391</v>
       </c>
       <c r="E58" t="s">
-        <v>31</v>
+        <v>392</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="B59" t="s">
-        <v>32</v>
+        <v>371</v>
       </c>
       <c r="C59" t="s">
-        <v>27</v>
+        <v>371</v>
       </c>
       <c r="D59" t="s">
-        <v>28</v>
+        <v>393</v>
       </c>
       <c r="E59" t="s">
-        <v>29</v>
+        <v>394</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
-        <v>302</v>
+        <v>71</v>
       </c>
       <c r="B60" t="s">
-        <v>302</v>
+        <v>386</v>
       </c>
       <c r="C60" t="s">
-        <v>302</v>
+        <v>386</v>
       </c>
       <c r="D60" t="s">
-        <v>303</v>
+        <v>387</v>
       </c>
       <c r="E60" t="s">
-        <v>326</v>
+        <v>388</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="B61" t="s">
-        <v>47</v>
+        <v>374</v>
       </c>
       <c r="C61" t="s">
-        <v>48</v>
+        <v>374</v>
       </c>
       <c r="D61" t="s">
-        <v>51</v>
+        <v>375</v>
       </c>
       <c r="E61" t="s">
-        <v>52</v>
+        <v>376</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="B62" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="C62" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="D62" t="s">
-        <v>51</v>
+        <v>407</v>
       </c>
       <c r="E62" t="s">
-        <v>52</v>
+        <v>408</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
-        <v>313</v>
+        <v>71</v>
       </c>
       <c r="B63" t="s">
-        <v>313</v>
+        <v>71</v>
       </c>
       <c r="C63" t="s">
-        <v>313</v>
+        <v>71</v>
       </c>
       <c r="D63" t="s">
-        <v>314</v>
+        <v>406</v>
       </c>
       <c r="E63" t="s">
-        <v>311</v>
+        <v>72</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="B64" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="C64" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="D64" t="s">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="E64" t="s">
-        <v>29</v>
+        <v>94</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="B65" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="C65" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="D65" t="s">
-        <v>339</v>
+        <v>93</v>
       </c>
       <c r="E65" t="s">
-        <v>340</v>
+        <v>95</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="B66" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C66" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="D66" t="s">
-        <v>57</v>
+        <v>328</v>
       </c>
       <c r="E66" t="s">
-        <v>58</v>
+        <v>331</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="B67" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="C67" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="D67" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="E67" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="C68" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="D68" t="s">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="E68" t="s">
-        <v>62</v>
+        <v>112</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="B69" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="C69" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="D69" t="s">
-        <v>170</v>
+        <v>397</v>
       </c>
       <c r="E69" t="s">
-        <v>171</v>
+        <v>398</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="C70" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="D70" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="E70" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="C71" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="D71" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="E71" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="C72" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="D72" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="E72" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="C73" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="D73" t="s">
-        <v>170</v>
+        <v>101</v>
       </c>
       <c r="E73" t="s">
-        <v>171</v>
+        <v>102</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="B74" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="C74" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="D74" t="s">
-        <v>172</v>
+        <v>103</v>
       </c>
       <c r="E74" t="s">
-        <v>173</v>
+        <v>104</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="B75" t="s">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="C75" t="s">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="D75" t="s">
-        <v>152</v>
+        <v>105</v>
       </c>
       <c r="E75" t="s">
-        <v>162</v>
+        <v>106</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="B76" t="s">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="C76" t="s">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="D76" t="s">
-        <v>164</v>
+        <v>107</v>
       </c>
       <c r="E76" t="s">
-        <v>163</v>
+        <v>108</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="B77" t="s">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="C77" t="s">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="D77" t="s">
-        <v>159</v>
+        <v>92</v>
       </c>
       <c r="E77" t="s">
-        <v>161</v>
+        <v>322</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B78" t="s">
-        <v>165</v>
+        <v>23</v>
       </c>
       <c r="C78" t="s">
-        <v>165</v>
+        <v>25</v>
       </c>
       <c r="D78" t="s">
-        <v>166</v>
+        <v>24</v>
       </c>
       <c r="E78" t="s">
-        <v>167</v>
+        <v>31</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B79" t="s">
-        <v>165</v>
+        <v>32</v>
       </c>
       <c r="C79" t="s">
-        <v>165</v>
+        <v>27</v>
       </c>
       <c r="D79" t="s">
-        <v>168</v>
+        <v>28</v>
       </c>
       <c r="E79" t="s">
-        <v>169</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
-        <v>63</v>
+        <v>294</v>
       </c>
       <c r="B80" t="s">
-        <v>64</v>
+        <v>294</v>
       </c>
       <c r="C80" t="s">
-        <v>63</v>
+        <v>294</v>
       </c>
       <c r="D80" t="s">
-        <v>65</v>
+        <v>295</v>
       </c>
       <c r="E80" t="s">
-        <v>66</v>
+        <v>318</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
-        <v>176</v>
+        <v>48</v>
       </c>
       <c r="B81" t="s">
-        <v>176</v>
+        <v>47</v>
       </c>
       <c r="C81" t="s">
-        <v>176</v>
+        <v>48</v>
       </c>
       <c r="D81" t="s">
-        <v>177</v>
+        <v>51</v>
       </c>
       <c r="E81" t="s">
-        <v>178</v>
+        <v>52</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
-        <v>176</v>
+        <v>48</v>
       </c>
       <c r="B82" t="s">
-        <v>176</v>
+        <v>49</v>
       </c>
       <c r="C82" t="s">
-        <v>176</v>
+        <v>50</v>
       </c>
       <c r="D82" t="s">
-        <v>159</v>
+        <v>51</v>
       </c>
       <c r="E82" t="s">
-        <v>179</v>
+        <v>52</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
-        <v>176</v>
+        <v>305</v>
       </c>
       <c r="B83" t="s">
-        <v>180</v>
+        <v>305</v>
       </c>
       <c r="C83" t="s">
-        <v>180</v>
+        <v>305</v>
       </c>
       <c r="D83" t="s">
-        <v>181</v>
+        <v>306</v>
       </c>
       <c r="E83" t="s">
-        <v>182</v>
+        <v>303</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
-        <v>176</v>
+        <v>26</v>
       </c>
       <c r="B84" t="s">
-        <v>180</v>
+        <v>26</v>
       </c>
       <c r="C84" t="s">
-        <v>180</v>
+        <v>26</v>
       </c>
       <c r="D84" t="s">
-        <v>183</v>
+        <v>409</v>
       </c>
       <c r="E84" t="s">
-        <v>184</v>
+        <v>410</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
-        <v>176</v>
+        <v>26</v>
       </c>
       <c r="B85" t="s">
-        <v>180</v>
+        <v>26</v>
       </c>
       <c r="C85" t="s">
-        <v>180</v>
+        <v>26</v>
       </c>
       <c r="D85" t="s">
-        <v>185</v>
+        <v>411</v>
       </c>
       <c r="E85" t="s">
-        <v>186</v>
+        <v>412</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
-        <v>176</v>
+        <v>26</v>
       </c>
       <c r="B86" t="s">
-        <v>180</v>
+        <v>26</v>
       </c>
       <c r="C86" t="s">
-        <v>180</v>
+        <v>26</v>
       </c>
       <c r="D86" t="s">
-        <v>187</v>
+        <v>28</v>
       </c>
       <c r="E86" t="s">
-        <v>188</v>
+        <v>29</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
-        <v>176</v>
+        <v>26</v>
       </c>
       <c r="B87" t="s">
-        <v>189</v>
+        <v>26</v>
       </c>
       <c r="C87" t="s">
-        <v>189</v>
+        <v>26</v>
       </c>
       <c r="D87" t="s">
-        <v>190</v>
+        <v>329</v>
       </c>
       <c r="E87" t="s">
-        <v>191</v>
+        <v>330</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
-        <v>176</v>
+        <v>26</v>
       </c>
       <c r="B88" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="C88" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="D88" t="s">
-        <v>82</v>
+        <v>147</v>
       </c>
       <c r="E88" t="s">
-        <v>83</v>
+        <v>157</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
-        <v>176</v>
+        <v>26</v>
       </c>
       <c r="B89" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="C89" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="D89" t="s">
-        <v>84</v>
+        <v>158</v>
       </c>
       <c r="E89" t="s">
-        <v>85</v>
+        <v>377</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
-        <v>123</v>
+        <v>26</v>
       </c>
       <c r="B90" t="s">
-        <v>122</v>
+        <v>26</v>
       </c>
       <c r="C90" t="s">
-        <v>123</v>
+        <v>26</v>
       </c>
       <c r="D90" t="s">
-        <v>120</v>
+        <v>154</v>
       </c>
       <c r="E90" t="s">
-        <v>121</v>
+        <v>156</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="B91" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="C91" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="D91" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="E91" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="C92" t="s">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="D92" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="E92" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="B93" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="C93" t="s">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="D93" t="s">
-        <v>193</v>
+        <v>61</v>
       </c>
       <c r="E93" t="s">
-        <v>194</v>
+        <v>62</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="B94" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="C94" t="s">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="D94" t="s">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="E94" t="s">
-        <v>196</v>
+        <v>165</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="B95" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="C95" t="s">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="D95" t="s">
-        <v>198</v>
+        <v>83</v>
       </c>
       <c r="E95" t="s">
-        <v>197</v>
+        <v>84</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="B96" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="C96" t="s">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="D96" t="s">
-        <v>199</v>
+        <v>85</v>
       </c>
       <c r="E96" t="s">
-        <v>200</v>
+        <v>86</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="B97" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="C97" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D97" t="s">
-        <v>202</v>
+        <v>448</v>
       </c>
       <c r="E97" t="s">
-        <v>201</v>
+        <v>451</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="B98" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="C98" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D98" t="s">
-        <v>203</v>
+        <v>61</v>
       </c>
       <c r="E98" t="s">
-        <v>204</v>
+        <v>62</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="B99" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="C99" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D99" t="s">
-        <v>205</v>
+        <v>164</v>
       </c>
       <c r="E99" t="s">
-        <v>206</v>
+        <v>165</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="B100" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="C100" t="s">
-        <v>207</v>
+        <v>60</v>
       </c>
       <c r="D100" t="s">
-        <v>208</v>
+        <v>166</v>
       </c>
       <c r="E100" t="s">
-        <v>209</v>
+        <v>413</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="B101" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="C101" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D101" t="s">
-        <v>210</v>
+        <v>452</v>
       </c>
       <c r="E101" t="s">
-        <v>211</v>
+        <v>453</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="B102" t="s">
-        <v>212</v>
+        <v>159</v>
       </c>
       <c r="C102" t="s">
-        <v>213</v>
+        <v>159</v>
       </c>
       <c r="D102" t="s">
-        <v>214</v>
+        <v>160</v>
       </c>
       <c r="E102" t="s">
-        <v>215</v>
+        <v>161</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="B103" t="s">
-        <v>90</v>
+        <v>159</v>
       </c>
       <c r="C103" t="s">
-        <v>216</v>
+        <v>159</v>
       </c>
       <c r="D103" t="s">
-        <v>217</v>
+        <v>162</v>
       </c>
       <c r="E103" t="s">
-        <v>218</v>
+        <v>163</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
-        <v>322</v>
+        <v>418</v>
       </c>
       <c r="B104" t="s">
-        <v>322</v>
+        <v>419</v>
       </c>
       <c r="C104" t="s">
-        <v>322</v>
+        <v>420</v>
       </c>
       <c r="D104" t="s">
-        <v>323</v>
+        <v>421</v>
       </c>
       <c r="E104" t="s">
-        <v>324</v>
+        <v>422</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
-        <v>219</v>
+        <v>63</v>
       </c>
       <c r="B105" t="s">
-        <v>219</v>
+        <v>64</v>
       </c>
       <c r="C105" t="s">
-        <v>219</v>
+        <v>63</v>
       </c>
       <c r="D105" t="s">
-        <v>193</v>
+        <v>65</v>
       </c>
       <c r="E105" t="s">
-        <v>220</v>
+        <v>66</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
-        <v>219</v>
+        <v>169</v>
       </c>
       <c r="B106" t="s">
-        <v>219</v>
+        <v>169</v>
       </c>
       <c r="C106" t="s">
-        <v>221</v>
+        <v>169</v>
       </c>
       <c r="D106" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="E106" t="s">
-        <v>222</v>
+        <v>171</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
-        <v>219</v>
+        <v>169</v>
       </c>
       <c r="B107" t="s">
-        <v>219</v>
+        <v>169</v>
       </c>
       <c r="C107" t="s">
-        <v>219</v>
+        <v>169</v>
       </c>
       <c r="D107" t="s">
-        <v>223</v>
+        <v>154</v>
       </c>
       <c r="E107" t="s">
-        <v>225</v>
+        <v>172</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="s">
-        <v>219</v>
+        <v>169</v>
       </c>
       <c r="B108" t="s">
-        <v>219</v>
+        <v>169</v>
       </c>
       <c r="C108" t="s">
-        <v>219</v>
+        <v>169</v>
       </c>
       <c r="D108" t="s">
-        <v>224</v>
+        <v>462</v>
       </c>
       <c r="E108" t="s">
-        <v>225</v>
+        <v>463</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="s">
-        <v>327</v>
+        <v>169</v>
       </c>
       <c r="B109" t="s">
-        <v>327</v>
+        <v>173</v>
       </c>
       <c r="C109" t="s">
-        <v>327</v>
+        <v>173</v>
       </c>
       <c r="D109" t="s">
-        <v>328</v>
+        <v>174</v>
       </c>
       <c r="E109" t="s">
-        <v>329</v>
+        <v>175</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" t="s">
-        <v>68</v>
+        <v>169</v>
       </c>
       <c r="B110" t="s">
-        <v>67</v>
+        <v>173</v>
       </c>
       <c r="C110" t="s">
-        <v>68</v>
+        <v>173</v>
       </c>
       <c r="D110" t="s">
-        <v>69</v>
+        <v>176</v>
       </c>
       <c r="E110" t="s">
-        <v>70</v>
+        <v>177</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
-        <v>68</v>
+        <v>169</v>
       </c>
       <c r="B111" t="s">
-        <v>68</v>
+        <v>173</v>
       </c>
       <c r="C111" t="s">
-        <v>68</v>
+        <v>173</v>
       </c>
       <c r="D111" t="s">
-        <v>226</v>
+        <v>178</v>
       </c>
       <c r="E111" t="s">
-        <v>321</v>
+        <v>179</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
-        <v>68</v>
+        <v>169</v>
       </c>
       <c r="B112" t="s">
-        <v>68</v>
+        <v>173</v>
       </c>
       <c r="C112" t="s">
-        <v>68</v>
+        <v>173</v>
       </c>
       <c r="D112" t="s">
-        <v>227</v>
+        <v>180</v>
       </c>
       <c r="E112" t="s">
-        <v>334</v>
+        <v>181</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="s">
-        <v>68</v>
+        <v>169</v>
       </c>
       <c r="B113" t="s">
-        <v>68</v>
+        <v>182</v>
       </c>
       <c r="C113" t="s">
-        <v>68</v>
+        <v>182</v>
       </c>
       <c r="D113" t="s">
-        <v>228</v>
+        <v>183</v>
       </c>
       <c r="E113" t="s">
-        <v>320</v>
+        <v>184</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
-        <v>68</v>
+        <v>169</v>
       </c>
       <c r="B114" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="C114" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="D114" t="s">
-        <v>229</v>
+        <v>80</v>
       </c>
       <c r="E114" t="s">
-        <v>230</v>
+        <v>455</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
-        <v>68</v>
+        <v>169</v>
       </c>
       <c r="B115" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="C115" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="D115" t="s">
-        <v>231</v>
+        <v>81</v>
       </c>
       <c r="E115" t="s">
-        <v>232</v>
+        <v>82</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
-        <v>68</v>
+        <v>120</v>
       </c>
       <c r="B116" t="s">
-        <v>68</v>
+        <v>119</v>
       </c>
       <c r="C116" t="s">
-        <v>68</v>
+        <v>120</v>
       </c>
       <c r="D116" t="s">
-        <v>233</v>
+        <v>117</v>
       </c>
       <c r="E116" t="s">
-        <v>234</v>
+        <v>118</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="B117" t="s">
-        <v>235</v>
+        <v>87</v>
       </c>
       <c r="C117" t="s">
-        <v>236</v>
+        <v>87</v>
       </c>
       <c r="D117" t="s">
-        <v>237</v>
+        <v>88</v>
       </c>
       <c r="E117" t="s">
-        <v>238</v>
+        <v>89</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="B118" t="s">
-        <v>235</v>
+        <v>87</v>
       </c>
       <c r="C118" t="s">
-        <v>236</v>
+        <v>87</v>
       </c>
       <c r="D118" t="s">
-        <v>239</v>
+        <v>90</v>
       </c>
       <c r="E118" t="s">
-        <v>240</v>
+        <v>91</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="B119" t="s">
-        <v>235</v>
+        <v>87</v>
       </c>
       <c r="C119" t="s">
-        <v>236</v>
+        <v>87</v>
       </c>
       <c r="D119" t="s">
-        <v>241</v>
+        <v>186</v>
       </c>
       <c r="E119" t="s">
-        <v>242</v>
+        <v>187</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="B120" t="s">
-        <v>315</v>
+        <v>87</v>
       </c>
       <c r="C120" t="s">
-        <v>315</v>
+        <v>87</v>
       </c>
       <c r="D120" t="s">
-        <v>316</v>
+        <v>188</v>
       </c>
       <c r="E120" t="s">
-        <v>317</v>
+        <v>454</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="B121" t="s">
-        <v>315</v>
+        <v>87</v>
       </c>
       <c r="C121" t="s">
-        <v>315</v>
+        <v>87</v>
       </c>
       <c r="D121" t="s">
-        <v>318</v>
+        <v>190</v>
       </c>
       <c r="E121" t="s">
-        <v>319</v>
+        <v>189</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" t="s">
-        <v>290</v>
+        <v>87</v>
       </c>
       <c r="B122" t="s">
-        <v>290</v>
+        <v>87</v>
       </c>
       <c r="C122" t="s">
-        <v>290</v>
+        <v>87</v>
       </c>
       <c r="D122" t="s">
-        <v>318</v>
+        <v>191</v>
       </c>
       <c r="E122" t="s">
-        <v>325</v>
+        <v>192</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" t="s">
-        <v>290</v>
+        <v>87</v>
       </c>
       <c r="B123" t="s">
-        <v>331</v>
+        <v>87</v>
       </c>
       <c r="C123" t="s">
-        <v>331</v>
+        <v>87</v>
       </c>
       <c r="D123" t="s">
-        <v>332</v>
+        <v>194</v>
       </c>
       <c r="E123" t="s">
-        <v>333</v>
+        <v>193</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="B124" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="C124" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="D124" t="s">
-        <v>118</v>
+        <v>195</v>
       </c>
       <c r="E124" t="s">
-        <v>119</v>
+        <v>196</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="B125" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="C125" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="D125" t="s">
-        <v>120</v>
+        <v>197</v>
       </c>
       <c r="E125" t="s">
-        <v>121</v>
+        <v>198</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" t="s">
-        <v>243</v>
+        <v>87</v>
       </c>
       <c r="B126" t="s">
-        <v>243</v>
+        <v>87</v>
       </c>
       <c r="C126" t="s">
-        <v>243</v>
+        <v>199</v>
       </c>
       <c r="D126" t="s">
-        <v>295</v>
+        <v>200</v>
       </c>
       <c r="E126" t="s">
-        <v>296</v>
+        <v>201</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" t="s">
-        <v>243</v>
+        <v>87</v>
       </c>
       <c r="B127" t="s">
-        <v>243</v>
+        <v>87</v>
       </c>
       <c r="C127" t="s">
-        <v>243</v>
+        <v>87</v>
       </c>
       <c r="D127" t="s">
-        <v>244</v>
+        <v>202</v>
       </c>
       <c r="E127" t="s">
-        <v>245</v>
+        <v>203</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" t="s">
-        <v>243</v>
+        <v>87</v>
       </c>
       <c r="B128" t="s">
-        <v>243</v>
+        <v>204</v>
       </c>
       <c r="C128" t="s">
-        <v>243</v>
+        <v>205</v>
       </c>
       <c r="D128" t="s">
-        <v>246</v>
+        <v>206</v>
       </c>
       <c r="E128" t="s">
-        <v>245</v>
+        <v>207</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" t="s">
-        <v>243</v>
+        <v>87</v>
       </c>
       <c r="B129" t="s">
-        <v>243</v>
+        <v>87</v>
       </c>
       <c r="C129" t="s">
-        <v>243</v>
+        <v>208</v>
       </c>
       <c r="D129" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="E129" t="s">
-        <v>248</v>
+        <v>210</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" t="s">
-        <v>243</v>
+        <v>314</v>
       </c>
       <c r="B130" t="s">
-        <v>243</v>
+        <v>314</v>
       </c>
       <c r="C130" t="s">
-        <v>249</v>
+        <v>314</v>
       </c>
       <c r="D130" t="s">
-        <v>250</v>
+        <v>170</v>
       </c>
       <c r="E130" t="s">
-        <v>251</v>
+        <v>364</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" t="s">
-        <v>243</v>
+        <v>314</v>
       </c>
       <c r="B131" t="s">
-        <v>243</v>
+        <v>314</v>
       </c>
       <c r="C131" t="s">
-        <v>252</v>
+        <v>314</v>
       </c>
       <c r="D131" t="s">
-        <v>253</v>
+        <v>362</v>
       </c>
       <c r="E131" t="s">
-        <v>256</v>
+        <v>363</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" t="s">
-        <v>243</v>
+        <v>314</v>
       </c>
       <c r="B132" t="s">
-        <v>243</v>
+        <v>314</v>
       </c>
       <c r="C132" t="s">
-        <v>243</v>
+        <v>314</v>
       </c>
       <c r="D132" t="s">
-        <v>254</v>
+        <v>315</v>
       </c>
       <c r="E132" t="s">
-        <v>255</v>
+        <v>316</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" t="s">
-        <v>243</v>
+        <v>314</v>
       </c>
       <c r="B133" t="s">
-        <v>243</v>
+        <v>314</v>
       </c>
       <c r="C133" t="s">
-        <v>257</v>
+        <v>314</v>
       </c>
       <c r="D133" t="s">
-        <v>258</v>
+        <v>347</v>
       </c>
       <c r="E133" t="s">
-        <v>259</v>
+        <v>348</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" t="s">
-        <v>243</v>
+        <v>314</v>
       </c>
       <c r="B134" t="s">
-        <v>243</v>
+        <v>314</v>
       </c>
       <c r="C134" t="s">
-        <v>260</v>
+        <v>314</v>
       </c>
       <c r="D134" t="s">
-        <v>261</v>
+        <v>350</v>
       </c>
       <c r="E134" t="s">
-        <v>262</v>
+        <v>349</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" t="s">
-        <v>243</v>
+        <v>314</v>
       </c>
       <c r="B135" t="s">
-        <v>243</v>
+        <v>314</v>
       </c>
       <c r="C135" t="s">
-        <v>263</v>
+        <v>314</v>
       </c>
       <c r="D135" t="s">
-        <v>264</v>
+        <v>365</v>
       </c>
       <c r="E135" t="s">
-        <v>265</v>
+        <v>366</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" t="s">
-        <v>243</v>
+        <v>314</v>
       </c>
       <c r="B136" t="s">
-        <v>243</v>
+        <v>314</v>
       </c>
       <c r="C136" t="s">
-        <v>267</v>
+        <v>314</v>
       </c>
       <c r="D136" t="s">
-        <v>266</v>
+        <v>367</v>
       </c>
       <c r="E136" t="s">
-        <v>268</v>
+        <v>368</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" t="s">
-        <v>243</v>
+        <v>314</v>
       </c>
       <c r="B137" t="s">
-        <v>243</v>
+        <v>314</v>
       </c>
       <c r="C137" t="s">
-        <v>269</v>
+        <v>314</v>
       </c>
       <c r="D137" t="s">
-        <v>270</v>
+        <v>456</v>
       </c>
       <c r="E137" t="s">
-        <v>271</v>
+        <v>457</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" t="s">
-        <v>243</v>
+        <v>314</v>
       </c>
       <c r="B138" t="s">
-        <v>243</v>
+        <v>314</v>
       </c>
       <c r="C138" t="s">
-        <v>272</v>
+        <v>314</v>
       </c>
       <c r="D138" t="s">
-        <v>273</v>
+        <v>458</v>
       </c>
       <c r="E138" t="s">
-        <v>274</v>
+        <v>459</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" t="s">
-        <v>243</v>
+        <v>314</v>
       </c>
       <c r="B139" t="s">
-        <v>243</v>
+        <v>314</v>
       </c>
       <c r="C139" t="s">
-        <v>276</v>
+        <v>314</v>
       </c>
       <c r="D139" t="s">
-        <v>275</v>
+        <v>460</v>
       </c>
       <c r="E139" t="s">
-        <v>277</v>
+        <v>461</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" t="s">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="B140" t="s">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="C140" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D140" t="s">
-        <v>279</v>
+        <v>186</v>
       </c>
       <c r="E140" t="s">
-        <v>280</v>
+        <v>212</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" t="s">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="B141" t="s">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="C141" t="s">
-        <v>282</v>
+        <v>213</v>
       </c>
       <c r="D141" t="s">
-        <v>281</v>
+        <v>154</v>
       </c>
       <c r="E141" t="s">
-        <v>283</v>
+        <v>214</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" t="s">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="B142" t="s">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="C142" t="s">
-        <v>284</v>
+        <v>211</v>
       </c>
       <c r="D142" t="s">
-        <v>285</v>
+        <v>215</v>
       </c>
       <c r="E142" t="s">
-        <v>286</v>
+        <v>217</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" t="s">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="B143" t="s">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="C143" t="s">
-        <v>287</v>
+        <v>211</v>
       </c>
       <c r="D143" t="s">
-        <v>288</v>
+        <v>216</v>
       </c>
       <c r="E143" t="s">
-        <v>289</v>
+        <v>217</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" t="s">
-        <v>243</v>
+        <v>319</v>
       </c>
       <c r="B144" t="s">
-        <v>243</v>
+        <v>319</v>
       </c>
       <c r="C144" t="s">
-        <v>290</v>
+        <v>319</v>
       </c>
       <c r="D144" t="s">
-        <v>291</v>
+        <v>320</v>
       </c>
       <c r="E144" t="s">
-        <v>292</v>
+        <v>321</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" t="s">
-        <v>243</v>
+        <v>68</v>
       </c>
       <c r="B145" t="s">
-        <v>243</v>
+        <v>67</v>
       </c>
       <c r="C145" t="s">
-        <v>176</v>
+        <v>68</v>
       </c>
       <c r="D145" t="s">
-        <v>293</v>
+        <v>69</v>
       </c>
       <c r="E145" t="s">
-        <v>294</v>
+        <v>70</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" t="s">
-        <v>335</v>
+        <v>68</v>
       </c>
       <c r="B146" t="s">
-        <v>335</v>
+        <v>68</v>
       </c>
       <c r="C146" t="s">
-        <v>335</v>
+        <v>68</v>
       </c>
       <c r="D146" t="s">
-        <v>336</v>
+        <v>218</v>
       </c>
       <c r="E146" t="s">
-        <v>337</v>
+        <v>313</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" t="s">
-        <v>342</v>
+        <v>68</v>
       </c>
       <c r="B147" t="s">
-        <v>342</v>
+        <v>68</v>
       </c>
       <c r="C147" t="s">
-        <v>342</v>
+        <v>68</v>
       </c>
       <c r="D147" t="s">
-        <v>343</v>
+        <v>219</v>
       </c>
       <c r="E147" t="s">
-        <v>344</v>
+        <v>385</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" t="s">
-        <v>345</v>
+        <v>68</v>
       </c>
       <c r="B148" t="s">
-        <v>345</v>
+        <v>68</v>
       </c>
       <c r="C148" t="s">
-        <v>345</v>
+        <v>68</v>
       </c>
       <c r="D148" t="s">
-        <v>164</v>
+        <v>220</v>
       </c>
       <c r="E148" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A149" t="s">
+        <v>68</v>
+      </c>
+      <c r="B149" t="s">
+        <v>68</v>
+      </c>
+      <c r="C149" t="s">
+        <v>68</v>
+      </c>
+      <c r="D149" t="s">
+        <v>221</v>
+      </c>
+      <c r="E149" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A150" t="s">
+        <v>68</v>
+      </c>
+      <c r="B150" t="s">
+        <v>68</v>
+      </c>
+      <c r="C150" t="s">
+        <v>68</v>
+      </c>
+      <c r="D150" t="s">
+        <v>223</v>
+      </c>
+      <c r="E150" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A151" t="s">
+        <v>68</v>
+      </c>
+      <c r="B151" t="s">
+        <v>68</v>
+      </c>
+      <c r="C151" t="s">
+        <v>68</v>
+      </c>
+      <c r="D151" t="s">
+        <v>225</v>
+      </c>
+      <c r="E151" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A152" t="s">
+        <v>68</v>
+      </c>
+      <c r="B152" t="s">
+        <v>68</v>
+      </c>
+      <c r="C152" t="s">
+        <v>68</v>
+      </c>
+      <c r="D152" t="s">
+        <v>415</v>
+      </c>
+      <c r="E152" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A153" t="s">
+        <v>68</v>
+      </c>
+      <c r="B153" t="s">
+        <v>227</v>
+      </c>
+      <c r="C153" t="s">
+        <v>228</v>
+      </c>
+      <c r="D153" t="s">
+        <v>229</v>
+      </c>
+      <c r="E153" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A154" t="s">
+        <v>68</v>
+      </c>
+      <c r="B154" t="s">
+        <v>227</v>
+      </c>
+      <c r="C154" t="s">
+        <v>228</v>
+      </c>
+      <c r="D154" t="s">
+        <v>231</v>
+      </c>
+      <c r="E154" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A155" t="s">
+        <v>68</v>
+      </c>
+      <c r="B155" t="s">
+        <v>227</v>
+      </c>
+      <c r="C155" t="s">
+        <v>228</v>
+      </c>
+      <c r="D155" t="s">
+        <v>233</v>
+      </c>
+      <c r="E155" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A156" t="s">
+        <v>68</v>
+      </c>
+      <c r="B156" t="s">
+        <v>307</v>
+      </c>
+      <c r="C156" t="s">
+        <v>307</v>
+      </c>
+      <c r="D156" t="s">
+        <v>308</v>
+      </c>
+      <c r="E156" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A157" t="s">
+        <v>68</v>
+      </c>
+      <c r="B157" t="s">
+        <v>307</v>
+      </c>
+      <c r="C157" t="s">
+        <v>307</v>
+      </c>
+      <c r="D157" t="s">
+        <v>310</v>
+      </c>
+      <c r="E157" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A158" t="s">
+        <v>282</v>
+      </c>
+      <c r="B158" t="s">
+        <v>282</v>
+      </c>
+      <c r="C158" t="s">
+        <v>282</v>
+      </c>
+      <c r="D158" t="s">
+        <v>310</v>
+      </c>
+      <c r="E158" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A159" t="s">
+        <v>282</v>
+      </c>
+      <c r="B159" t="s">
+        <v>323</v>
+      </c>
+      <c r="C159" t="s">
+        <v>323</v>
+      </c>
+      <c r="D159" t="s">
+        <v>170</v>
+      </c>
+      <c r="E159" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A160" t="s">
+        <v>282</v>
+      </c>
+      <c r="B160" t="s">
+        <v>323</v>
+      </c>
+      <c r="C160" t="s">
+        <v>323</v>
+      </c>
+      <c r="D160" t="s">
+        <v>324</v>
+      </c>
+      <c r="E160" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A161" t="s">
+        <v>282</v>
+      </c>
+      <c r="B161" t="s">
+        <v>323</v>
+      </c>
+      <c r="C161" t="s">
+        <v>323</v>
+      </c>
+      <c r="D161" t="s">
+        <v>449</v>
+      </c>
+      <c r="E161" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A162" t="s">
+        <v>282</v>
+      </c>
+      <c r="B162" t="s">
+        <v>323</v>
+      </c>
+      <c r="C162" t="s">
+        <v>323</v>
+      </c>
+      <c r="D162" t="s">
         <v>346</v>
+      </c>
+      <c r="E162" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A163" t="s">
+        <v>282</v>
+      </c>
+      <c r="B163" t="s">
+        <v>323</v>
+      </c>
+      <c r="C163" t="s">
+        <v>323</v>
+      </c>
+      <c r="D163" t="s">
+        <v>427</v>
+      </c>
+      <c r="E163" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A164" t="s">
+        <v>282</v>
+      </c>
+      <c r="B164" t="s">
+        <v>323</v>
+      </c>
+      <c r="C164" t="s">
+        <v>323</v>
+      </c>
+      <c r="D164" t="s">
+        <v>425</v>
+      </c>
+      <c r="E164" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A165" t="s">
+        <v>282</v>
+      </c>
+      <c r="B165" t="s">
+        <v>323</v>
+      </c>
+      <c r="C165" t="s">
+        <v>323</v>
+      </c>
+      <c r="D165" t="s">
+        <v>430</v>
+      </c>
+      <c r="E165" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A166" t="s">
+        <v>282</v>
+      </c>
+      <c r="B166" t="s">
+        <v>323</v>
+      </c>
+      <c r="C166" t="s">
+        <v>323</v>
+      </c>
+      <c r="D166" t="s">
+        <v>432</v>
+      </c>
+      <c r="E166" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A167" t="s">
+        <v>282</v>
+      </c>
+      <c r="B167" t="s">
+        <v>323</v>
+      </c>
+      <c r="C167" t="s">
+        <v>323</v>
+      </c>
+      <c r="D167" t="s">
+        <v>434</v>
+      </c>
+      <c r="E167" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A168" t="s">
+        <v>282</v>
+      </c>
+      <c r="B168" t="s">
+        <v>323</v>
+      </c>
+      <c r="C168" t="s">
+        <v>323</v>
+      </c>
+      <c r="D168" t="s">
+        <v>355</v>
+      </c>
+      <c r="E168" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A169" t="s">
+        <v>282</v>
+      </c>
+      <c r="B169" t="s">
+        <v>323</v>
+      </c>
+      <c r="C169" t="s">
+        <v>323</v>
+      </c>
+      <c r="D169" t="s">
+        <v>357</v>
+      </c>
+      <c r="E169" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A170" t="s">
+        <v>282</v>
+      </c>
+      <c r="B170" t="s">
+        <v>323</v>
+      </c>
+      <c r="C170" t="s">
+        <v>323</v>
+      </c>
+      <c r="D170" t="s">
+        <v>359</v>
+      </c>
+      <c r="E170" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A171" t="s">
+        <v>114</v>
+      </c>
+      <c r="B171" t="s">
+        <v>113</v>
+      </c>
+      <c r="C171" t="s">
+        <v>114</v>
+      </c>
+      <c r="D171" t="s">
+        <v>115</v>
+      </c>
+      <c r="E171" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A172" t="s">
+        <v>114</v>
+      </c>
+      <c r="B172" t="s">
+        <v>113</v>
+      </c>
+      <c r="C172" t="s">
+        <v>114</v>
+      </c>
+      <c r="D172" t="s">
+        <v>117</v>
+      </c>
+      <c r="E172" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A173" t="s">
+        <v>235</v>
+      </c>
+      <c r="B173" t="s">
+        <v>235</v>
+      </c>
+      <c r="C173" t="s">
+        <v>235</v>
+      </c>
+      <c r="D173" t="s">
+        <v>287</v>
+      </c>
+      <c r="E173" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A174" t="s">
+        <v>235</v>
+      </c>
+      <c r="B174" t="s">
+        <v>235</v>
+      </c>
+      <c r="C174" t="s">
+        <v>235</v>
+      </c>
+      <c r="D174" t="s">
+        <v>236</v>
+      </c>
+      <c r="E174" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A175" t="s">
+        <v>235</v>
+      </c>
+      <c r="B175" t="s">
+        <v>235</v>
+      </c>
+      <c r="C175" t="s">
+        <v>235</v>
+      </c>
+      <c r="D175" t="s">
+        <v>238</v>
+      </c>
+      <c r="E175" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A176" t="s">
+        <v>235</v>
+      </c>
+      <c r="B176" t="s">
+        <v>235</v>
+      </c>
+      <c r="C176" t="s">
+        <v>235</v>
+      </c>
+      <c r="D176" t="s">
+        <v>239</v>
+      </c>
+      <c r="E176" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A177" t="s">
+        <v>235</v>
+      </c>
+      <c r="B177" t="s">
+        <v>235</v>
+      </c>
+      <c r="C177" t="s">
+        <v>241</v>
+      </c>
+      <c r="D177" t="s">
+        <v>242</v>
+      </c>
+      <c r="E177" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A178" t="s">
+        <v>235</v>
+      </c>
+      <c r="B178" t="s">
+        <v>235</v>
+      </c>
+      <c r="C178" t="s">
+        <v>244</v>
+      </c>
+      <c r="D178" t="s">
+        <v>245</v>
+      </c>
+      <c r="E178" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A179" t="s">
+        <v>235</v>
+      </c>
+      <c r="B179" t="s">
+        <v>235</v>
+      </c>
+      <c r="C179" t="s">
+        <v>235</v>
+      </c>
+      <c r="D179" t="s">
+        <v>246</v>
+      </c>
+      <c r="E179" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A180" t="s">
+        <v>235</v>
+      </c>
+      <c r="B180" t="s">
+        <v>235</v>
+      </c>
+      <c r="C180" t="s">
+        <v>249</v>
+      </c>
+      <c r="D180" t="s">
+        <v>250</v>
+      </c>
+      <c r="E180" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A181" t="s">
+        <v>235</v>
+      </c>
+      <c r="B181" t="s">
+        <v>235</v>
+      </c>
+      <c r="C181" t="s">
+        <v>252</v>
+      </c>
+      <c r="D181" t="s">
+        <v>253</v>
+      </c>
+      <c r="E181" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A182" t="s">
+        <v>235</v>
+      </c>
+      <c r="B182" t="s">
+        <v>235</v>
+      </c>
+      <c r="C182" t="s">
+        <v>255</v>
+      </c>
+      <c r="D182" t="s">
+        <v>256</v>
+      </c>
+      <c r="E182" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A183" t="s">
+        <v>235</v>
+      </c>
+      <c r="B183" t="s">
+        <v>235</v>
+      </c>
+      <c r="C183" t="s">
+        <v>259</v>
+      </c>
+      <c r="D183" t="s">
+        <v>258</v>
+      </c>
+      <c r="E183" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A184" t="s">
+        <v>235</v>
+      </c>
+      <c r="B184" t="s">
+        <v>235</v>
+      </c>
+      <c r="C184" t="s">
+        <v>261</v>
+      </c>
+      <c r="D184" t="s">
+        <v>262</v>
+      </c>
+      <c r="E184" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A185" t="s">
+        <v>235</v>
+      </c>
+      <c r="B185" t="s">
+        <v>235</v>
+      </c>
+      <c r="C185" t="s">
+        <v>264</v>
+      </c>
+      <c r="D185" t="s">
+        <v>265</v>
+      </c>
+      <c r="E185" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A186" t="s">
+        <v>235</v>
+      </c>
+      <c r="B186" t="s">
+        <v>235</v>
+      </c>
+      <c r="C186" t="s">
+        <v>268</v>
+      </c>
+      <c r="D186" t="s">
+        <v>267</v>
+      </c>
+      <c r="E186" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A187" t="s">
+        <v>235</v>
+      </c>
+      <c r="B187" t="s">
+        <v>235</v>
+      </c>
+      <c r="C187" t="s">
+        <v>270</v>
+      </c>
+      <c r="D187" t="s">
+        <v>271</v>
+      </c>
+      <c r="E187" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A188" t="s">
+        <v>235</v>
+      </c>
+      <c r="B188" t="s">
+        <v>235</v>
+      </c>
+      <c r="C188" t="s">
+        <v>274</v>
+      </c>
+      <c r="D188" t="s">
+        <v>273</v>
+      </c>
+      <c r="E188" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A189" t="s">
+        <v>235</v>
+      </c>
+      <c r="B189" t="s">
+        <v>235</v>
+      </c>
+      <c r="C189" t="s">
+        <v>276</v>
+      </c>
+      <c r="D189" t="s">
+        <v>277</v>
+      </c>
+      <c r="E189" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A190" t="s">
+        <v>235</v>
+      </c>
+      <c r="B190" t="s">
+        <v>235</v>
+      </c>
+      <c r="C190" t="s">
+        <v>279</v>
+      </c>
+      <c r="D190" t="s">
+        <v>280</v>
+      </c>
+      <c r="E190" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A191" t="s">
+        <v>235</v>
+      </c>
+      <c r="B191" t="s">
+        <v>235</v>
+      </c>
+      <c r="C191" t="s">
+        <v>282</v>
+      </c>
+      <c r="D191" t="s">
+        <v>283</v>
+      </c>
+      <c r="E191" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A192" t="s">
+        <v>235</v>
+      </c>
+      <c r="B192" t="s">
+        <v>235</v>
+      </c>
+      <c r="C192" t="s">
+        <v>169</v>
+      </c>
+      <c r="D192" t="s">
+        <v>285</v>
+      </c>
+      <c r="E192" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A193" t="s">
+        <v>325</v>
+      </c>
+      <c r="B193" t="s">
+        <v>325</v>
+      </c>
+      <c r="C193" t="s">
+        <v>325</v>
+      </c>
+      <c r="D193" t="s">
+        <v>326</v>
+      </c>
+      <c r="E193" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A194" t="s">
+        <v>332</v>
+      </c>
+      <c r="B194" t="s">
+        <v>332</v>
+      </c>
+      <c r="C194" t="s">
+        <v>332</v>
+      </c>
+      <c r="D194" t="s">
+        <v>333</v>
+      </c>
+      <c r="E194" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A195" t="s">
+        <v>335</v>
+      </c>
+      <c r="B195" t="s">
+        <v>335</v>
+      </c>
+      <c r="C195" t="s">
+        <v>335</v>
+      </c>
+      <c r="D195" t="s">
+        <v>158</v>
+      </c>
+      <c r="E195" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A196" t="s">
+        <v>436</v>
+      </c>
+      <c r="B196" t="s">
+        <v>437</v>
+      </c>
+      <c r="C196" t="s">
+        <v>437</v>
+      </c>
+      <c r="D196" t="s">
+        <v>438</v>
+      </c>
+      <c r="E196" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A197" t="s">
+        <v>436</v>
+      </c>
+      <c r="B197" t="s">
+        <v>440</v>
+      </c>
+      <c r="C197" t="s">
+        <v>440</v>
+      </c>
+      <c r="D197" t="s">
+        <v>441</v>
+      </c>
+      <c r="E197" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A198" t="s">
+        <v>444</v>
+      </c>
+      <c r="B198" t="s">
+        <v>437</v>
+      </c>
+      <c r="C198" t="s">
+        <v>437</v>
+      </c>
+      <c r="D198" t="s">
+        <v>445</v>
+      </c>
+      <c r="E198" t="s">
+        <v>446</v>
       </c>
     </row>
   </sheetData>

--- a/人相占い.xlsx
+++ b/人相占い.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hskw1\git_space\ninsou_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B2B3CD-E0B0-4E9E-8A99-29780659CAA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71094024-3A5C-4F52-AAE5-2295B750DDBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{33870B47-7E14-40C1-9124-05523A9D41DA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="493">
   <si>
     <t>特徴</t>
     <rPh sb="0" eb="2">
@@ -1252,34 +1252,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>コツコツタイプ／ロマンチスト/視野が狭い/消極的/感受性劣る/明るく振舞うのが苦手</t>
-    <rPh sb="15" eb="17">
-      <t>シヤ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>セマ</t>
-    </rPh>
-    <rPh sb="21" eb="24">
-      <t>ショウキョクテキ</t>
-    </rPh>
-    <rPh sb="25" eb="28">
-      <t>カンジュセイ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>オト</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>アカ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>フルマ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ニガテ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>黒目</t>
     <rPh sb="0" eb="2">
       <t>クロメ</t>
@@ -4428,22 +4400,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>福相/広く愛情を示す</t>
-    <rPh sb="0" eb="2">
-      <t>フクソウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ヒロ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>アイジョウ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>シメ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>法令線</t>
     <rPh sb="0" eb="1">
       <t>ホウ</t>
@@ -5998,28 +5954,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>視野が広い/顎も広い：決断力を持つ</t>
-    <rPh sb="0" eb="2">
-      <t>シヤ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ヒロ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>アゴ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ヒロ</t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t>ケツダンリョク</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>モ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>広い</t>
     <rPh sb="0" eb="1">
       <t>ヒロ</t>
@@ -6195,13 +6129,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>積極的</t>
-    <rPh sb="0" eb="3">
-      <t>セッキョクテキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>更に鼻が長い:何でも自分でやらないと気が済まない　協調性なし　無理をするようになり挫折する</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -6524,46 +6451,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>生活力旺盛/我が強い/こぶしが入る：富貴・飛翔の相、天下取りの相　実業で成功をおさめる</t>
-    <rPh sb="0" eb="3">
-      <t>セイカツリョク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>オウセイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ガ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ツヨ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ハイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>フウキ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ヒショウ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ソウ</t>
-    </rPh>
-    <rPh sb="26" eb="29">
-      <t>テンカト</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>ソウ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ジツギョウ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>セイコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>心の大きい親分肌/成功相/心のゆとり/任侠心</t>
     <rPh sb="0" eb="1">
       <t>ココロ</t>
@@ -6674,6 +6561,562 @@
     </rPh>
     <rPh sb="6" eb="7">
       <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>眉骨</t>
+    <rPh sb="0" eb="1">
+      <t>マユ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ホネ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>積極的/闘争心を表す</t>
+    <rPh sb="0" eb="3">
+      <t>セッキョクテキ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>トウソウシン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>アラワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顔のバランス</t>
+    <rPh sb="0" eb="1">
+      <t>カオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上中下部分が1/3づつ</t>
+    <rPh sb="0" eb="3">
+      <t>ジョウチュウゲ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ブブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正中線に対してすべてが垂直に並んでいる: バランス感覚がある</t>
+    <rPh sb="0" eb="3">
+      <t>セイチュウセン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>スイチョク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カンカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>くぼ目で切れ長　※出目でない</t>
+    <rPh sb="2" eb="3">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>デメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>冷静な判断力あり</t>
+    <rPh sb="0" eb="2">
+      <t>レイセイ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ハンダンリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ギョロ目　※王貞治</t>
+    <rPh sb="3" eb="4">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サダハル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>感覚の鋭さ/好調不調の波が繰り返しやってくる/イチかバチかの全力勝負するタイプ</t>
+    <rPh sb="0" eb="2">
+      <t>カンカク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>スルド</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウチョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>フチョウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ナミ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ゼンリョク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ショウブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>狭い</t>
+    <rPh sb="0" eb="1">
+      <t>セマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使わなくてもいい気を遣うハメになる</t>
+    <rPh sb="0" eb="1">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>視野が広い/物事に対する考え方の幅が広い/耐久持続性がある/顎も広い：決断力を持つ　意志を貫く</t>
+    <rPh sb="0" eb="2">
+      <t>シヤ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヒロ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>モノゴト</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ハバ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ヒロ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>タイキュウ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>ジゾクセイ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>アゴ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ヒロ</t>
+    </rPh>
+    <rPh sb="35" eb="38">
+      <t>ケツダンリョク</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>イシ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ツラヌ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>福相/広く愛情を示す/包容力がある</t>
+    <rPh sb="0" eb="2">
+      <t>フクソウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヒロ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>アイジョウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>シメ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ホウヨウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>垂珠</t>
+    <rPh sb="0" eb="1">
+      <t>スイ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>タマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>厚みがある</t>
+    <rPh sb="0" eb="1">
+      <t>アツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>親分肌</t>
+    <rPh sb="0" eb="3">
+      <t>オヤブンハダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鼻の根もと</t>
+    <rPh sb="0" eb="1">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ネ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鼻の根もとが隆起している</t>
+    <rPh sb="0" eb="1">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ネ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>リュウキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃的で弁が立つ/政争論争の勝者になる素質がある</t>
+    <rPh sb="0" eb="3">
+      <t>コウゲキテキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ベン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セイソウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ロンソウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ショウシャ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ソシツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>多少のアールがついている</t>
+    <rPh sb="0" eb="2">
+      <t>タショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>寛容を表す</t>
+    <rPh sb="0" eb="2">
+      <t>カンヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アラワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下がった八の字眉/眉尻が目尻にくっつきそう</t>
+    <rPh sb="0" eb="1">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ハチ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>マユ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>マユジリ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>メジリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>争いを好み野心に燃えるタイプ</t>
+    <rPh sb="0" eb="1">
+      <t>アラソ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>コノ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヤシン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>周りの肉付きが良い</t>
+    <rPh sb="0" eb="1">
+      <t>マワ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニクヅ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タフさを表している</t>
+    <rPh sb="4" eb="5">
+      <t>アラワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コツコツタイプ／ロマンチスト/視野が狭い/消極的/感受性劣る/明るく振舞うのが苦手/芽が出ない　出ても一気に落ちる</t>
+    <rPh sb="15" eb="17">
+      <t>シヤ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>セマ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>ショウキョクテキ</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>カンジュセイ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>オト</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>フルマ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ニガテ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>イッキ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パワーを表す</t>
+    <rPh sb="4" eb="5">
+      <t>アラワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生活力旺盛/我が強い/こぶしが入る：富貴・飛翔の相、天下取りの相　実業で成功をおさめる/四角い: ベスト</t>
+    <rPh sb="0" eb="3">
+      <t>セイカツリョク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>オウセイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ガ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ツヨ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>フウキ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒショウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>テンカト</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ジツギョウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>シカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゆるく少し開いている</t>
+    <rPh sb="3" eb="4">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>決断力に欠ける</t>
+    <rPh sb="0" eb="2">
+      <t>ケツダン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>リョク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>眉の中央</t>
+    <rPh sb="0" eb="1">
+      <t>マユ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>チュウオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>眉の中央が隆起している</t>
+    <rPh sb="0" eb="1">
+      <t>マユ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>チュウオウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>リュウキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ルーネンス氏尖: 素晴らしい色彩感覚を持っている</t>
+    <rPh sb="5" eb="6">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>トガ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>スバ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シキサイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カンカク</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>闘争心を表す/直視力に優れ、美術や音楽などの才能にあふれている</t>
+    <rPh sb="0" eb="3">
+      <t>トウソウシン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アラワ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>チョクシ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>リョク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>スグ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ビジュツ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>オンガク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>サイノウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -7039,10 +7482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9900863F-BBC4-46C5-A6C7-7C7290BC55B4}">
-  <dimension ref="A1:E198"/>
+  <dimension ref="A1:E211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="D112" sqref="D112"/>
+    <sheetView tabSelected="1" topLeftCell="E37" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -7060,18 +7503,18 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -7088,7 +7531,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -7105,7 +7548,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -7122,7 +7565,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -7131,27 +7574,27 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>167</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>461</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>461</v>
       </c>
       <c r="D6" t="s">
-        <v>400</v>
+        <v>462</v>
       </c>
       <c r="E6" t="s">
-        <v>399</v>
+        <v>463</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -7165,10 +7608,10 @@
         <v>76</v>
       </c>
       <c r="D7" t="s">
-        <v>121</v>
+        <v>398</v>
       </c>
       <c r="E7" t="s">
-        <v>414</v>
+        <v>397</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -7182,10 +7625,10 @@
         <v>76</v>
       </c>
       <c r="D8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E8" t="s">
-        <v>123</v>
+        <v>470</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -7199,10 +7642,10 @@
         <v>76</v>
       </c>
       <c r="D9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -7216,10 +7659,10 @@
         <v>76</v>
       </c>
       <c r="D10" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -7233,10 +7676,10 @@
         <v>76</v>
       </c>
       <c r="D11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E11" t="s">
-        <v>443</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -7250,10 +7693,10 @@
         <v>76</v>
       </c>
       <c r="D12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E12" t="s">
-        <v>130</v>
+        <v>439</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -7267,10 +7710,10 @@
         <v>76</v>
       </c>
       <c r="D13" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E13" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -7284,10 +7727,10 @@
         <v>76</v>
       </c>
       <c r="D14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E14" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -7301,10 +7744,10 @@
         <v>76</v>
       </c>
       <c r="D15" t="s">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="E15" t="s">
-        <v>78</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -7318,10 +7761,10 @@
         <v>76</v>
       </c>
       <c r="D16" t="s">
-        <v>382</v>
+        <v>77</v>
       </c>
       <c r="E16" t="s">
-        <v>383</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -7335,10 +7778,10 @@
         <v>76</v>
       </c>
       <c r="D17" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="E17" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -7346,16 +7789,16 @@
         <v>76</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="D18" t="s">
-        <v>337</v>
+        <v>382</v>
       </c>
       <c r="E18" t="s">
-        <v>338</v>
+        <v>381</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -7369,10 +7812,10 @@
         <v>34</v>
       </c>
       <c r="D19" t="s">
-        <v>417</v>
+        <v>335</v>
       </c>
       <c r="E19" t="s">
-        <v>447</v>
+        <v>336</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -7386,10 +7829,10 @@
         <v>34</v>
       </c>
       <c r="D20" t="s">
-        <v>381</v>
+        <v>414</v>
       </c>
       <c r="E20" t="s">
-        <v>379</v>
+        <v>443</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -7403,10 +7846,10 @@
         <v>34</v>
       </c>
       <c r="D21" t="s">
-        <v>35</v>
+        <v>379</v>
       </c>
       <c r="E21" t="s">
-        <v>36</v>
+        <v>377</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -7420,10 +7863,10 @@
         <v>34</v>
       </c>
       <c r="D22" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -7431,16 +7874,16 @@
         <v>76</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E23" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -7454,10 +7897,10 @@
         <v>39</v>
       </c>
       <c r="D24" t="s">
-        <v>378</v>
+        <v>42</v>
       </c>
       <c r="E24" t="s">
-        <v>380</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -7471,10 +7914,10 @@
         <v>39</v>
       </c>
       <c r="D25" t="s">
-        <v>401</v>
+        <v>376</v>
       </c>
       <c r="E25" t="s">
-        <v>402</v>
+        <v>378</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -7482,16 +7925,16 @@
         <v>76</v>
       </c>
       <c r="B26" t="s">
-        <v>289</v>
+        <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>290</v>
+        <v>39</v>
       </c>
       <c r="D26" t="s">
-        <v>291</v>
+        <v>399</v>
       </c>
       <c r="E26" t="s">
-        <v>299</v>
+        <v>400</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -7499,16 +7942,16 @@
         <v>76</v>
       </c>
       <c r="B27" t="s">
+        <v>288</v>
+      </c>
+      <c r="C27" t="s">
         <v>289</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>290</v>
       </c>
-      <c r="D27" t="s">
-        <v>339</v>
-      </c>
       <c r="E27" t="s">
-        <v>340</v>
+        <v>298</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -7516,16 +7959,16 @@
         <v>76</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>288</v>
       </c>
       <c r="C28" t="s">
-        <v>44</v>
+        <v>289</v>
       </c>
       <c r="D28" t="s">
-        <v>45</v>
+        <v>337</v>
       </c>
       <c r="E28" t="s">
-        <v>46</v>
+        <v>338</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -7533,390 +7976,390 @@
         <v>76</v>
       </c>
       <c r="B29" t="s">
-        <v>341</v>
+        <v>43</v>
       </c>
       <c r="C29" t="s">
-        <v>341</v>
+        <v>44</v>
       </c>
       <c r="D29" t="s">
-        <v>342</v>
+        <v>45</v>
       </c>
       <c r="E29" t="s">
-        <v>343</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="B30" t="s">
-        <v>135</v>
+        <v>339</v>
       </c>
       <c r="C30" t="s">
-        <v>135</v>
+        <v>339</v>
       </c>
       <c r="D30" t="s">
-        <v>136</v>
+        <v>340</v>
       </c>
       <c r="E30" t="s">
-        <v>137</v>
+        <v>341</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
+        <v>134</v>
+      </c>
+      <c r="B31" t="s">
+        <v>134</v>
+      </c>
+      <c r="C31" t="s">
+        <v>134</v>
+      </c>
+      <c r="D31" t="s">
         <v>135</v>
       </c>
-      <c r="B31" t="s">
-        <v>135</v>
-      </c>
-      <c r="C31" t="s">
-        <v>135</v>
-      </c>
-      <c r="D31" t="s">
-        <v>138</v>
-      </c>
       <c r="E31" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D32" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E32" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B33" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C33" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D33" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E33" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D34" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E34" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D35" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E35" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B36" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C36" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D36" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E36" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B37" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C37" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D37" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E37" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B38" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C38" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D38" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E38" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B39" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C39" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D39" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E39" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B40" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C40" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D40" t="s">
-        <v>300</v>
+        <v>153</v>
       </c>
       <c r="E40" t="s">
-        <v>301</v>
+        <v>154</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B41" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C41" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D41" t="s">
-        <v>344</v>
+        <v>299</v>
       </c>
       <c r="E41" t="s">
-        <v>345</v>
+        <v>300</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D42" t="s">
-        <v>404</v>
+        <v>342</v>
       </c>
       <c r="E42" t="s">
-        <v>405</v>
+        <v>343</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D43" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="E43" t="s">
-        <v>424</v>
+        <v>403</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B44" t="s">
-        <v>296</v>
+        <v>134</v>
       </c>
       <c r="C44" t="s">
-        <v>296</v>
+        <v>134</v>
       </c>
       <c r="D44" t="s">
-        <v>297</v>
+        <v>420</v>
       </c>
       <c r="E44" t="s">
-        <v>298</v>
+        <v>421</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B45" t="s">
-        <v>296</v>
+        <v>134</v>
       </c>
       <c r="C45" t="s">
-        <v>296</v>
+        <v>134</v>
       </c>
       <c r="D45" t="s">
-        <v>395</v>
+        <v>478</v>
       </c>
       <c r="E45" t="s">
-        <v>396</v>
+        <v>479</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
-        <v>351</v>
+        <v>134</v>
       </c>
       <c r="B46" t="s">
-        <v>351</v>
+        <v>295</v>
       </c>
       <c r="C46" t="s">
-        <v>351</v>
+        <v>295</v>
       </c>
       <c r="D46" t="s">
-        <v>352</v>
+        <v>296</v>
       </c>
       <c r="E46" t="s">
-        <v>353</v>
+        <v>297</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
-        <v>10</v>
+        <v>134</v>
       </c>
       <c r="B47" t="s">
-        <v>17</v>
+        <v>295</v>
       </c>
       <c r="C47" t="s">
-        <v>10</v>
+        <v>295</v>
       </c>
       <c r="D47" t="s">
-        <v>11</v>
+        <v>393</v>
       </c>
       <c r="E47" t="s">
-        <v>15</v>
+        <v>394</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
-        <v>10</v>
+        <v>134</v>
       </c>
       <c r="B48" t="s">
-        <v>17</v>
+        <v>459</v>
       </c>
       <c r="C48" t="s">
-        <v>10</v>
+        <v>459</v>
       </c>
       <c r="D48" t="s">
-        <v>18</v>
+        <v>165</v>
       </c>
       <c r="E48" t="s">
-        <v>19</v>
+        <v>492</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
-        <v>10</v>
+        <v>134</v>
       </c>
       <c r="B49" t="s">
-        <v>17</v>
+        <v>459</v>
       </c>
       <c r="C49" t="s">
-        <v>10</v>
+        <v>459</v>
       </c>
       <c r="D49" t="s">
-        <v>24</v>
+        <v>480</v>
       </c>
       <c r="E49" t="s">
-        <v>31</v>
+        <v>481</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>134</v>
       </c>
       <c r="B50" t="s">
-        <v>17</v>
+        <v>489</v>
       </c>
       <c r="C50" t="s">
-        <v>10</v>
+        <v>489</v>
       </c>
       <c r="D50" t="s">
-        <v>53</v>
+        <v>490</v>
       </c>
       <c r="E50" t="s">
-        <v>54</v>
+        <v>491</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
-        <v>10</v>
+        <v>349</v>
       </c>
       <c r="B51" t="s">
-        <v>17</v>
+        <v>349</v>
       </c>
       <c r="C51" t="s">
-        <v>10</v>
+        <v>349</v>
       </c>
       <c r="D51" t="s">
-        <v>292</v>
+        <v>350</v>
       </c>
       <c r="E51" t="s">
-        <v>293</v>
+        <v>351</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -7930,10 +8373,10 @@
         <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>302</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>303</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -7947,10 +8390,10 @@
         <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>304</v>
+        <v>18</v>
       </c>
       <c r="E53" t="s">
-        <v>303</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -7964,129 +8407,129 @@
         <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>401</v>
+        <v>24</v>
       </c>
       <c r="E54" t="s">
-        <v>403</v>
+        <v>31</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B55" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C55" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="E55" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>371</v>
+        <v>17</v>
       </c>
       <c r="C56" t="s">
-        <v>371</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>372</v>
+        <v>291</v>
       </c>
       <c r="E56" t="s">
-        <v>373</v>
+        <v>292</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>371</v>
+        <v>17</v>
       </c>
       <c r="C57" t="s">
-        <v>371</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>389</v>
+        <v>468</v>
       </c>
       <c r="E57" t="s">
-        <v>390</v>
+        <v>469</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>371</v>
+        <v>17</v>
       </c>
       <c r="C58" t="s">
-        <v>371</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>391</v>
+        <v>301</v>
       </c>
       <c r="E58" t="s">
-        <v>392</v>
+        <v>302</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>371</v>
+        <v>17</v>
       </c>
       <c r="C59" t="s">
-        <v>371</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>393</v>
+        <v>303</v>
       </c>
       <c r="E59" t="s">
-        <v>394</v>
+        <v>302</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="B60" t="s">
-        <v>386</v>
+        <v>17</v>
       </c>
       <c r="C60" t="s">
-        <v>386</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="E60" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="B61" t="s">
-        <v>374</v>
+        <v>20</v>
       </c>
       <c r="C61" t="s">
-        <v>374</v>
+        <v>22</v>
       </c>
       <c r="D61" t="s">
-        <v>375</v>
+        <v>21</v>
       </c>
       <c r="E61" t="s">
-        <v>376</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -8094,16 +8537,16 @@
         <v>71</v>
       </c>
       <c r="B62" t="s">
-        <v>71</v>
+        <v>369</v>
       </c>
       <c r="C62" t="s">
-        <v>71</v>
+        <v>369</v>
       </c>
       <c r="D62" t="s">
-        <v>407</v>
+        <v>370</v>
       </c>
       <c r="E62" t="s">
-        <v>408</v>
+        <v>371</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -8111,16 +8554,16 @@
         <v>71</v>
       </c>
       <c r="B63" t="s">
-        <v>71</v>
+        <v>369</v>
       </c>
       <c r="C63" t="s">
-        <v>71</v>
+        <v>369</v>
       </c>
       <c r="D63" t="s">
-        <v>406</v>
+        <v>387</v>
       </c>
       <c r="E63" t="s">
-        <v>72</v>
+        <v>388</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -8128,16 +8571,16 @@
         <v>71</v>
       </c>
       <c r="B64" t="s">
-        <v>71</v>
+        <v>369</v>
       </c>
       <c r="C64" t="s">
-        <v>71</v>
+        <v>369</v>
       </c>
       <c r="D64" t="s">
-        <v>92</v>
+        <v>389</v>
       </c>
       <c r="E64" t="s">
-        <v>94</v>
+        <v>390</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -8145,16 +8588,16 @@
         <v>71</v>
       </c>
       <c r="B65" t="s">
-        <v>71</v>
+        <v>369</v>
       </c>
       <c r="C65" t="s">
-        <v>71</v>
+        <v>369</v>
       </c>
       <c r="D65" t="s">
-        <v>93</v>
+        <v>391</v>
       </c>
       <c r="E65" t="s">
-        <v>95</v>
+        <v>392</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -8162,16 +8605,16 @@
         <v>71</v>
       </c>
       <c r="B66" t="s">
-        <v>71</v>
+        <v>384</v>
       </c>
       <c r="C66" t="s">
-        <v>71</v>
+        <v>384</v>
       </c>
       <c r="D66" t="s">
-        <v>328</v>
+        <v>385</v>
       </c>
       <c r="E66" t="s">
-        <v>331</v>
+        <v>386</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -8179,16 +8622,16 @@
         <v>71</v>
       </c>
       <c r="B67" t="s">
-        <v>71</v>
+        <v>372</v>
       </c>
       <c r="C67" t="s">
-        <v>71</v>
+        <v>372</v>
       </c>
       <c r="D67" t="s">
-        <v>109</v>
+        <v>373</v>
       </c>
       <c r="E67" t="s">
-        <v>110</v>
+        <v>374</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -8202,10 +8645,10 @@
         <v>71</v>
       </c>
       <c r="D68" t="s">
-        <v>111</v>
+        <v>405</v>
       </c>
       <c r="E68" t="s">
-        <v>112</v>
+        <v>406</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -8219,10 +8662,10 @@
         <v>71</v>
       </c>
       <c r="D69" t="s">
-        <v>397</v>
+        <v>464</v>
       </c>
       <c r="E69" t="s">
-        <v>398</v>
+        <v>465</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -8230,16 +8673,16 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C70" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D70" t="s">
-        <v>74</v>
+        <v>404</v>
       </c>
       <c r="E70" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -8247,16 +8690,16 @@
         <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="C71" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="D71" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E71" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -8264,16 +8707,16 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="C72" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="D72" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E72" t="s">
-        <v>100</v>
+        <v>484</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -8281,16 +8724,16 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="C73" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="D73" t="s">
-        <v>101</v>
+        <v>326</v>
       </c>
       <c r="E73" t="s">
-        <v>102</v>
+        <v>329</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -8298,16 +8741,16 @@
         <v>71</v>
       </c>
       <c r="B74" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="C74" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="D74" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E74" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -8315,16 +8758,16 @@
         <v>71</v>
       </c>
       <c r="B75" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="C75" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="D75" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E75" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -8332,16 +8775,16 @@
         <v>71</v>
       </c>
       <c r="B76" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="C76" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="D76" t="s">
-        <v>107</v>
+        <v>395</v>
       </c>
       <c r="E76" t="s">
-        <v>108</v>
+        <v>396</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -8349,271 +8792,271 @@
         <v>71</v>
       </c>
       <c r="B77" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="C77" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="D77" t="s">
-        <v>92</v>
+        <v>466</v>
       </c>
       <c r="E77" t="s">
-        <v>322</v>
+        <v>467</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="B78" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="C78" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="D78" t="s">
-        <v>24</v>
+        <v>482</v>
       </c>
       <c r="E78" t="s">
-        <v>31</v>
+        <v>483</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="B79" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="C79" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="D79" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="E79" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
-        <v>294</v>
+        <v>71</v>
       </c>
       <c r="B80" t="s">
-        <v>294</v>
+        <v>95</v>
       </c>
       <c r="C80" t="s">
-        <v>294</v>
+        <v>95</v>
       </c>
       <c r="D80" t="s">
-        <v>295</v>
+        <v>96</v>
       </c>
       <c r="E80" t="s">
-        <v>318</v>
+        <v>97</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="B81" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="C81" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="D81" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="E81" t="s">
-        <v>52</v>
+        <v>99</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="B82" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="C82" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="D82" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="E82" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
-        <v>305</v>
+        <v>71</v>
       </c>
       <c r="B83" t="s">
-        <v>305</v>
+        <v>95</v>
       </c>
       <c r="C83" t="s">
-        <v>305</v>
+        <v>95</v>
       </c>
       <c r="D83" t="s">
-        <v>306</v>
+        <v>102</v>
       </c>
       <c r="E83" t="s">
-        <v>303</v>
+        <v>103</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="B84" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="C84" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="D84" t="s">
-        <v>409</v>
+        <v>104</v>
       </c>
       <c r="E84" t="s">
-        <v>410</v>
+        <v>105</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="B85" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="C85" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="D85" t="s">
-        <v>411</v>
+        <v>106</v>
       </c>
       <c r="E85" t="s">
-        <v>412</v>
+        <v>107</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="B86" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="C86" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="D86" t="s">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="E86" t="s">
-        <v>29</v>
+        <v>320</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B87" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C87" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D87" t="s">
-        <v>329</v>
+        <v>24</v>
       </c>
       <c r="E87" t="s">
-        <v>330</v>
+        <v>31</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B88" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C88" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D88" t="s">
-        <v>147</v>
+        <v>28</v>
       </c>
       <c r="E88" t="s">
-        <v>157</v>
+        <v>29</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
-        <v>26</v>
+        <v>293</v>
       </c>
       <c r="B89" t="s">
-        <v>26</v>
+        <v>293</v>
       </c>
       <c r="C89" t="s">
-        <v>26</v>
+        <v>293</v>
       </c>
       <c r="D89" t="s">
-        <v>158</v>
+        <v>294</v>
       </c>
       <c r="E89" t="s">
-        <v>377</v>
+        <v>316</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="B90" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="C90" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="D90" t="s">
-        <v>154</v>
+        <v>51</v>
       </c>
       <c r="E90" t="s">
-        <v>156</v>
+        <v>52</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="B91" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C91" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D91" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E91" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
-        <v>26</v>
+        <v>304</v>
       </c>
       <c r="B92" t="s">
-        <v>12</v>
+        <v>304</v>
       </c>
       <c r="C92" t="s">
-        <v>16</v>
+        <v>304</v>
       </c>
       <c r="D92" t="s">
-        <v>13</v>
+        <v>305</v>
       </c>
       <c r="E92" t="s">
-        <v>14</v>
+        <v>302</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -8621,16 +9064,16 @@
         <v>26</v>
       </c>
       <c r="B93" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C93" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D93" t="s">
-        <v>61</v>
+        <v>407</v>
       </c>
       <c r="E93" t="s">
-        <v>62</v>
+        <v>408</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -8638,16 +9081,16 @@
         <v>26</v>
       </c>
       <c r="B94" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C94" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D94" t="s">
-        <v>164</v>
+        <v>409</v>
       </c>
       <c r="E94" t="s">
-        <v>165</v>
+        <v>410</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -8655,16 +9098,16 @@
         <v>26</v>
       </c>
       <c r="B95" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C95" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D95" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="E95" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -8672,16 +9115,16 @@
         <v>26</v>
       </c>
       <c r="B96" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C96" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D96" t="s">
-        <v>85</v>
+        <v>327</v>
       </c>
       <c r="E96" t="s">
-        <v>86</v>
+        <v>328</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -8689,16 +9132,16 @@
         <v>26</v>
       </c>
       <c r="B97" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="C97" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="D97" t="s">
-        <v>448</v>
+        <v>146</v>
       </c>
       <c r="E97" t="s">
-        <v>451</v>
+        <v>156</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -8706,16 +9149,16 @@
         <v>26</v>
       </c>
       <c r="B98" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="C98" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="D98" t="s">
-        <v>61</v>
+        <v>157</v>
       </c>
       <c r="E98" t="s">
-        <v>62</v>
+        <v>375</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -8723,16 +9166,16 @@
         <v>26</v>
       </c>
       <c r="B99" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="C99" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="D99" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="E99" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -8740,16 +9183,16 @@
         <v>26</v>
       </c>
       <c r="B100" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C100" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D100" t="s">
-        <v>166</v>
+        <v>57</v>
       </c>
       <c r="E100" t="s">
-        <v>413</v>
+        <v>58</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -8757,16 +9200,16 @@
         <v>26</v>
       </c>
       <c r="B101" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="C101" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="D101" t="s">
-        <v>452</v>
+        <v>13</v>
       </c>
       <c r="E101" t="s">
-        <v>453</v>
+        <v>14</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -8774,16 +9217,16 @@
         <v>26</v>
       </c>
       <c r="B102" t="s">
-        <v>159</v>
+        <v>12</v>
       </c>
       <c r="C102" t="s">
-        <v>159</v>
+        <v>16</v>
       </c>
       <c r="D102" t="s">
-        <v>160</v>
+        <v>61</v>
       </c>
       <c r="E102" t="s">
-        <v>161</v>
+        <v>62</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -8791,424 +9234,424 @@
         <v>26</v>
       </c>
       <c r="B103" t="s">
-        <v>159</v>
+        <v>12</v>
       </c>
       <c r="C103" t="s">
-        <v>159</v>
+        <v>16</v>
       </c>
       <c r="D103" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E103" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
-        <v>418</v>
+        <v>26</v>
       </c>
       <c r="B104" t="s">
-        <v>419</v>
+        <v>12</v>
       </c>
       <c r="C104" t="s">
-        <v>420</v>
+        <v>16</v>
       </c>
       <c r="D104" t="s">
-        <v>421</v>
+        <v>83</v>
       </c>
       <c r="E104" t="s">
-        <v>422</v>
+        <v>84</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="B105" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="C105" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="D105" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="E105" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
-        <v>169</v>
+        <v>26</v>
       </c>
       <c r="B106" t="s">
-        <v>169</v>
+        <v>59</v>
       </c>
       <c r="C106" t="s">
-        <v>169</v>
+        <v>60</v>
       </c>
       <c r="D106" t="s">
-        <v>170</v>
+        <v>444</v>
       </c>
       <c r="E106" t="s">
-        <v>171</v>
+        <v>447</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
-        <v>169</v>
+        <v>26</v>
       </c>
       <c r="B107" t="s">
-        <v>169</v>
+        <v>59</v>
       </c>
       <c r="C107" t="s">
-        <v>169</v>
+        <v>60</v>
       </c>
       <c r="D107" t="s">
-        <v>154</v>
+        <v>61</v>
       </c>
       <c r="E107" t="s">
-        <v>172</v>
+        <v>62</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="s">
-        <v>169</v>
+        <v>26</v>
       </c>
       <c r="B108" t="s">
-        <v>169</v>
+        <v>59</v>
       </c>
       <c r="C108" t="s">
-        <v>169</v>
+        <v>60</v>
       </c>
       <c r="D108" t="s">
-        <v>462</v>
+        <v>163</v>
       </c>
       <c r="E108" t="s">
-        <v>463</v>
+        <v>164</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="s">
-        <v>169</v>
+        <v>26</v>
       </c>
       <c r="B109" t="s">
-        <v>173</v>
+        <v>59</v>
       </c>
       <c r="C109" t="s">
-        <v>173</v>
+        <v>60</v>
       </c>
       <c r="D109" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="E109" t="s">
-        <v>175</v>
+        <v>411</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" t="s">
-        <v>169</v>
+        <v>26</v>
       </c>
       <c r="B110" t="s">
-        <v>173</v>
+        <v>59</v>
       </c>
       <c r="C110" t="s">
-        <v>173</v>
+        <v>60</v>
       </c>
       <c r="D110" t="s">
-        <v>176</v>
+        <v>448</v>
       </c>
       <c r="E110" t="s">
-        <v>177</v>
+        <v>449</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
-        <v>169</v>
+        <v>26</v>
       </c>
       <c r="B111" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="C111" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="D111" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="E111" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
-        <v>169</v>
+        <v>26</v>
       </c>
       <c r="B112" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="C112" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="D112" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="E112" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="s">
-        <v>169</v>
+        <v>26</v>
       </c>
       <c r="B113" t="s">
-        <v>182</v>
+        <v>475</v>
       </c>
       <c r="C113" t="s">
-        <v>182</v>
+        <v>475</v>
       </c>
       <c r="D113" t="s">
-        <v>183</v>
+        <v>476</v>
       </c>
       <c r="E113" t="s">
-        <v>184</v>
+        <v>477</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
-        <v>169</v>
+        <v>415</v>
       </c>
       <c r="B114" t="s">
-        <v>79</v>
+        <v>416</v>
       </c>
       <c r="C114" t="s">
-        <v>79</v>
+        <v>417</v>
       </c>
       <c r="D114" t="s">
-        <v>80</v>
+        <v>418</v>
       </c>
       <c r="E114" t="s">
-        <v>455</v>
+        <v>419</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
-        <v>169</v>
+        <v>63</v>
       </c>
       <c r="B115" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C115" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="D115" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="E115" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="B116" t="s">
-        <v>119</v>
+        <v>168</v>
       </c>
       <c r="C116" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="D116" t="s">
-        <v>117</v>
+        <v>169</v>
       </c>
       <c r="E116" t="s">
-        <v>118</v>
+        <v>170</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="s">
-        <v>87</v>
+        <v>168</v>
       </c>
       <c r="B117" t="s">
-        <v>87</v>
+        <v>168</v>
       </c>
       <c r="C117" t="s">
-        <v>87</v>
+        <v>168</v>
       </c>
       <c r="D117" t="s">
-        <v>88</v>
+        <v>153</v>
       </c>
       <c r="E117" t="s">
-        <v>89</v>
+        <v>171</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="s">
-        <v>87</v>
+        <v>168</v>
       </c>
       <c r="B118" t="s">
-        <v>87</v>
+        <v>168</v>
       </c>
       <c r="C118" t="s">
-        <v>87</v>
+        <v>168</v>
       </c>
       <c r="D118" t="s">
-        <v>90</v>
+        <v>457</v>
       </c>
       <c r="E118" t="s">
-        <v>91</v>
+        <v>458</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="s">
-        <v>87</v>
+        <v>168</v>
       </c>
       <c r="B119" t="s">
-        <v>87</v>
+        <v>472</v>
       </c>
       <c r="C119" t="s">
-        <v>87</v>
+        <v>172</v>
       </c>
       <c r="D119" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="E119" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="s">
-        <v>87</v>
+        <v>168</v>
       </c>
       <c r="B120" t="s">
-        <v>87</v>
+        <v>472</v>
       </c>
       <c r="C120" t="s">
-        <v>87</v>
+        <v>172</v>
       </c>
       <c r="D120" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E120" t="s">
-        <v>454</v>
+        <v>176</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="s">
-        <v>87</v>
+        <v>168</v>
       </c>
       <c r="B121" t="s">
-        <v>87</v>
+        <v>472</v>
       </c>
       <c r="C121" t="s">
-        <v>87</v>
+        <v>172</v>
       </c>
       <c r="D121" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="E121" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" t="s">
-        <v>87</v>
+        <v>168</v>
       </c>
       <c r="B122" t="s">
-        <v>87</v>
+        <v>472</v>
       </c>
       <c r="C122" t="s">
-        <v>87</v>
+        <v>172</v>
       </c>
       <c r="D122" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="E122" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" t="s">
-        <v>87</v>
+        <v>168</v>
       </c>
       <c r="B123" t="s">
-        <v>87</v>
+        <v>472</v>
       </c>
       <c r="C123" t="s">
-        <v>87</v>
+        <v>172</v>
       </c>
       <c r="D123" t="s">
-        <v>194</v>
+        <v>473</v>
       </c>
       <c r="E123" t="s">
-        <v>193</v>
+        <v>474</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" t="s">
-        <v>87</v>
+        <v>168</v>
       </c>
       <c r="B124" t="s">
-        <v>87</v>
+        <v>181</v>
       </c>
       <c r="C124" t="s">
-        <v>87</v>
+        <v>181</v>
       </c>
       <c r="D124" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="E124" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" t="s">
-        <v>87</v>
+        <v>168</v>
       </c>
       <c r="B125" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C125" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D125" t="s">
-        <v>197</v>
+        <v>80</v>
       </c>
       <c r="E125" t="s">
-        <v>198</v>
+        <v>450</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" t="s">
-        <v>87</v>
+        <v>168</v>
       </c>
       <c r="B126" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C126" t="s">
-        <v>199</v>
+        <v>79</v>
       </c>
       <c r="D126" t="s">
-        <v>200</v>
+        <v>81</v>
       </c>
       <c r="E126" t="s">
-        <v>201</v>
+        <v>82</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="B127" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="C127" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="D127" t="s">
-        <v>202</v>
+        <v>116</v>
       </c>
       <c r="E127" t="s">
-        <v>203</v>
+        <v>117</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -9216,16 +9659,16 @@
         <v>87</v>
       </c>
       <c r="B128" t="s">
-        <v>204</v>
+        <v>87</v>
       </c>
       <c r="C128" t="s">
-        <v>205</v>
+        <v>87</v>
       </c>
       <c r="D128" t="s">
-        <v>206</v>
+        <v>169</v>
       </c>
       <c r="E128" t="s">
-        <v>207</v>
+        <v>485</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -9236,1186 +9679,1407 @@
         <v>87</v>
       </c>
       <c r="C129" t="s">
-        <v>208</v>
+        <v>87</v>
       </c>
       <c r="D129" t="s">
-        <v>209</v>
+        <v>88</v>
       </c>
       <c r="E129" t="s">
-        <v>210</v>
+        <v>89</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" t="s">
-        <v>314</v>
+        <v>87</v>
       </c>
       <c r="B130" t="s">
-        <v>314</v>
+        <v>87</v>
       </c>
       <c r="C130" t="s">
-        <v>314</v>
+        <v>87</v>
       </c>
       <c r="D130" t="s">
-        <v>170</v>
+        <v>90</v>
       </c>
       <c r="E130" t="s">
-        <v>364</v>
+        <v>91</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" t="s">
-        <v>314</v>
+        <v>87</v>
       </c>
       <c r="B131" t="s">
-        <v>314</v>
+        <v>87</v>
       </c>
       <c r="C131" t="s">
-        <v>314</v>
+        <v>87</v>
       </c>
       <c r="D131" t="s">
-        <v>362</v>
+        <v>185</v>
       </c>
       <c r="E131" t="s">
-        <v>363</v>
+        <v>186</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" t="s">
-        <v>314</v>
+        <v>87</v>
       </c>
       <c r="B132" t="s">
-        <v>314</v>
+        <v>87</v>
       </c>
       <c r="C132" t="s">
-        <v>314</v>
+        <v>87</v>
       </c>
       <c r="D132" t="s">
-        <v>315</v>
+        <v>187</v>
       </c>
       <c r="E132" t="s">
-        <v>316</v>
+        <v>486</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" t="s">
-        <v>314</v>
+        <v>87</v>
       </c>
       <c r="B133" t="s">
-        <v>314</v>
+        <v>87</v>
       </c>
       <c r="C133" t="s">
-        <v>314</v>
+        <v>87</v>
       </c>
       <c r="D133" t="s">
-        <v>347</v>
+        <v>189</v>
       </c>
       <c r="E133" t="s">
-        <v>348</v>
+        <v>188</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" t="s">
-        <v>314</v>
+        <v>87</v>
       </c>
       <c r="B134" t="s">
-        <v>314</v>
+        <v>87</v>
       </c>
       <c r="C134" t="s">
-        <v>314</v>
+        <v>87</v>
       </c>
       <c r="D134" t="s">
-        <v>350</v>
+        <v>190</v>
       </c>
       <c r="E134" t="s">
-        <v>349</v>
+        <v>191</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" t="s">
-        <v>314</v>
+        <v>87</v>
       </c>
       <c r="B135" t="s">
-        <v>314</v>
+        <v>87</v>
       </c>
       <c r="C135" t="s">
-        <v>314</v>
+        <v>87</v>
       </c>
       <c r="D135" t="s">
-        <v>365</v>
+        <v>193</v>
       </c>
       <c r="E135" t="s">
-        <v>366</v>
+        <v>192</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" t="s">
-        <v>314</v>
+        <v>87</v>
       </c>
       <c r="B136" t="s">
-        <v>314</v>
+        <v>87</v>
       </c>
       <c r="C136" t="s">
-        <v>314</v>
+        <v>87</v>
       </c>
       <c r="D136" t="s">
-        <v>367</v>
+        <v>194</v>
       </c>
       <c r="E136" t="s">
-        <v>368</v>
+        <v>195</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" t="s">
-        <v>314</v>
+        <v>87</v>
       </c>
       <c r="B137" t="s">
-        <v>314</v>
+        <v>87</v>
       </c>
       <c r="C137" t="s">
-        <v>314</v>
+        <v>87</v>
       </c>
       <c r="D137" t="s">
-        <v>456</v>
+        <v>196</v>
       </c>
       <c r="E137" t="s">
-        <v>457</v>
+        <v>197</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" t="s">
-        <v>314</v>
+        <v>87</v>
       </c>
       <c r="B138" t="s">
-        <v>314</v>
+        <v>87</v>
       </c>
       <c r="C138" t="s">
-        <v>314</v>
+        <v>87</v>
       </c>
       <c r="D138" t="s">
-        <v>458</v>
+        <v>487</v>
       </c>
       <c r="E138" t="s">
-        <v>459</v>
+        <v>488</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" t="s">
-        <v>314</v>
+        <v>87</v>
       </c>
       <c r="B139" t="s">
-        <v>314</v>
+        <v>87</v>
       </c>
       <c r="C139" t="s">
-        <v>314</v>
+        <v>87</v>
       </c>
       <c r="D139" t="s">
-        <v>460</v>
+        <v>201</v>
       </c>
       <c r="E139" t="s">
-        <v>461</v>
+        <v>202</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" t="s">
-        <v>211</v>
+        <v>87</v>
       </c>
       <c r="B140" t="s">
-        <v>211</v>
+        <v>87</v>
       </c>
       <c r="C140" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="D140" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="E140" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" t="s">
-        <v>211</v>
+        <v>87</v>
       </c>
       <c r="B141" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C141" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="D141" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
       <c r="E141" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" t="s">
-        <v>211</v>
+        <v>87</v>
       </c>
       <c r="B142" t="s">
-        <v>211</v>
+        <v>87</v>
       </c>
       <c r="C142" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D142" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="E142" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" t="s">
-        <v>211</v>
+        <v>312</v>
       </c>
       <c r="B143" t="s">
-        <v>211</v>
+        <v>312</v>
       </c>
       <c r="C143" t="s">
-        <v>211</v>
+        <v>312</v>
       </c>
       <c r="D143" t="s">
-        <v>216</v>
+        <v>169</v>
       </c>
       <c r="E143" t="s">
-        <v>217</v>
+        <v>362</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="B144" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="C144" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="D144" t="s">
-        <v>320</v>
+        <v>360</v>
       </c>
       <c r="E144" t="s">
-        <v>321</v>
+        <v>361</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" t="s">
-        <v>68</v>
+        <v>312</v>
       </c>
       <c r="B145" t="s">
-        <v>67</v>
+        <v>312</v>
       </c>
       <c r="C145" t="s">
-        <v>68</v>
+        <v>312</v>
       </c>
       <c r="D145" t="s">
-        <v>69</v>
+        <v>313</v>
       </c>
       <c r="E145" t="s">
-        <v>70</v>
+        <v>314</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" t="s">
-        <v>68</v>
+        <v>312</v>
       </c>
       <c r="B146" t="s">
-        <v>68</v>
+        <v>312</v>
       </c>
       <c r="C146" t="s">
-        <v>68</v>
+        <v>312</v>
       </c>
       <c r="D146" t="s">
-        <v>218</v>
+        <v>345</v>
       </c>
       <c r="E146" t="s">
-        <v>313</v>
+        <v>346</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" t="s">
-        <v>68</v>
+        <v>312</v>
       </c>
       <c r="B147" t="s">
-        <v>68</v>
+        <v>312</v>
       </c>
       <c r="C147" t="s">
-        <v>68</v>
+        <v>312</v>
       </c>
       <c r="D147" t="s">
-        <v>219</v>
+        <v>348</v>
       </c>
       <c r="E147" t="s">
-        <v>385</v>
+        <v>347</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" t="s">
-        <v>68</v>
+        <v>312</v>
       </c>
       <c r="B148" t="s">
-        <v>68</v>
+        <v>312</v>
       </c>
       <c r="C148" t="s">
-        <v>68</v>
+        <v>312</v>
       </c>
       <c r="D148" t="s">
-        <v>220</v>
+        <v>363</v>
       </c>
       <c r="E148" t="s">
-        <v>312</v>
+        <v>364</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" t="s">
-        <v>68</v>
+        <v>312</v>
       </c>
       <c r="B149" t="s">
-        <v>68</v>
+        <v>312</v>
       </c>
       <c r="C149" t="s">
-        <v>68</v>
+        <v>312</v>
       </c>
       <c r="D149" t="s">
-        <v>221</v>
+        <v>365</v>
       </c>
       <c r="E149" t="s">
-        <v>222</v>
+        <v>366</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" t="s">
-        <v>68</v>
+        <v>312</v>
       </c>
       <c r="B150" t="s">
-        <v>68</v>
+        <v>312</v>
       </c>
       <c r="C150" t="s">
-        <v>68</v>
+        <v>312</v>
       </c>
       <c r="D150" t="s">
-        <v>223</v>
+        <v>451</v>
       </c>
       <c r="E150" t="s">
-        <v>224</v>
+        <v>452</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" t="s">
-        <v>68</v>
+        <v>312</v>
       </c>
       <c r="B151" t="s">
-        <v>68</v>
+        <v>312</v>
       </c>
       <c r="C151" t="s">
-        <v>68</v>
+        <v>312</v>
       </c>
       <c r="D151" t="s">
-        <v>225</v>
+        <v>453</v>
       </c>
       <c r="E151" t="s">
-        <v>226</v>
+        <v>454</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" t="s">
-        <v>68</v>
+        <v>312</v>
       </c>
       <c r="B152" t="s">
-        <v>68</v>
+        <v>312</v>
       </c>
       <c r="C152" t="s">
-        <v>68</v>
+        <v>312</v>
       </c>
       <c r="D152" t="s">
-        <v>415</v>
+        <v>455</v>
       </c>
       <c r="E152" t="s">
-        <v>416</v>
+        <v>456</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" t="s">
-        <v>68</v>
+        <v>210</v>
       </c>
       <c r="B153" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="C153" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="D153" t="s">
-        <v>229</v>
+        <v>185</v>
       </c>
       <c r="E153" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" t="s">
-        <v>68</v>
+        <v>210</v>
       </c>
       <c r="B154" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="C154" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="D154" t="s">
-        <v>231</v>
+        <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" t="s">
-        <v>68</v>
+        <v>210</v>
       </c>
       <c r="B155" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="C155" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="D155" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="E155" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" t="s">
-        <v>68</v>
+        <v>210</v>
       </c>
       <c r="B156" t="s">
-        <v>307</v>
+        <v>210</v>
       </c>
       <c r="C156" t="s">
-        <v>307</v>
+        <v>210</v>
       </c>
       <c r="D156" t="s">
-        <v>308</v>
+        <v>215</v>
       </c>
       <c r="E156" t="s">
-        <v>309</v>
+        <v>216</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" t="s">
-        <v>68</v>
+        <v>317</v>
       </c>
       <c r="B157" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="C157" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="D157" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="E157" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" t="s">
-        <v>282</v>
+        <v>68</v>
       </c>
       <c r="B158" t="s">
-        <v>282</v>
+        <v>67</v>
       </c>
       <c r="C158" t="s">
-        <v>282</v>
+        <v>68</v>
       </c>
       <c r="D158" t="s">
-        <v>310</v>
+        <v>69</v>
       </c>
       <c r="E158" t="s">
-        <v>317</v>
+        <v>70</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" t="s">
-        <v>282</v>
+        <v>68</v>
       </c>
       <c r="B159" t="s">
-        <v>323</v>
+        <v>68</v>
       </c>
       <c r="C159" t="s">
-        <v>323</v>
+        <v>68</v>
       </c>
       <c r="D159" t="s">
-        <v>170</v>
+        <v>217</v>
       </c>
       <c r="E159" t="s">
-        <v>361</v>
+        <v>471</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" t="s">
-        <v>282</v>
+        <v>68</v>
       </c>
       <c r="B160" t="s">
-        <v>323</v>
+        <v>68</v>
       </c>
       <c r="C160" t="s">
-        <v>323</v>
+        <v>68</v>
       </c>
       <c r="D160" t="s">
-        <v>324</v>
+        <v>218</v>
       </c>
       <c r="E160" t="s">
-        <v>354</v>
+        <v>383</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" t="s">
-        <v>282</v>
+        <v>68</v>
       </c>
       <c r="B161" t="s">
-        <v>323</v>
+        <v>68</v>
       </c>
       <c r="C161" t="s">
-        <v>323</v>
+        <v>68</v>
       </c>
       <c r="D161" t="s">
-        <v>449</v>
+        <v>219</v>
       </c>
       <c r="E161" t="s">
-        <v>450</v>
+        <v>311</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" t="s">
-        <v>282</v>
+        <v>68</v>
       </c>
       <c r="B162" t="s">
-        <v>323</v>
+        <v>68</v>
       </c>
       <c r="C162" t="s">
-        <v>323</v>
+        <v>68</v>
       </c>
       <c r="D162" t="s">
-        <v>346</v>
+        <v>220</v>
       </c>
       <c r="E162" t="s">
-        <v>428</v>
+        <v>221</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" t="s">
-        <v>282</v>
+        <v>68</v>
       </c>
       <c r="B163" t="s">
-        <v>323</v>
+        <v>68</v>
       </c>
       <c r="C163" t="s">
-        <v>323</v>
+        <v>68</v>
       </c>
       <c r="D163" t="s">
-        <v>427</v>
+        <v>222</v>
       </c>
       <c r="E163" t="s">
-        <v>429</v>
+        <v>223</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" t="s">
-        <v>282</v>
+        <v>68</v>
       </c>
       <c r="B164" t="s">
-        <v>323</v>
+        <v>68</v>
       </c>
       <c r="C164" t="s">
-        <v>323</v>
+        <v>68</v>
       </c>
       <c r="D164" t="s">
-        <v>425</v>
+        <v>224</v>
       </c>
       <c r="E164" t="s">
-        <v>426</v>
+        <v>225</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" t="s">
-        <v>282</v>
+        <v>68</v>
       </c>
       <c r="B165" t="s">
-        <v>323</v>
+        <v>68</v>
       </c>
       <c r="C165" t="s">
-        <v>323</v>
+        <v>68</v>
       </c>
       <c r="D165" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
       <c r="E165" t="s">
-        <v>431</v>
+        <v>413</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" t="s">
-        <v>282</v>
+        <v>68</v>
       </c>
       <c r="B166" t="s">
-        <v>323</v>
+        <v>226</v>
       </c>
       <c r="C166" t="s">
-        <v>323</v>
+        <v>227</v>
       </c>
       <c r="D166" t="s">
-        <v>432</v>
+        <v>228</v>
       </c>
       <c r="E166" t="s">
-        <v>433</v>
+        <v>229</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" t="s">
-        <v>282</v>
+        <v>68</v>
       </c>
       <c r="B167" t="s">
-        <v>323</v>
+        <v>226</v>
       </c>
       <c r="C167" t="s">
-        <v>323</v>
+        <v>227</v>
       </c>
       <c r="D167" t="s">
-        <v>434</v>
+        <v>230</v>
       </c>
       <c r="E167" t="s">
-        <v>435</v>
+        <v>231</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" t="s">
-        <v>282</v>
+        <v>68</v>
       </c>
       <c r="B168" t="s">
-        <v>323</v>
+        <v>226</v>
       </c>
       <c r="C168" t="s">
-        <v>323</v>
+        <v>227</v>
       </c>
       <c r="D168" t="s">
-        <v>355</v>
+        <v>232</v>
       </c>
       <c r="E168" t="s">
-        <v>356</v>
+        <v>233</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" t="s">
-        <v>282</v>
+        <v>68</v>
       </c>
       <c r="B169" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="C169" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="D169" t="s">
-        <v>357</v>
+        <v>307</v>
       </c>
       <c r="E169" t="s">
-        <v>358</v>
+        <v>308</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" t="s">
-        <v>282</v>
+        <v>68</v>
       </c>
       <c r="B170" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="C170" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="D170" t="s">
-        <v>359</v>
+        <v>309</v>
       </c>
       <c r="E170" t="s">
-        <v>360</v>
+        <v>310</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" t="s">
-        <v>114</v>
+        <v>281</v>
       </c>
       <c r="B171" t="s">
-        <v>113</v>
+        <v>281</v>
       </c>
       <c r="C171" t="s">
-        <v>114</v>
+        <v>281</v>
       </c>
       <c r="D171" t="s">
-        <v>115</v>
+        <v>309</v>
       </c>
       <c r="E171" t="s">
-        <v>116</v>
+        <v>315</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" t="s">
-        <v>114</v>
+        <v>281</v>
       </c>
       <c r="B172" t="s">
-        <v>113</v>
+        <v>321</v>
       </c>
       <c r="C172" t="s">
-        <v>114</v>
+        <v>321</v>
       </c>
       <c r="D172" t="s">
-        <v>117</v>
+        <v>169</v>
       </c>
       <c r="E172" t="s">
-        <v>118</v>
+        <v>359</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" t="s">
-        <v>235</v>
+        <v>281</v>
       </c>
       <c r="B173" t="s">
-        <v>235</v>
+        <v>321</v>
       </c>
       <c r="C173" t="s">
-        <v>235</v>
+        <v>321</v>
       </c>
       <c r="D173" t="s">
-        <v>287</v>
+        <v>322</v>
       </c>
       <c r="E173" t="s">
-        <v>288</v>
+        <v>352</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" t="s">
-        <v>235</v>
+        <v>281</v>
       </c>
       <c r="B174" t="s">
-        <v>235</v>
+        <v>321</v>
       </c>
       <c r="C174" t="s">
-        <v>235</v>
+        <v>321</v>
       </c>
       <c r="D174" t="s">
-        <v>236</v>
+        <v>445</v>
       </c>
       <c r="E174" t="s">
-        <v>237</v>
+        <v>446</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" t="s">
-        <v>235</v>
+        <v>281</v>
       </c>
       <c r="B175" t="s">
-        <v>235</v>
+        <v>321</v>
       </c>
       <c r="C175" t="s">
-        <v>235</v>
+        <v>321</v>
       </c>
       <c r="D175" t="s">
-        <v>238</v>
+        <v>344</v>
       </c>
       <c r="E175" t="s">
-        <v>237</v>
+        <v>460</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" t="s">
-        <v>235</v>
+        <v>281</v>
       </c>
       <c r="B176" t="s">
-        <v>235</v>
+        <v>321</v>
       </c>
       <c r="C176" t="s">
-        <v>235</v>
+        <v>321</v>
       </c>
       <c r="D176" t="s">
-        <v>239</v>
+        <v>424</v>
       </c>
       <c r="E176" t="s">
-        <v>240</v>
+        <v>425</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" t="s">
-        <v>235</v>
+        <v>281</v>
       </c>
       <c r="B177" t="s">
-        <v>235</v>
+        <v>321</v>
       </c>
       <c r="C177" t="s">
-        <v>241</v>
+        <v>321</v>
       </c>
       <c r="D177" t="s">
-        <v>242</v>
+        <v>422</v>
       </c>
       <c r="E177" t="s">
-        <v>243</v>
+        <v>423</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" t="s">
-        <v>235</v>
+        <v>281</v>
       </c>
       <c r="B178" t="s">
-        <v>235</v>
+        <v>321</v>
       </c>
       <c r="C178" t="s">
-        <v>244</v>
+        <v>321</v>
       </c>
       <c r="D178" t="s">
-        <v>245</v>
+        <v>426</v>
       </c>
       <c r="E178" t="s">
-        <v>248</v>
+        <v>427</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" t="s">
-        <v>235</v>
+        <v>281</v>
       </c>
       <c r="B179" t="s">
-        <v>235</v>
+        <v>321</v>
       </c>
       <c r="C179" t="s">
-        <v>235</v>
+        <v>321</v>
       </c>
       <c r="D179" t="s">
-        <v>246</v>
+        <v>428</v>
       </c>
       <c r="E179" t="s">
-        <v>247</v>
+        <v>429</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" t="s">
-        <v>235</v>
+        <v>281</v>
       </c>
       <c r="B180" t="s">
-        <v>235</v>
+        <v>321</v>
       </c>
       <c r="C180" t="s">
-        <v>249</v>
+        <v>321</v>
       </c>
       <c r="D180" t="s">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="E180" t="s">
-        <v>251</v>
+        <v>431</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" t="s">
-        <v>235</v>
+        <v>281</v>
       </c>
       <c r="B181" t="s">
-        <v>235</v>
+        <v>321</v>
       </c>
       <c r="C181" t="s">
-        <v>252</v>
+        <v>321</v>
       </c>
       <c r="D181" t="s">
-        <v>253</v>
+        <v>353</v>
       </c>
       <c r="E181" t="s">
-        <v>254</v>
+        <v>354</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" t="s">
-        <v>235</v>
+        <v>281</v>
       </c>
       <c r="B182" t="s">
-        <v>235</v>
+        <v>321</v>
       </c>
       <c r="C182" t="s">
-        <v>255</v>
+        <v>321</v>
       </c>
       <c r="D182" t="s">
-        <v>256</v>
+        <v>355</v>
       </c>
       <c r="E182" t="s">
-        <v>257</v>
+        <v>356</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" t="s">
-        <v>235</v>
+        <v>281</v>
       </c>
       <c r="B183" t="s">
-        <v>235</v>
+        <v>321</v>
       </c>
       <c r="C183" t="s">
-        <v>259</v>
+        <v>321</v>
       </c>
       <c r="D183" t="s">
-        <v>258</v>
+        <v>357</v>
       </c>
       <c r="E183" t="s">
-        <v>260</v>
+        <v>358</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" t="s">
-        <v>235</v>
+        <v>113</v>
       </c>
       <c r="B184" t="s">
-        <v>235</v>
+        <v>112</v>
       </c>
       <c r="C184" t="s">
-        <v>261</v>
+        <v>113</v>
       </c>
       <c r="D184" t="s">
-        <v>262</v>
+        <v>114</v>
       </c>
       <c r="E184" t="s">
-        <v>263</v>
+        <v>115</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" t="s">
-        <v>235</v>
+        <v>113</v>
       </c>
       <c r="B185" t="s">
-        <v>235</v>
+        <v>112</v>
       </c>
       <c r="C185" t="s">
-        <v>264</v>
+        <v>113</v>
       </c>
       <c r="D185" t="s">
-        <v>265</v>
+        <v>116</v>
       </c>
       <c r="E185" t="s">
-        <v>266</v>
+        <v>117</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B186" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C186" t="s">
-        <v>268</v>
+        <v>234</v>
       </c>
       <c r="D186" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="E186" t="s">
-        <v>269</v>
+        <v>287</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" t="s">
+        <v>234</v>
+      </c>
+      <c r="B187" t="s">
+        <v>234</v>
+      </c>
+      <c r="C187" t="s">
+        <v>234</v>
+      </c>
+      <c r="D187" t="s">
         <v>235</v>
       </c>
-      <c r="B187" t="s">
-        <v>235</v>
-      </c>
-      <c r="C187" t="s">
-        <v>270</v>
-      </c>
-      <c r="D187" t="s">
-        <v>271</v>
-      </c>
       <c r="E187" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B188" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C188" t="s">
-        <v>274</v>
+        <v>234</v>
       </c>
       <c r="D188" t="s">
-        <v>273</v>
+        <v>237</v>
       </c>
       <c r="E188" t="s">
-        <v>275</v>
+        <v>236</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B189" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C189" t="s">
-        <v>276</v>
+        <v>234</v>
       </c>
       <c r="D189" t="s">
-        <v>277</v>
+        <v>238</v>
       </c>
       <c r="E189" t="s">
-        <v>278</v>
+        <v>239</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B190" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C190" t="s">
-        <v>279</v>
+        <v>240</v>
       </c>
       <c r="D190" t="s">
-        <v>280</v>
+        <v>241</v>
       </c>
       <c r="E190" t="s">
-        <v>281</v>
+        <v>242</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B191" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C191" t="s">
-        <v>282</v>
+        <v>243</v>
       </c>
       <c r="D191" t="s">
-        <v>283</v>
+        <v>244</v>
       </c>
       <c r="E191" t="s">
-        <v>284</v>
+        <v>247</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B192" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C192" t="s">
-        <v>169</v>
+        <v>234</v>
       </c>
       <c r="D192" t="s">
-        <v>285</v>
+        <v>245</v>
       </c>
       <c r="E192" t="s">
-        <v>286</v>
+        <v>246</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" t="s">
-        <v>325</v>
+        <v>234</v>
       </c>
       <c r="B193" t="s">
-        <v>325</v>
+        <v>234</v>
       </c>
       <c r="C193" t="s">
-        <v>325</v>
+        <v>248</v>
       </c>
       <c r="D193" t="s">
-        <v>326</v>
+        <v>249</v>
       </c>
       <c r="E193" t="s">
-        <v>327</v>
+        <v>250</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" t="s">
-        <v>332</v>
+        <v>234</v>
       </c>
       <c r="B194" t="s">
-        <v>332</v>
+        <v>234</v>
       </c>
       <c r="C194" t="s">
-        <v>332</v>
+        <v>251</v>
       </c>
       <c r="D194" t="s">
-        <v>333</v>
+        <v>252</v>
       </c>
       <c r="E194" t="s">
-        <v>334</v>
+        <v>253</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" t="s">
-        <v>335</v>
+        <v>234</v>
       </c>
       <c r="B195" t="s">
-        <v>335</v>
+        <v>234</v>
       </c>
       <c r="C195" t="s">
-        <v>335</v>
+        <v>254</v>
       </c>
       <c r="D195" t="s">
-        <v>158</v>
+        <v>255</v>
       </c>
       <c r="E195" t="s">
-        <v>336</v>
+        <v>256</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" t="s">
-        <v>436</v>
+        <v>234</v>
       </c>
       <c r="B196" t="s">
-        <v>437</v>
+        <v>234</v>
       </c>
       <c r="C196" t="s">
-        <v>437</v>
+        <v>258</v>
       </c>
       <c r="D196" t="s">
-        <v>438</v>
+        <v>257</v>
       </c>
       <c r="E196" t="s">
-        <v>439</v>
+        <v>259</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" t="s">
-        <v>436</v>
+        <v>234</v>
       </c>
       <c r="B197" t="s">
-        <v>440</v>
+        <v>234</v>
       </c>
       <c r="C197" t="s">
-        <v>440</v>
+        <v>260</v>
       </c>
       <c r="D197" t="s">
-        <v>441</v>
+        <v>261</v>
       </c>
       <c r="E197" t="s">
-        <v>442</v>
+        <v>262</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" t="s">
-        <v>444</v>
+        <v>234</v>
       </c>
       <c r="B198" t="s">
+        <v>234</v>
+      </c>
+      <c r="C198" t="s">
+        <v>263</v>
+      </c>
+      <c r="D198" t="s">
+        <v>264</v>
+      </c>
+      <c r="E198" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A199" t="s">
+        <v>234</v>
+      </c>
+      <c r="B199" t="s">
+        <v>234</v>
+      </c>
+      <c r="C199" t="s">
+        <v>267</v>
+      </c>
+      <c r="D199" t="s">
+        <v>266</v>
+      </c>
+      <c r="E199" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A200" t="s">
+        <v>234</v>
+      </c>
+      <c r="B200" t="s">
+        <v>234</v>
+      </c>
+      <c r="C200" t="s">
+        <v>269</v>
+      </c>
+      <c r="D200" t="s">
+        <v>270</v>
+      </c>
+      <c r="E200" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A201" t="s">
+        <v>234</v>
+      </c>
+      <c r="B201" t="s">
+        <v>234</v>
+      </c>
+      <c r="C201" t="s">
+        <v>273</v>
+      </c>
+      <c r="D201" t="s">
+        <v>272</v>
+      </c>
+      <c r="E201" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A202" t="s">
+        <v>234</v>
+      </c>
+      <c r="B202" t="s">
+        <v>234</v>
+      </c>
+      <c r="C202" t="s">
+        <v>275</v>
+      </c>
+      <c r="D202" t="s">
+        <v>276</v>
+      </c>
+      <c r="E202" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A203" t="s">
+        <v>234</v>
+      </c>
+      <c r="B203" t="s">
+        <v>234</v>
+      </c>
+      <c r="C203" t="s">
+        <v>278</v>
+      </c>
+      <c r="D203" t="s">
+        <v>279</v>
+      </c>
+      <c r="E203" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A204" t="s">
+        <v>234</v>
+      </c>
+      <c r="B204" t="s">
+        <v>234</v>
+      </c>
+      <c r="C204" t="s">
+        <v>281</v>
+      </c>
+      <c r="D204" t="s">
+        <v>282</v>
+      </c>
+      <c r="E204" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A205" t="s">
+        <v>234</v>
+      </c>
+      <c r="B205" t="s">
+        <v>234</v>
+      </c>
+      <c r="C205" t="s">
+        <v>168</v>
+      </c>
+      <c r="D205" t="s">
+        <v>284</v>
+      </c>
+      <c r="E205" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A206" t="s">
+        <v>323</v>
+      </c>
+      <c r="B206" t="s">
+        <v>323</v>
+      </c>
+      <c r="C206" t="s">
+        <v>323</v>
+      </c>
+      <c r="D206" t="s">
+        <v>324</v>
+      </c>
+      <c r="E206" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A207" t="s">
+        <v>330</v>
+      </c>
+      <c r="B207" t="s">
+        <v>330</v>
+      </c>
+      <c r="C207" t="s">
+        <v>330</v>
+      </c>
+      <c r="D207" t="s">
+        <v>331</v>
+      </c>
+      <c r="E207" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A208" t="s">
+        <v>333</v>
+      </c>
+      <c r="B208" t="s">
+        <v>333</v>
+      </c>
+      <c r="C208" t="s">
+        <v>333</v>
+      </c>
+      <c r="D208" t="s">
+        <v>157</v>
+      </c>
+      <c r="E208" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A209" t="s">
+        <v>432</v>
+      </c>
+      <c r="B209" t="s">
+        <v>433</v>
+      </c>
+      <c r="C209" t="s">
+        <v>433</v>
+      </c>
+      <c r="D209" t="s">
+        <v>434</v>
+      </c>
+      <c r="E209" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A210" t="s">
+        <v>432</v>
+      </c>
+      <c r="B210" t="s">
+        <v>436</v>
+      </c>
+      <c r="C210" t="s">
+        <v>436</v>
+      </c>
+      <c r="D210" t="s">
         <v>437</v>
       </c>
-      <c r="C198" t="s">
-        <v>437</v>
-      </c>
-      <c r="D198" t="s">
-        <v>445</v>
-      </c>
-      <c r="E198" t="s">
-        <v>446</v>
+      <c r="E210" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A211" t="s">
+        <v>440</v>
+      </c>
+      <c r="B211" t="s">
+        <v>433</v>
+      </c>
+      <c r="C211" t="s">
+        <v>433</v>
+      </c>
+      <c r="D211" t="s">
+        <v>441</v>
+      </c>
+      <c r="E211" t="s">
+        <v>442</v>
       </c>
     </row>
   </sheetData>
